--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -19,28 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">за тех. обслуживание и коммунальные услуги
-${Group.grp_fname}
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="8"/>
-        <rFont val="Arial Cyr"/>
-        <family val="2"/>
-        <charset val="204"/>
-      </rPr>
-      <t>Р/с ${Group.bank_account}
-в ${Group.bank_name}
-БИК ${Group.bank_bik}        К/с ${Group.bank_correction}</t>
-    </r>
   </si>
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
@@ -245,6 +226,48 @@
     <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
 Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-908-564-80-32 (Набокин В.И.)                                                     </t>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">за тех. обслуживание и коммунальные услуги
+${Group.grp_fname}
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <rFont val="Arial Cyr"/>
+        <charset val="204"/>
+      </rPr>
+      <t>ИНН ${Group.group_inn} КПП ${Group.group_kpp}</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="10"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8"/>
+        <rFont val="Arial Cyr"/>
+        <family val="2"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Р/с ${Group.bank_account}
+в ${Group.bank_name}
+БИК ${Group.bank_bik}        К/с ${Group.bank_correction}</t>
+    </r>
+  </si>
+  <si>
+    <t>.</t>
+  </si>
 </sst>
 </file>
 
@@ -253,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="17" x14ac:knownFonts="1">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -365,6 +388,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -798,7 +827,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="117">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1020,6 +1049,45 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1034,42 +1102,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
@@ -1469,35 +1501,33 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="Q3" sqref="Q3:R4"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C38" sqref="C38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="22.140625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="8.42578125" style="1" customWidth="1"/>
-    <col min="4" max="8" width="10.85546875" style="1"/>
+    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="31" customWidth="1"/>
     <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="22.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="8.42578125" style="1" customWidth="1"/>
-    <col min="14" max="18" width="10.85546875" style="1"/>
+    <col min="12" max="12" width="26" style="1" customWidth="1"/>
+    <col min="13" max="18" width="11.140625" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:18" ht="65.099999999999994" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1512,14 +1542,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="98" t="s">
-        <v>1</v>
-      </c>
-      <c r="N2" s="99"/>
-      <c r="O2" s="99"/>
-      <c r="P2" s="99"/>
-      <c r="Q2" s="99"/>
-      <c r="R2" s="99"/>
+      <c r="M2" s="111" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2" s="112"/>
+      <c r="O2" s="112"/>
+      <c r="P2" s="112"/>
+      <c r="Q2" s="112"/>
+      <c r="R2" s="112"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
@@ -1535,16 +1565,16 @@
       <c r="K3" s="6"/>
       <c r="L3" s="6"/>
       <c r="M3" s="96" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N3" s="94"/>
       <c r="P3" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="Q3" s="115" t="s">
-        <v>7</v>
-      </c>
-      <c r="R3" s="115"/>
+        <v>4</v>
+      </c>
+      <c r="Q3" s="116" t="s">
+        <v>6</v>
+      </c>
+      <c r="R3" s="116"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
@@ -1560,13 +1590,13 @@
       <c r="K4" s="6"/>
       <c r="L4" s="6"/>
       <c r="M4" s="93" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="N4" s="94"/>
       <c r="O4" s="95"/>
       <c r="P4" s="93"/>
-      <c r="Q4" s="115"/>
-      <c r="R4" s="115"/>
+      <c r="Q4" s="116"/>
+      <c r="R4" s="116"/>
     </row>
     <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="3"/>
@@ -1582,13 +1612,13 @@
       <c r="K5" s="6"/>
       <c r="L5" s="6"/>
       <c r="M5" s="32" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N5" s="6"/>
       <c r="O5" s="7"/>
       <c r="P5" s="8"/>
       <c r="Q5" s="9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="R5" s="10"/>
     </row>
@@ -1606,14 +1636,14 @@
       <c r="K6" s="5"/>
       <c r="L6" s="5"/>
       <c r="M6" s="33" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N6" s="33"/>
       <c r="O6" s="33"/>
       <c r="P6" s="33"/>
       <c r="Q6" s="33"/>
       <c r="R6" s="34" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1630,14 +1660,14 @@
       <c r="K7" s="5"/>
       <c r="L7" s="5"/>
       <c r="M7" s="33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N7" s="33"/>
       <c r="O7" s="33"/>
       <c r="P7" s="33"/>
       <c r="Q7" s="33"/>
       <c r="R7" s="35" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1654,14 +1684,14 @@
       <c r="K8" s="5"/>
       <c r="L8" s="5"/>
       <c r="M8" s="33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N8" s="33"/>
       <c r="O8" s="33"/>
       <c r="P8" s="33"/>
       <c r="Q8" s="33"/>
       <c r="R8" s="35" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1678,14 +1708,14 @@
       <c r="K9" s="5"/>
       <c r="L9" s="5"/>
       <c r="M9" s="33" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N9" s="33"/>
       <c r="O9" s="33"/>
       <c r="P9" s="33"/>
       <c r="Q9" s="33"/>
       <c r="R9" s="36" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1722,7 +1752,7 @@
       <c r="K11" s="5"/>
       <c r="L11" s="5"/>
       <c r="M11" s="5" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="N11" s="5"/>
       <c r="O11" s="5"/>
@@ -1741,16 +1771,16 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="102" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="102"/>
-      <c r="M12" s="102"/>
-      <c r="N12" s="102"/>
-      <c r="O12" s="102"/>
-      <c r="P12" s="102"/>
-      <c r="Q12" s="102"/>
-      <c r="R12" s="102"/>
+      <c r="K12" s="115" t="s">
+        <v>53</v>
+      </c>
+      <c r="L12" s="115"/>
+      <c r="M12" s="115"/>
+      <c r="N12" s="115"/>
+      <c r="O12" s="115"/>
+      <c r="P12" s="115"/>
+      <c r="Q12" s="115"/>
+      <c r="R12" s="115"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="3"/>
@@ -1765,11 +1795,11 @@
       <c r="J13" s="29"/>
       <c r="K13" s="5"/>
       <c r="L13" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N13" s="5"/>
       <c r="O13" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q13" s="5"/>
       <c r="R13" s="22"/>
@@ -1796,69 +1826,69 @@
     </row>
     <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" s="12"/>
+      <c r="C15" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="D15" s="100"/>
-      <c r="E15" s="100"/>
-      <c r="F15" s="100"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="100"/>
+      <c r="D15" s="113"/>
+      <c r="E15" s="113"/>
+      <c r="F15" s="113"/>
+      <c r="G15" s="113"/>
+      <c r="H15" s="113"/>
       <c r="I15" s="21"/>
       <c r="J15" s="29"/>
       <c r="K15" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="L15" s="12"/>
+      <c r="M15" s="113" t="s">
         <v>16</v>
       </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="100" t="s">
-        <v>17</v>
-      </c>
-      <c r="N15" s="100"/>
-      <c r="O15" s="100"/>
-      <c r="P15" s="100"/>
-      <c r="Q15" s="100"/>
-      <c r="R15" s="100"/>
+      <c r="N15" s="113"/>
+      <c r="O15" s="113"/>
+      <c r="P15" s="113"/>
+      <c r="Q15" s="113"/>
+      <c r="R15" s="113"/>
     </row>
     <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D16" s="37"/>
       <c r="E16" s="37"/>
       <c r="F16" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="G16" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="H16" s="101"/>
+        <v>18</v>
+      </c>
+      <c r="G16" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="H16" s="114"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
       <c r="L16" s="41"/>
       <c r="M16" s="37" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="N16" s="37"/>
       <c r="O16" s="37"/>
       <c r="P16" s="38" t="s">
-        <v>19</v>
-      </c>
-      <c r="Q16" s="101" t="s">
-        <v>7</v>
-      </c>
-      <c r="R16" s="101"/>
+        <v>18</v>
+      </c>
+      <c r="Q16" s="114" t="s">
+        <v>6</v>
+      </c>
+      <c r="R16" s="114"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D17" s="42"/>
       <c r="E17" s="42"/>
@@ -1869,7 +1899,7 @@
       <c r="K17" s="44"/>
       <c r="L17" s="44"/>
       <c r="M17" s="42" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="N17" s="42"/>
       <c r="O17" s="42"/>
@@ -1885,7 +1915,7 @@
       <c r="F18" s="42"/>
       <c r="G18" s="42"/>
       <c r="H18" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I18" s="43"/>
       <c r="J18" s="40"/>
@@ -1897,143 +1927,143 @@
       <c r="P18" s="42"/>
       <c r="Q18" s="42"/>
       <c r="R18" s="43" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="D19" s="105"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="105"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="105"/>
+      <c r="C19" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="D19" s="101"/>
+      <c r="E19" s="101"/>
+      <c r="F19" s="101"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="101"/>
       <c r="I19" s="45"/>
       <c r="J19" s="40"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
-      <c r="M19" s="105" t="s">
-        <v>22</v>
-      </c>
-      <c r="N19" s="105"/>
-      <c r="O19" s="105"/>
-      <c r="P19" s="105"/>
-      <c r="Q19" s="105"/>
-      <c r="R19" s="105"/>
+      <c r="M19" s="101" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19" s="101"/>
+      <c r="O19" s="101"/>
+      <c r="P19" s="101"/>
+      <c r="Q19" s="101"/>
+      <c r="R19" s="101"/>
     </row>
     <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="44" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D20" s="44"/>
       <c r="E20" s="44"/>
       <c r="F20" s="44"/>
       <c r="G20" s="46"/>
       <c r="H20" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="I20" s="48"/>
       <c r="J20" s="40"/>
       <c r="K20" s="44"/>
       <c r="L20" s="44"/>
       <c r="M20" s="44" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N20" s="44"/>
       <c r="O20" s="44"/>
       <c r="P20" s="44"/>
       <c r="Q20" s="46"/>
       <c r="R20" s="47" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D21" s="44"/>
       <c r="E21" s="44"/>
       <c r="F21" s="44"/>
       <c r="G21" s="46"/>
       <c r="H21" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="I21" s="48"/>
       <c r="J21" s="40"/>
       <c r="K21" s="44"/>
       <c r="L21" s="44"/>
       <c r="M21" s="44" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="N21" s="44"/>
       <c r="O21" s="44"/>
       <c r="P21" s="44"/>
       <c r="Q21" s="46"/>
       <c r="R21" s="49" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D22" s="44"/>
       <c r="E22" s="44"/>
       <c r="F22" s="44"/>
       <c r="G22" s="46"/>
       <c r="H22" s="49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="I22" s="48"/>
       <c r="J22" s="40"/>
       <c r="K22" s="44"/>
       <c r="L22" s="44"/>
       <c r="M22" s="44" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="N22" s="44"/>
       <c r="O22" s="44"/>
       <c r="P22" s="44"/>
       <c r="Q22" s="46"/>
       <c r="R22" s="49" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
       <c r="F23" s="44"/>
       <c r="G23" s="46"/>
       <c r="H23" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="I23" s="51"/>
       <c r="J23" s="40"/>
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="N23" s="44"/>
       <c r="O23" s="44"/>
       <c r="P23" s="44"/>
       <c r="Q23" s="46"/>
       <c r="R23" s="50" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2049,11 +2079,11 @@
       <c r="J24" s="40"/>
       <c r="K24" s="44"/>
       <c r="L24" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="N24" s="5"/>
       <c r="O24" s="13" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="Q24" s="46"/>
       <c r="R24" s="51"/>
@@ -2080,54 +2110,54 @@
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="52"/>
-      <c r="B26" s="109" t="s">
+      <c r="B26" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="C26" s="106"/>
+      <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="C26" s="110"/>
-      <c r="D26" s="53" t="s">
+      <c r="E26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="E26" s="53" t="s">
+      <c r="F26" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="F26" s="53" t="s">
+      <c r="G26" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="G26" s="53" t="s">
+      <c r="H26" s="54" t="s">
         <v>28</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>29</v>
       </c>
       <c r="I26" s="55"/>
       <c r="J26" s="40"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="109" t="s">
+      <c r="L26" s="105" t="s">
+        <v>23</v>
+      </c>
+      <c r="M26" s="106"/>
+      <c r="N26" s="53" t="s">
         <v>24</v>
       </c>
-      <c r="M26" s="110"/>
-      <c r="N26" s="53" t="s">
+      <c r="O26" s="53" t="s">
         <v>25</v>
       </c>
-      <c r="O26" s="53" t="s">
+      <c r="P26" s="53" t="s">
         <v>26</v>
       </c>
-      <c r="P26" s="53" t="s">
+      <c r="Q26" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="Q26" s="53" t="s">
+      <c r="R26" s="54" t="s">
         <v>28</v>
       </c>
-      <c r="R26" s="54" t="s">
+      <c r="S26" t="s">
         <v>29</v>
-      </c>
-      <c r="S26" t="s">
-        <v>30</v>
       </c>
     </row>
     <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="56" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B27" s="57"/>
       <c r="C27" s="58"/>
@@ -2149,55 +2179,55 @@
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="B28" s="107" t="s">
         <v>32</v>
       </c>
-      <c r="B28" s="111" t="s">
+      <c r="C28" s="108"/>
+      <c r="D28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="C28" s="112"/>
-      <c r="D28" s="62" t="s">
+      <c r="E28" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="F28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="F28" s="63" t="s">
+      <c r="G28" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="G28" s="63" t="s">
+      <c r="H28" s="64" t="s">
         <v>37</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>38</v>
       </c>
       <c r="I28" s="65"/>
       <c r="J28" s="40"/>
       <c r="K28" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="L28" s="109" t="s">
         <v>32</v>
       </c>
-      <c r="L28" s="113" t="s">
+      <c r="M28" s="110"/>
+      <c r="N28" s="62" t="s">
         <v>33</v>
       </c>
-      <c r="M28" s="114"/>
-      <c r="N28" s="62" t="s">
+      <c r="O28" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="O28" s="62" t="s">
+      <c r="P28" s="63" t="s">
         <v>35</v>
       </c>
-      <c r="P28" s="63" t="s">
+      <c r="Q28" s="63" t="s">
         <v>36</v>
       </c>
-      <c r="Q28" s="63" t="s">
+      <c r="R28" s="64" t="s">
         <v>37</v>
-      </c>
-      <c r="R28" s="64" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="66" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B29" s="57"/>
       <c r="C29" s="58"/>
@@ -2219,38 +2249,38 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="67"/>
-      <c r="B30" s="106" t="s">
+      <c r="B30" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" s="103"/>
+      <c r="D30" s="104"/>
+      <c r="E30" s="79" t="s">
         <v>39</v>
-      </c>
-      <c r="C30" s="107"/>
-      <c r="D30" s="108"/>
-      <c r="E30" s="79" t="s">
-        <v>40</v>
       </c>
       <c r="F30" s="68"/>
       <c r="G30" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="H30" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="I30" s="65"/>
       <c r="J30" s="40"/>
       <c r="K30" s="67"/>
-      <c r="L30" s="106" t="s">
+      <c r="L30" s="102" t="s">
+        <v>38</v>
+      </c>
+      <c r="M30" s="103"/>
+      <c r="N30" s="104"/>
+      <c r="O30" s="79" t="s">
         <v>39</v>
-      </c>
-      <c r="M30" s="107"/>
-      <c r="N30" s="108"/>
-      <c r="O30" s="79" t="s">
-        <v>40</v>
       </c>
       <c r="P30" s="68"/>
       <c r="Q30" s="80" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="R30" s="80" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2276,16 +2306,16 @@
     <row r="32" spans="1:19" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A32" s="75"/>
       <c r="B32" s="86" t="s">
+        <v>40</v>
+      </c>
+      <c r="C32" s="87" t="s">
         <v>41</v>
       </c>
-      <c r="C32" s="87" t="s">
+      <c r="D32" s="87" t="s">
         <v>42</v>
       </c>
-      <c r="D32" s="87" t="s">
+      <c r="E32" s="88" t="s">
         <v>43</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>44</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="20"/>
@@ -2294,16 +2324,16 @@
       <c r="J32" s="77"/>
       <c r="K32" s="75"/>
       <c r="L32" s="81" t="s">
+        <v>40</v>
+      </c>
+      <c r="M32" s="74" t="s">
         <v>41</v>
       </c>
-      <c r="M32" s="74" t="s">
+      <c r="N32" s="74" t="s">
         <v>42</v>
       </c>
-      <c r="N32" s="74" t="s">
+      <c r="O32" s="82" t="s">
         <v>43</v>
-      </c>
-      <c r="O32" s="82" t="s">
-        <v>44</v>
       </c>
       <c r="P32" s="20"/>
       <c r="Q32" s="20"/>
@@ -2311,7 +2341,7 @@
     </row>
     <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A33" s="57" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B33" s="70"/>
       <c r="C33" s="71"/>
@@ -2334,16 +2364,16 @@
     <row r="34" spans="1:18" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A34" s="75"/>
       <c r="B34" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="C34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="C34" s="89" t="s">
+      <c r="D34" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="D34" s="89" t="s">
+      <c r="E34" s="90" t="s">
         <v>48</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>49</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="20"/>
@@ -2352,16 +2382,16 @@
       <c r="J34" s="77"/>
       <c r="K34" s="75"/>
       <c r="L34" s="91" t="s">
+        <v>45</v>
+      </c>
+      <c r="M34" s="89" t="s">
         <v>46</v>
       </c>
-      <c r="M34" s="89" t="s">
+      <c r="N34" s="89" t="s">
         <v>47</v>
       </c>
-      <c r="N34" s="89" t="s">
+      <c r="O34" s="90" t="s">
         <v>48</v>
-      </c>
-      <c r="O34" s="90" t="s">
-        <v>49</v>
       </c>
       <c r="P34" s="20"/>
       <c r="Q34" s="20"/>
@@ -2389,7 +2419,7 @@
     </row>
     <row r="36" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A36" s="17" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B36" s="18"/>
       <c r="C36" s="18"/>
@@ -2421,17 +2451,17 @@
       <c r="I37" s="20"/>
       <c r="J37" s="29"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="103" t="s">
-        <v>58</v>
-      </c>
-      <c r="M37" s="104"/>
-      <c r="N37" s="104"/>
-      <c r="O37" s="104"/>
-      <c r="P37" s="104"/>
-      <c r="Q37" s="104"/>
-      <c r="R37" s="104"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L37" s="99" t="s">
+        <v>57</v>
+      </c>
+      <c r="M37" s="100"/>
+      <c r="N37" s="100"/>
+      <c r="O37" s="100"/>
+      <c r="P37" s="100"/>
+      <c r="Q37" s="100"/>
+      <c r="R37" s="100"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2443,21 +2473,50 @@
       <c r="I38" s="20"/>
       <c r="J38" s="29"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="104"/>
-      <c r="M38" s="104"/>
-      <c r="N38" s="104"/>
-      <c r="O38" s="104"/>
-      <c r="P38" s="104"/>
-      <c r="Q38" s="104"/>
-      <c r="R38" s="104"/>
-    </row>
-    <row r="39" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>3</v>
+      <c r="L38" s="100"/>
+      <c r="M38" s="100"/>
+      <c r="N38" s="100"/>
+      <c r="O38" s="100"/>
+      <c r="P38" s="100"/>
+      <c r="Q38" s="100"/>
+      <c r="R38" s="100"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="17" t="s">
+        <v>59</v>
+      </c>
+      <c r="B39" s="18"/>
+      <c r="C39" s="18"/>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="29"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="98"/>
+      <c r="M39" s="98"/>
+      <c r="N39" s="98"/>
+      <c r="O39" s="98"/>
+      <c r="P39" s="98"/>
+      <c r="Q39" s="98"/>
+      <c r="R39" s="98"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
     <mergeCell ref="L37:R38"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2467,17 +2526,10 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>
-  <pageSetup paperSize="9" scale="73" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="65" orientation="landscape" horizontalDpi="4294967292" verticalDpi="4294967292" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="19" max="1048575" man="1"/>
   </colBreaks>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="21840" windowHeight="13740"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="21720" windowHeight="13620"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="140001"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
       <mx:ArchID Flags="2"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
@@ -268,6 +268,12 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>Процент банка: ${Group.percent}</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Итого: </t>
+  </si>
 </sst>
 </file>
 
@@ -276,7 +282,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1052,6 +1058,24 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1087,24 +1111,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1504,10 +1510,10 @@
   <dimension ref="A1:S40"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C38" sqref="C38"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
@@ -1521,13 +1527,13 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:18" customFormat="1">
       <c r="A1" s="3" t="s">
         <v>1</v>
       </c>
       <c r="J1" s="29"/>
     </row>
-    <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:18" ht="87" customHeight="1">
       <c r="A2"/>
       <c r="B2" s="4"/>
       <c r="C2" s="3"/>
@@ -1542,16 +1548,16 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="111" t="s">
+      <c r="M2" s="99" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="112"/>
-      <c r="O2" s="112"/>
-      <c r="P2" s="112"/>
-      <c r="Q2" s="112"/>
-      <c r="R2" s="112"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="N2" s="100"/>
+      <c r="O2" s="100"/>
+      <c r="P2" s="100"/>
+      <c r="Q2" s="100"/>
+      <c r="R2" s="100"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
       <c r="B3" s="4"/>
       <c r="C3"/>
@@ -1571,12 +1577,12 @@
       <c r="P3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="116" t="s">
+      <c r="Q3" s="104" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="116"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R3" s="104"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
       <c r="B4" s="4"/>
       <c r="C4"/>
@@ -1595,10 +1601,10 @@
       <c r="N4" s="94"/>
       <c r="O4" s="95"/>
       <c r="P4" s="93"/>
-      <c r="Q4" s="116"/>
-      <c r="R4" s="116"/>
-    </row>
-    <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q4" s="104"/>
+      <c r="R4" s="104"/>
+    </row>
+    <row r="5" spans="1:18" ht="35.25" thickBot="1">
       <c r="A5" s="3"/>
       <c r="B5" s="4"/>
       <c r="C5"/>
@@ -1622,7 +1628,7 @@
       </c>
       <c r="R5" s="10"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:18" ht="15.75">
       <c r="A6" s="3"/>
       <c r="B6" s="4"/>
       <c r="C6"/>
@@ -1646,7 +1652,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:18" ht="15.75">
       <c r="A7" s="3"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1670,7 +1676,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:18" ht="15.75">
       <c r="A8" s="3"/>
       <c r="B8"/>
       <c r="C8" s="11"/>
@@ -1694,7 +1700,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:18" ht="16.5" thickBot="1">
       <c r="A9" s="3"/>
       <c r="B9" s="3"/>
       <c r="C9" s="3"/>
@@ -1718,7 +1724,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:18" ht="3.95" customHeight="1">
       <c r="A10" s="3"/>
       <c r="B10" s="3"/>
       <c r="C10" s="3"/>
@@ -1738,7 +1744,7 @@
       <c r="Q10" s="5"/>
       <c r="R10" s="22"/>
     </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:18">
       <c r="A11" s="3"/>
       <c r="B11" s="3"/>
       <c r="C11" s="3"/>
@@ -1760,7 +1766,7 @@
       <c r="Q11" s="5"/>
       <c r="R11" s="22"/>
     </row>
-    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1">
       <c r="A12" s="3"/>
       <c r="B12" s="3"/>
       <c r="C12" s="3"/>
@@ -1771,18 +1777,18 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="115" t="s">
+      <c r="K12" s="103" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="115"/>
-      <c r="M12" s="115"/>
-      <c r="N12" s="115"/>
-      <c r="O12" s="115"/>
-      <c r="P12" s="115"/>
-      <c r="Q12" s="115"/>
-      <c r="R12" s="115"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L12" s="103"/>
+      <c r="M12" s="103"/>
+      <c r="N12" s="103"/>
+      <c r="O12" s="103"/>
+      <c r="P12" s="103"/>
+      <c r="Q12" s="103"/>
+      <c r="R12" s="103"/>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="3"/>
       <c r="B13" s="3"/>
       <c r="C13" s="5"/>
@@ -1804,7 +1810,7 @@
       <c r="Q13" s="5"/>
       <c r="R13" s="22"/>
     </row>
-    <row r="14" spans="1:18" s="28" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:18" s="28" customFormat="1" ht="3.95" customHeight="1">
       <c r="A14" s="23"/>
       <c r="B14" s="23"/>
       <c r="C14" s="23"/>
@@ -1824,35 +1830,35 @@
       <c r="Q14" s="26"/>
       <c r="R14" s="27"/>
     </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:18">
       <c r="A15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="113" t="s">
+      <c r="C15" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="113"/>
-      <c r="E15" s="113"/>
-      <c r="F15" s="113"/>
-      <c r="G15" s="113"/>
-      <c r="H15" s="113"/>
+      <c r="D15" s="101"/>
+      <c r="E15" s="101"/>
+      <c r="F15" s="101"/>
+      <c r="G15" s="101"/>
+      <c r="H15" s="101"/>
       <c r="I15" s="21"/>
       <c r="J15" s="29"/>
       <c r="K15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="113" t="s">
+      <c r="M15" s="101" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="113"/>
-      <c r="O15" s="113"/>
-      <c r="P15" s="113"/>
-      <c r="Q15" s="113"/>
-      <c r="R15" s="113"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N15" s="101"/>
+      <c r="O15" s="101"/>
+      <c r="P15" s="101"/>
+      <c r="Q15" s="101"/>
+      <c r="R15" s="101"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="14"/>
       <c r="B16" s="14"/>
       <c r="C16" s="37" t="s">
@@ -1863,10 +1869,10 @@
       <c r="F16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="114" t="s">
+      <c r="G16" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="114"/>
+      <c r="H16" s="102"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
@@ -1879,12 +1885,12 @@
       <c r="P16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="114" t="s">
+      <c r="Q16" s="102" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="114"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R16" s="102"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="13"/>
       <c r="B17" s="13"/>
       <c r="C17" s="42" t="s">
@@ -1906,7 +1912,7 @@
       <c r="P17" s="42"/>
       <c r="Q17" s="42"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15.75">
       <c r="A18" s="13"/>
       <c r="B18" s="13"/>
       <c r="C18" s="42"/>
@@ -1930,31 +1936,31 @@
         <v>20</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="101" t="s">
+      <c r="C19" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="101"/>
-      <c r="E19" s="101"/>
-      <c r="F19" s="101"/>
-      <c r="G19" s="101"/>
-      <c r="H19" s="101"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="107"/>
+      <c r="F19" s="107"/>
+      <c r="G19" s="107"/>
+      <c r="H19" s="107"/>
       <c r="I19" s="45"/>
       <c r="J19" s="40"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
-      <c r="M19" s="101" t="s">
+      <c r="M19" s="107" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="101"/>
-      <c r="O19" s="101"/>
-      <c r="P19" s="101"/>
-      <c r="Q19" s="101"/>
-      <c r="R19" s="101"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N19" s="107"/>
+      <c r="O19" s="107"/>
+      <c r="P19" s="107"/>
+      <c r="Q19" s="107"/>
+      <c r="R19" s="107"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="13"/>
       <c r="B20" s="13"/>
       <c r="C20" s="44" t="s">
@@ -1982,7 +1988,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:19" ht="15.75">
       <c r="A21" s="13"/>
       <c r="B21" s="13"/>
       <c r="C21" s="44" t="s">
@@ -2010,7 +2016,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" ht="15.75">
       <c r="A22" s="13"/>
       <c r="B22" s="13"/>
       <c r="C22" s="44" t="s">
@@ -2038,7 +2044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1">
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="44" t="s">
@@ -2066,7 +2072,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:19" ht="27.75" customHeight="1">
       <c r="A24" s="13"/>
       <c r="B24" s="13"/>
       <c r="C24" s="5"/>
@@ -2088,7 +2094,7 @@
       <c r="Q24" s="46"/>
       <c r="R24" s="51"/>
     </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A25" s="15"/>
       <c r="B25" s="15"/>
       <c r="C25" s="13"/>
@@ -2108,12 +2114,12 @@
       <c r="Q25" s="13"/>
       <c r="R25" s="13"/>
     </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="30.75" thickBot="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="105" t="s">
+      <c r="B26" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="106"/>
+      <c r="C26" s="112"/>
       <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
@@ -2132,10 +2138,10 @@
       <c r="I26" s="55"/>
       <c r="J26" s="40"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="105" t="s">
+      <c r="L26" s="111" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="106"/>
+      <c r="M26" s="112"/>
       <c r="N26" s="53" t="s">
         <v>24</v>
       </c>
@@ -2155,7 +2161,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:19" ht="15.75">
       <c r="A27" s="56" t="s">
         <v>30</v>
       </c>
@@ -2177,14 +2183,14 @@
       <c r="Q27" s="58"/>
       <c r="R27" s="60"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:19" ht="15.75">
       <c r="A28" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="107" t="s">
+      <c r="B28" s="113" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="108"/>
+      <c r="C28" s="114"/>
       <c r="D28" s="62" t="s">
         <v>33</v>
       </c>
@@ -2205,10 +2211,10 @@
       <c r="K28" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="109" t="s">
+      <c r="L28" s="115" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="110"/>
+      <c r="M28" s="116"/>
       <c r="N28" s="62" t="s">
         <v>33</v>
       </c>
@@ -2225,7 +2231,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="16.5" thickBot="1">
       <c r="A29" s="66" t="s">
         <v>2</v>
       </c>
@@ -2247,13 +2253,13 @@
       <c r="Q29" s="58"/>
       <c r="R29" s="60"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="102" t="s">
+      <c r="B30" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="103"/>
-      <c r="D30" s="104"/>
+      <c r="C30" s="109"/>
+      <c r="D30" s="110"/>
       <c r="E30" s="79" t="s">
         <v>39</v>
       </c>
@@ -2267,11 +2273,11 @@
       <c r="I30" s="65"/>
       <c r="J30" s="40"/>
       <c r="K30" s="67"/>
-      <c r="L30" s="102" t="s">
+      <c r="L30" s="108" t="s">
         <v>38</v>
       </c>
-      <c r="M30" s="103"/>
-      <c r="N30" s="104"/>
+      <c r="M30" s="109"/>
+      <c r="N30" s="110"/>
       <c r="O30" s="79" t="s">
         <v>39</v>
       </c>
@@ -2283,7 +2289,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A31" s="57"/>
       <c r="B31" s="69"/>
       <c r="C31" s="69"/>
@@ -2303,7 +2309,7 @@
       <c r="Q31" s="65"/>
       <c r="R31" s="65"/>
     </row>
-    <row r="32" spans="1:19" s="78" customFormat="1" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:19" s="78" customFormat="1" ht="13.5" thickBot="1">
       <c r="A32" s="75"/>
       <c r="B32" s="86" t="s">
         <v>40</v>
@@ -2339,7 +2345,7 @@
       <c r="Q32" s="20"/>
       <c r="R32" s="20"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:18" ht="15.75">
       <c r="A33" s="57" t="s">
         <v>44</v>
       </c>
@@ -2361,7 +2367,7 @@
       <c r="Q33" s="65"/>
       <c r="R33" s="65"/>
     </row>
-    <row r="34" spans="1:18" s="78" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:18" s="78" customFormat="1" ht="12.75">
       <c r="A34" s="75"/>
       <c r="B34" s="91" t="s">
         <v>45</v>
@@ -2397,7 +2403,7 @@
       <c r="Q34" s="20"/>
       <c r="R34" s="20"/>
     </row>
-    <row r="35" spans="1:18" s="78" customFormat="1" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:18" s="78" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A35" s="75"/>
       <c r="B35" s="92"/>
       <c r="C35" s="76"/>
@@ -2417,7 +2423,7 @@
       <c r="Q35" s="20"/>
       <c r="R35" s="20"/>
     </row>
-    <row r="36" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:18">
       <c r="A36" s="17" t="s">
         <v>2</v>
       </c>
@@ -2439,7 +2445,7 @@
       <c r="Q36" s="20"/>
       <c r="R36" s="20"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:18">
       <c r="A37" s="17"/>
       <c r="B37" s="18"/>
       <c r="C37" s="18"/>
@@ -2451,17 +2457,17 @@
       <c r="I37" s="20"/>
       <c r="J37" s="29"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="99" t="s">
+      <c r="L37" s="105" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="100"/>
-      <c r="N37" s="100"/>
-      <c r="O37" s="100"/>
-      <c r="P37" s="100"/>
-      <c r="Q37" s="100"/>
-      <c r="R37" s="100"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M37" s="106"/>
+      <c r="N37" s="106"/>
+      <c r="O37" s="106"/>
+      <c r="P37" s="106"/>
+      <c r="Q37" s="106"/>
+      <c r="R37" s="106"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
@@ -2473,22 +2479,29 @@
       <c r="I38" s="20"/>
       <c r="J38" s="29"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="100"/>
-      <c r="M38" s="100"/>
-      <c r="N38" s="100"/>
-      <c r="O38" s="100"/>
-      <c r="P38" s="100"/>
-      <c r="Q38" s="100"/>
-      <c r="R38" s="100"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="106"/>
+      <c r="M38" s="106"/>
+      <c r="N38" s="106"/>
+      <c r="O38" s="106"/>
+      <c r="P38" s="106"/>
+      <c r="Q38" s="106"/>
+      <c r="R38" s="106"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="B39" s="18"/>
+      <c r="B39" s="18" t="s">
+        <v>60</v>
+      </c>
       <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
+      <c r="D39" s="18" t="s">
+        <v>61</v>
+      </c>
+      <c r="E39" s="19" t="e">
+        <f xml:space="preserve"> (H30 * 100 / (100-B39))</f>
+        <v>#VALUE!</v>
+      </c>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -2503,20 +2516,13 @@
       <c r="Q39" s="98"/>
       <c r="R39" s="98"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:18">
       <c r="A40" t="s">
         <v>2</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
     <mergeCell ref="L37:R38"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2526,6 +2532,13 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
@@ -266,13 +266,10 @@
     </r>
   </si>
   <si>
-    <t>.</t>
-  </si>
-  <si>
-    <t>Процент банка: ${Group.percent}</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Итого: </t>
+    <t>${Group.percent}</t>
+  </si>
+  <si>
+    <t>К оплате всего :${lc.percent}</t>
   </si>
 </sst>
 </file>
@@ -282,7 +279,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="18">
+  <fonts count="19">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -400,6 +397,14 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="0"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -833,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="117">
+  <cellXfs count="118">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1058,6 +1063,45 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1075,42 +1119,6 @@
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1507,10 +1515,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A39" sqref="A39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1548,14 +1556,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="99" t="s">
+      <c r="M2" s="112" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="100"/>
-      <c r="O2" s="100"/>
-      <c r="P2" s="100"/>
-      <c r="Q2" s="100"/>
-      <c r="R2" s="100"/>
+      <c r="N2" s="113"/>
+      <c r="O2" s="113"/>
+      <c r="P2" s="113"/>
+      <c r="Q2" s="113"/>
+      <c r="R2" s="113"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
@@ -1577,10 +1585,10 @@
       <c r="P3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="104" t="s">
+      <c r="Q3" s="117" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="104"/>
+      <c r="R3" s="117"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
@@ -1601,8 +1609,8 @@
       <c r="N4" s="94"/>
       <c r="O4" s="95"/>
       <c r="P4" s="93"/>
-      <c r="Q4" s="104"/>
-      <c r="R4" s="104"/>
+      <c r="Q4" s="117"/>
+      <c r="R4" s="117"/>
     </row>
     <row r="5" spans="1:18" ht="35.25" thickBot="1">
       <c r="A5" s="3"/>
@@ -1777,16 +1785,16 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="103" t="s">
+      <c r="K12" s="116" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="103"/>
-      <c r="M12" s="103"/>
-      <c r="N12" s="103"/>
-      <c r="O12" s="103"/>
-      <c r="P12" s="103"/>
-      <c r="Q12" s="103"/>
-      <c r="R12" s="103"/>
+      <c r="L12" s="116"/>
+      <c r="M12" s="116"/>
+      <c r="N12" s="116"/>
+      <c r="O12" s="116"/>
+      <c r="P12" s="116"/>
+      <c r="Q12" s="116"/>
+      <c r="R12" s="116"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3"/>
@@ -1835,28 +1843,28 @@
         <v>15</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="101" t="s">
+      <c r="C15" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="101"/>
-      <c r="E15" s="101"/>
-      <c r="F15" s="101"/>
-      <c r="G15" s="101"/>
-      <c r="H15" s="101"/>
+      <c r="D15" s="114"/>
+      <c r="E15" s="114"/>
+      <c r="F15" s="114"/>
+      <c r="G15" s="114"/>
+      <c r="H15" s="114"/>
       <c r="I15" s="21"/>
       <c r="J15" s="29"/>
       <c r="K15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="101" t="s">
+      <c r="M15" s="114" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="101"/>
-      <c r="O15" s="101"/>
-      <c r="P15" s="101"/>
-      <c r="Q15" s="101"/>
-      <c r="R15" s="101"/>
+      <c r="N15" s="114"/>
+      <c r="O15" s="114"/>
+      <c r="P15" s="114"/>
+      <c r="Q15" s="114"/>
+      <c r="R15" s="114"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="14"/>
@@ -1869,10 +1877,10 @@
       <c r="F16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="102" t="s">
+      <c r="G16" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="102"/>
+      <c r="H16" s="115"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
@@ -1885,10 +1893,10 @@
       <c r="P16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="102" t="s">
+      <c r="Q16" s="115" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="102"/>
+      <c r="R16" s="115"/>
     </row>
     <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="13"/>
@@ -1939,26 +1947,26 @@
     <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="107" t="s">
+      <c r="C19" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="107"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="107"/>
-      <c r="G19" s="107"/>
-      <c r="H19" s="107"/>
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
       <c r="I19" s="45"/>
       <c r="J19" s="40"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
-      <c r="M19" s="107" t="s">
+      <c r="M19" s="102" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="107"/>
-      <c r="O19" s="107"/>
-      <c r="P19" s="107"/>
-      <c r="Q19" s="107"/>
-      <c r="R19" s="107"/>
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="13"/>
@@ -2048,7 +2056,7 @@
       <c r="A23" s="13"/>
       <c r="B23" s="13"/>
       <c r="C23" s="44" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="D23" s="44"/>
       <c r="E23" s="44"/>
@@ -2062,7 +2070,7 @@
       <c r="K23" s="44"/>
       <c r="L23" s="44"/>
       <c r="M23" s="44" t="s">
-        <v>14</v>
+        <v>60</v>
       </c>
       <c r="N23" s="44"/>
       <c r="O23" s="44"/>
@@ -2116,10 +2124,10 @@
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="111" t="s">
+      <c r="B26" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="112"/>
+      <c r="C26" s="107"/>
       <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
@@ -2138,10 +2146,10 @@
       <c r="I26" s="55"/>
       <c r="J26" s="40"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="111" t="s">
+      <c r="L26" s="106" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="112"/>
+      <c r="M26" s="107"/>
       <c r="N26" s="53" t="s">
         <v>24</v>
       </c>
@@ -2187,10 +2195,10 @@
       <c r="A28" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="113" t="s">
+      <c r="B28" s="108" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="114"/>
+      <c r="C28" s="109"/>
       <c r="D28" s="62" t="s">
         <v>33</v>
       </c>
@@ -2211,10 +2219,10 @@
       <c r="K28" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="115" t="s">
+      <c r="L28" s="110" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="116"/>
+      <c r="M28" s="111"/>
       <c r="N28" s="62" t="s">
         <v>33</v>
       </c>
@@ -2255,11 +2263,11 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="108" t="s">
+      <c r="B30" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="109"/>
-      <c r="D30" s="110"/>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
       <c r="E30" s="79" t="s">
         <v>39</v>
       </c>
@@ -2273,11 +2281,11 @@
       <c r="I30" s="65"/>
       <c r="J30" s="40"/>
       <c r="K30" s="67"/>
-      <c r="L30" s="108" t="s">
+      <c r="L30" s="103" t="s">
         <v>38</v>
       </c>
-      <c r="M30" s="109"/>
-      <c r="N30" s="110"/>
+      <c r="M30" s="104"/>
+      <c r="N30" s="105"/>
       <c r="O30" s="79" t="s">
         <v>39</v>
       </c>
@@ -2457,21 +2465,23 @@
       <c r="I37" s="20"/>
       <c r="J37" s="29"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="105" t="s">
+      <c r="L37" s="100" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="106"/>
-      <c r="N37" s="106"/>
-      <c r="O37" s="106"/>
-      <c r="P37" s="106"/>
-      <c r="Q37" s="106"/>
-      <c r="R37" s="106"/>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1">
       <c r="A38" s="17"/>
       <c r="B38" s="18"/>
       <c r="C38" s="18"/>
-      <c r="D38" s="18"/>
+      <c r="D38" s="99" t="s">
+        <v>59</v>
+      </c>
       <c r="E38" s="19"/>
       <c r="F38" s="20"/>
       <c r="G38" s="20"/>
@@ -2479,29 +2489,22 @@
       <c r="I38" s="20"/>
       <c r="J38" s="29"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="106"/>
-      <c r="M38" s="106"/>
-      <c r="N38" s="106"/>
-      <c r="O38" s="106"/>
-      <c r="P38" s="106"/>
-      <c r="Q38" s="106"/>
-      <c r="R38" s="106"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
-      <c r="A39" s="17" t="s">
-        <v>59</v>
-      </c>
-      <c r="B39" s="18" t="s">
-        <v>60</v>
-      </c>
+      <c r="A39" t="s">
+        <v>2</v>
+      </c>
+      <c r="B39" s="18"/>
       <c r="C39" s="18"/>
-      <c r="D39" s="18" t="s">
-        <v>61</v>
-      </c>
-      <c r="E39" s="19" t="e">
-        <f xml:space="preserve"> (H30 * 100 / (100-B39))</f>
-        <v>#VALUE!</v>
-      </c>
+      <c r="D39" s="18"/>
+      <c r="E39" s="19"/>
       <c r="F39" s="20"/>
       <c r="G39" s="20"/>
       <c r="H39" s="20"/>
@@ -2516,13 +2519,15 @@
       <c r="Q39" s="98"/>
       <c r="R39" s="98"/>
     </row>
-    <row r="40" spans="1:18">
-      <c r="A40" t="s">
-        <v>2</v>
-      </c>
-    </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
     <mergeCell ref="L37:R38"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2532,13 +2537,6 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="21720" windowHeight="13620"/>
+    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -275,7 +275,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
@@ -838,7 +838,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="118">
+  <cellXfs count="116">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1066,6 +1066,24 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1095,30 +1113,6 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1511,14 +1505,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A39" sqref="A39"/>
+    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B28" sqref="B28:C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1528,9 +1522,13 @@
     <col min="3" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
     <col min="10" max="10" width="2.140625" style="31" customWidth="1"/>
-    <col min="11" max="11" width="4.28515625" style="1" customWidth="1"/>
-    <col min="12" max="12" width="26" style="1" customWidth="1"/>
-    <col min="13" max="18" width="11.140625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.140625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
@@ -1556,14 +1554,14 @@
         <v>0</v>
       </c>
       <c r="L2" s="5"/>
-      <c r="M2" s="112" t="s">
+      <c r="M2" s="100" t="s">
         <v>58</v>
       </c>
-      <c r="N2" s="113"/>
-      <c r="O2" s="113"/>
-      <c r="P2" s="113"/>
-      <c r="Q2" s="113"/>
-      <c r="R2" s="113"/>
+      <c r="N2" s="101"/>
+      <c r="O2" s="101"/>
+      <c r="P2" s="101"/>
+      <c r="Q2" s="101"/>
+      <c r="R2" s="101"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
@@ -1585,10 +1583,10 @@
       <c r="P3" s="97" t="s">
         <v>4</v>
       </c>
-      <c r="Q3" s="117" t="s">
+      <c r="Q3" s="105" t="s">
         <v>6</v>
       </c>
-      <c r="R3" s="117"/>
+      <c r="R3" s="105"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
@@ -1609,8 +1607,8 @@
       <c r="N4" s="94"/>
       <c r="O4" s="95"/>
       <c r="P4" s="93"/>
-      <c r="Q4" s="117"/>
-      <c r="R4" s="117"/>
+      <c r="Q4" s="105"/>
+      <c r="R4" s="105"/>
     </row>
     <row r="5" spans="1:18" ht="35.25" thickBot="1">
       <c r="A5" s="3"/>
@@ -1785,16 +1783,16 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="29"/>
-      <c r="K12" s="116" t="s">
+      <c r="K12" s="104" t="s">
         <v>53</v>
       </c>
-      <c r="L12" s="116"/>
-      <c r="M12" s="116"/>
-      <c r="N12" s="116"/>
-      <c r="O12" s="116"/>
-      <c r="P12" s="116"/>
-      <c r="Q12" s="116"/>
-      <c r="R12" s="116"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
+      <c r="O12" s="104"/>
+      <c r="P12" s="104"/>
+      <c r="Q12" s="104"/>
+      <c r="R12" s="104"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="3"/>
@@ -1843,28 +1841,28 @@
         <v>15</v>
       </c>
       <c r="B15" s="12"/>
-      <c r="C15" s="114" t="s">
+      <c r="C15" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="114"/>
-      <c r="E15" s="114"/>
-      <c r="F15" s="114"/>
-      <c r="G15" s="114"/>
-      <c r="H15" s="114"/>
+      <c r="D15" s="102"/>
+      <c r="E15" s="102"/>
+      <c r="F15" s="102"/>
+      <c r="G15" s="102"/>
+      <c r="H15" s="102"/>
       <c r="I15" s="21"/>
       <c r="J15" s="29"/>
       <c r="K15" s="12" t="s">
         <v>15</v>
       </c>
       <c r="L15" s="12"/>
-      <c r="M15" s="114" t="s">
+      <c r="M15" s="102" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="114"/>
-      <c r="O15" s="114"/>
-      <c r="P15" s="114"/>
-      <c r="Q15" s="114"/>
-      <c r="R15" s="114"/>
+      <c r="N15" s="102"/>
+      <c r="O15" s="102"/>
+      <c r="P15" s="102"/>
+      <c r="Q15" s="102"/>
+      <c r="R15" s="102"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="14"/>
@@ -1877,10 +1875,10 @@
       <c r="F16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="115" t="s">
+      <c r="G16" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="H16" s="115"/>
+      <c r="H16" s="103"/>
       <c r="I16" s="39"/>
       <c r="J16" s="40"/>
       <c r="K16" s="41"/>
@@ -1893,10 +1891,10 @@
       <c r="P16" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="115" t="s">
+      <c r="Q16" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="R16" s="115"/>
+      <c r="R16" s="103"/>
     </row>
     <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="13"/>
@@ -1947,26 +1945,26 @@
     <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
       <c r="A19" s="13"/>
       <c r="B19" s="13"/>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="D19" s="108"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="108"/>
+      <c r="G19" s="108"/>
+      <c r="H19" s="108"/>
       <c r="I19" s="45"/>
       <c r="J19" s="40"/>
       <c r="K19" s="44"/>
       <c r="L19" s="44"/>
-      <c r="M19" s="102" t="s">
+      <c r="M19" s="108" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="108"/>
+      <c r="P19" s="108"/>
+      <c r="Q19" s="108"/>
+      <c r="R19" s="108"/>
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="13"/>
@@ -2124,10 +2122,10 @@
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1">
       <c r="A26" s="52"/>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="C26" s="107"/>
+      <c r="C26" s="113"/>
       <c r="D26" s="53" t="s">
         <v>24</v>
       </c>
@@ -2146,10 +2144,10 @@
       <c r="I26" s="55"/>
       <c r="J26" s="40"/>
       <c r="K26" s="52"/>
-      <c r="L26" s="106" t="s">
+      <c r="L26" s="112" t="s">
         <v>23</v>
       </c>
-      <c r="M26" s="107"/>
+      <c r="M26" s="113"/>
       <c r="N26" s="53" t="s">
         <v>24</v>
       </c>
@@ -2195,10 +2193,10 @@
       <c r="A28" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="C28" s="109"/>
+      <c r="C28" s="115"/>
       <c r="D28" s="62" t="s">
         <v>33</v>
       </c>
@@ -2219,10 +2217,10 @@
       <c r="K28" s="61" t="s">
         <v>31</v>
       </c>
-      <c r="L28" s="110" t="s">
+      <c r="L28" s="114" t="s">
         <v>32</v>
       </c>
-      <c r="M28" s="111"/>
+      <c r="M28" s="115"/>
       <c r="N28" s="62" t="s">
         <v>33</v>
       </c>
@@ -2263,11 +2261,11 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="67"/>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
+      <c r="C30" s="110"/>
+      <c r="D30" s="111"/>
       <c r="E30" s="79" t="s">
         <v>39</v>
       </c>
@@ -2281,11 +2279,11 @@
       <c r="I30" s="65"/>
       <c r="J30" s="40"/>
       <c r="K30" s="67"/>
-      <c r="L30" s="103" t="s">
+      <c r="L30" s="109" t="s">
         <v>38</v>
       </c>
-      <c r="M30" s="104"/>
-      <c r="N30" s="105"/>
+      <c r="M30" s="110"/>
+      <c r="N30" s="111"/>
       <c r="O30" s="79" t="s">
         <v>39</v>
       </c>
@@ -2465,15 +2463,15 @@
       <c r="I37" s="20"/>
       <c r="J37" s="29"/>
       <c r="K37" s="17"/>
-      <c r="L37" s="100" t="s">
+      <c r="L37" s="106" t="s">
         <v>57</v>
       </c>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="107"/>
+      <c r="P37" s="107"/>
+      <c r="Q37" s="107"/>
+      <c r="R37" s="107"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1">
       <c r="A38" s="17"/>
@@ -2489,13 +2487,13 @@
       <c r="I38" s="20"/>
       <c r="J38" s="29"/>
       <c r="K38" s="17"/>
-      <c r="L38" s="101"/>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
+      <c r="L38" s="107"/>
+      <c r="M38" s="107"/>
+      <c r="N38" s="107"/>
+      <c r="O38" s="107"/>
+      <c r="P38" s="107"/>
+      <c r="Q38" s="107"/>
+      <c r="R38" s="107"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" t="s">
@@ -2521,13 +2519,6 @@
     </row>
   </sheetData>
   <mergeCells count="16">
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
     <mergeCell ref="L37:R38"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2537,6 +2528,13 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="5" rupBuild="4506"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
@@ -19,10 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="61">
-  <si>
-    <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -63,15 +60,9 @@
     <t>${lc.saldo.penalties_cur}</t>
   </si>
   <si>
-    <t>К оплате всего :</t>
-  </si>
-  <si>
     <t>СЧЕТ-КВИТАНЦИЯ</t>
   </si>
   <si>
-    <t>за тех. обслуживание и коммунальные услуги</t>
-  </si>
-  <si>
     <t>${Group.grp_short_name}</t>
   </si>
   <si>
@@ -141,18 +132,6 @@
     <t>${lc.saldo.calc}</t>
   </si>
   <si>
-    <t>Показания счетчиков</t>
-  </si>
-  <si>
-    <t>Текущее</t>
-  </si>
-  <si>
-    <t>Предыдущее</t>
-  </si>
-  <si>
-    <t>Расход</t>
-  </si>
-  <si>
     <t>&lt;jx:forEach items="${lc.counter}" var ="counter"&gt;</t>
   </si>
   <si>
@@ -178,9 +157,6 @@
   </si>
   <si>
     <t>Плательщик: ____________</t>
-  </si>
-  <si>
-    <t>${lc.counters4ask}</t>
   </si>
   <si>
     <r>
@@ -220,15 +196,21 @@
     </r>
   </si>
   <si>
-    <t>Сведения о текущих показаниях счетчиков:</t>
-  </si>
-  <si>
     <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
 Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-908-564-80-32 (Набокин В.И.)                                                     </t>
   </si>
   <si>
+    <t>${Group.percent}</t>
+  </si>
+  <si>
+    <t>К оплате всего :${lc.percent}</t>
+  </si>
+  <si>
+    <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">за тех. обслуживание и коммунальные услуги
+      <t xml:space="preserve">За тех. обслуживание и коммунальные услуги
 ${Group.grp_fname}
 </t>
     </r>
@@ -266,20 +248,23 @@
     </r>
   </si>
   <si>
-    <t>${Group.percent}</t>
-  </si>
-  <si>
-    <t>К оплате всего :${lc.percent}</t>
+    <t>За тех. обслуживание и коммунальные услуги</t>
+  </si>
+  <si>
+    <t>Показания счетчиков</t>
+  </si>
+  <si>
+    <t>${lc.counters4ask}</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -405,6 +390,14 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -414,7 +407,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="28">
+  <borders count="29">
     <border>
       <left/>
       <right/>
@@ -652,51 +645,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="medium">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color auto="1"/>
       </left>
@@ -778,6 +726,58 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
       </bottom>
       <diagonal/>
     </border>
@@ -838,13 +838,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="116">
+  <cellXfs count="113">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -891,17 +888,17 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="5" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="23" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="25" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -920,7 +917,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -984,22 +981,13 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1007,40 +995,22 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1066,6 +1036,15 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1078,12 +1057,15 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1113,6 +1095,18 @@
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1505,14 +1499,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A1:S39"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="B28" sqref="B28:C28"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K12" sqref="K12:R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1521,7 +1515,7 @@
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
     <col min="3" max="8" width="11.5703125" style="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="31" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="30" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
@@ -1534,991 +1528,977 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:18" customFormat="1">
-      <c r="A1" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="J1" s="29"/>
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="J1" s="28"/>
     </row>
     <row r="2" spans="1:18" ht="87" customHeight="1">
       <c r="A2"/>
-      <c r="B2" s="4"/>
-      <c r="C2" s="3"/>
-      <c r="D2" s="4"/>
-      <c r="E2" s="4"/>
+      <c r="B2" s="3"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="3"/>
+      <c r="E2" s="3"/>
       <c r="F2"/>
       <c r="G2"/>
       <c r="H2"/>
       <c r="I2"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="2" t="s">
-        <v>0</v>
-      </c>
-      <c r="L2" s="5"/>
-      <c r="M2" s="100" t="s">
-        <v>58</v>
-      </c>
-      <c r="N2" s="101"/>
-      <c r="O2" s="101"/>
-      <c r="P2" s="101"/>
-      <c r="Q2" s="101"/>
-      <c r="R2" s="101"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="99" t="s">
+        <v>51</v>
+      </c>
+      <c r="L2" s="99"/>
+      <c r="M2" s="93" t="s">
+        <v>52</v>
+      </c>
+      <c r="N2" s="94"/>
+      <c r="O2" s="94"/>
+      <c r="P2" s="94"/>
+      <c r="Q2" s="94"/>
+      <c r="R2" s="94"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
-      <c r="B3" s="4"/>
+      <c r="B3" s="3"/>
       <c r="C3"/>
       <c r="D3"/>
-      <c r="E3" s="3"/>
+      <c r="E3" s="2"/>
       <c r="F3"/>
       <c r="G3"/>
       <c r="H3"/>
       <c r="I3"/>
-      <c r="J3" s="29"/>
-      <c r="K3" s="6"/>
-      <c r="L3" s="6"/>
-      <c r="M3" s="96" t="s">
+      <c r="J3" s="28"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="86" t="s">
+        <v>2</v>
+      </c>
+      <c r="N3" s="84"/>
+      <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="N3" s="94"/>
-      <c r="P3" s="97" t="s">
-        <v>4</v>
-      </c>
-      <c r="Q3" s="105" t="s">
-        <v>6</v>
-      </c>
-      <c r="R3" s="105"/>
+      <c r="Q3" s="98" t="s">
+        <v>5</v>
+      </c>
+      <c r="R3" s="98"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
-      <c r="B4" s="4"/>
+      <c r="B4" s="3"/>
       <c r="C4"/>
       <c r="D4"/>
-      <c r="E4" s="3"/>
+      <c r="E4" s="2"/>
       <c r="F4"/>
       <c r="G4"/>
       <c r="H4"/>
       <c r="I4"/>
-      <c r="J4" s="29"/>
-      <c r="K4" s="6"/>
-      <c r="L4" s="6"/>
-      <c r="M4" s="93" t="s">
-        <v>5</v>
-      </c>
-      <c r="N4" s="94"/>
-      <c r="O4" s="95"/>
-      <c r="P4" s="93"/>
-      <c r="Q4" s="105"/>
-      <c r="R4" s="105"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="83" t="s">
+        <v>4</v>
+      </c>
+      <c r="N4" s="84"/>
+      <c r="O4" s="85"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="98"/>
+      <c r="R4" s="98"/>
     </row>
     <row r="5" spans="1:18" ht="35.25" thickBot="1">
-      <c r="A5" s="3"/>
-      <c r="B5" s="4"/>
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
       <c r="C5"/>
       <c r="D5"/>
-      <c r="E5" s="3"/>
-      <c r="F5" s="4"/>
+      <c r="E5" s="2"/>
+      <c r="F5" s="3"/>
       <c r="G5"/>
       <c r="H5"/>
       <c r="I5"/>
-      <c r="J5" s="29"/>
-      <c r="K5" s="6"/>
-      <c r="L5" s="6"/>
-      <c r="M5" s="32" t="s">
+      <c r="J5" s="28"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="31" t="s">
+        <v>6</v>
+      </c>
+      <c r="N5" s="5"/>
+      <c r="O5" s="6"/>
+      <c r="P5" s="7"/>
+      <c r="Q5" s="8" t="s">
         <v>7</v>
       </c>
-      <c r="N5" s="6"/>
-      <c r="O5" s="7"/>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="9" t="s">
-        <v>8</v>
-      </c>
-      <c r="R5" s="10"/>
+      <c r="R5" s="9"/>
     </row>
     <row r="6" spans="1:18" ht="15.75">
-      <c r="A6" s="3"/>
-      <c r="B6" s="4"/>
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
       <c r="C6"/>
       <c r="D6"/>
-      <c r="E6" s="3"/>
-      <c r="F6" s="4"/>
+      <c r="E6" s="2"/>
+      <c r="F6" s="3"/>
       <c r="G6"/>
       <c r="H6"/>
       <c r="I6"/>
-      <c r="J6" s="29"/>
-      <c r="K6" s="5"/>
-      <c r="L6" s="5"/>
-      <c r="M6" s="33" t="s">
+      <c r="J6" s="28"/>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="32" t="s">
+        <v>8</v>
+      </c>
+      <c r="N6" s="32"/>
+      <c r="O6" s="32"/>
+      <c r="P6" s="32"/>
+      <c r="Q6" s="32"/>
+      <c r="R6" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N6" s="33"/>
-      <c r="O6" s="33"/>
-      <c r="P6" s="33"/>
-      <c r="Q6" s="33"/>
-      <c r="R6" s="34" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:18" ht="15.75">
-      <c r="A7" s="3"/>
+      <c r="A7" s="2"/>
       <c r="B7"/>
       <c r="C7"/>
       <c r="D7"/>
-      <c r="E7" s="3"/>
-      <c r="F7" s="4"/>
+      <c r="E7" s="2"/>
+      <c r="F7" s="3"/>
       <c r="G7"/>
       <c r="H7"/>
       <c r="I7"/>
-      <c r="J7" s="29"/>
-      <c r="K7" s="5"/>
-      <c r="L7" s="5"/>
-      <c r="M7" s="33" t="s">
-        <v>11</v>
-      </c>
-      <c r="N7" s="33"/>
-      <c r="O7" s="33"/>
-      <c r="P7" s="33"/>
-      <c r="Q7" s="33"/>
-      <c r="R7" s="35" t="s">
-        <v>49</v>
+      <c r="J7" s="28"/>
+      <c r="K7" s="4"/>
+      <c r="L7" s="4"/>
+      <c r="M7" s="32" t="s">
+        <v>10</v>
+      </c>
+      <c r="N7" s="32"/>
+      <c r="O7" s="32"/>
+      <c r="P7" s="32"/>
+      <c r="Q7" s="32"/>
+      <c r="R7" s="34" t="s">
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75">
-      <c r="A8" s="3"/>
+      <c r="A8" s="2"/>
       <c r="B8"/>
-      <c r="C8" s="11"/>
+      <c r="C8" s="10"/>
       <c r="D8"/>
-      <c r="E8" s="3"/>
+      <c r="E8" s="2"/>
       <c r="F8"/>
       <c r="G8"/>
       <c r="H8"/>
       <c r="I8"/>
-      <c r="J8" s="29"/>
-      <c r="K8" s="5"/>
-      <c r="L8" s="5"/>
-      <c r="M8" s="33" t="s">
+      <c r="J8" s="28"/>
+      <c r="K8" s="4"/>
+      <c r="L8" s="4"/>
+      <c r="M8" s="32" t="s">
+        <v>11</v>
+      </c>
+      <c r="N8" s="32"/>
+      <c r="O8" s="32"/>
+      <c r="P8" s="32"/>
+      <c r="Q8" s="32"/>
+      <c r="R8" s="34" t="s">
         <v>12</v>
       </c>
-      <c r="N8" s="33"/>
-      <c r="O8" s="33"/>
-      <c r="P8" s="33"/>
-      <c r="Q8" s="33"/>
-      <c r="R8" s="35" t="s">
-        <v>13</v>
-      </c>
     </row>
     <row r="9" spans="1:18" ht="16.5" thickBot="1">
-      <c r="A9" s="3"/>
-      <c r="B9" s="3"/>
-      <c r="C9" s="3"/>
-      <c r="D9" s="3"/>
-      <c r="E9" s="3"/>
+      <c r="A9" s="2"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="2"/>
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
       <c r="F9"/>
-      <c r="G9" s="11"/>
+      <c r="G9" s="10"/>
       <c r="H9"/>
       <c r="I9"/>
-      <c r="J9" s="29"/>
-      <c r="K9" s="5"/>
-      <c r="L9" s="5"/>
-      <c r="M9" s="33" t="s">
-        <v>14</v>
-      </c>
-      <c r="N9" s="33"/>
-      <c r="O9" s="33"/>
-      <c r="P9" s="33"/>
-      <c r="Q9" s="33"/>
-      <c r="R9" s="36" t="s">
+      <c r="J9" s="28"/>
+      <c r="K9" s="4"/>
+      <c r="L9" s="4"/>
+      <c r="M9" s="32" t="s">
         <v>50</v>
       </c>
+      <c r="N9" s="32"/>
+      <c r="O9" s="32"/>
+      <c r="P9" s="32"/>
+      <c r="Q9" s="32"/>
+      <c r="R9" s="35" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="10" spans="1:18" ht="3.95" customHeight="1">
-      <c r="A10" s="3"/>
-      <c r="B10" s="3"/>
-      <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
-      <c r="E10" s="3"/>
+      <c r="A10" s="2"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="2"/>
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
       <c r="F10"/>
-      <c r="G10" s="11"/>
+      <c r="G10" s="10"/>
       <c r="H10"/>
       <c r="I10"/>
-      <c r="J10" s="29"/>
-      <c r="K10" s="5"/>
-      <c r="L10" s="5"/>
-      <c r="M10" s="5"/>
-      <c r="N10" s="5"/>
-      <c r="O10" s="5"/>
-      <c r="P10" s="5"/>
-      <c r="Q10" s="5"/>
-      <c r="R10" s="22"/>
+      <c r="J10" s="28"/>
+      <c r="K10" s="4"/>
+      <c r="L10" s="4"/>
+      <c r="M10" s="4"/>
+      <c r="N10" s="4"/>
+      <c r="O10" s="4"/>
+      <c r="P10" s="4"/>
+      <c r="Q10" s="4"/>
+      <c r="R10" s="21"/>
     </row>
     <row r="11" spans="1:18">
-      <c r="A11" s="3"/>
-      <c r="B11" s="3"/>
-      <c r="C11" s="3"/>
-      <c r="D11" s="3"/>
-      <c r="E11" s="3"/>
+      <c r="A11" s="2"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="2"/>
+      <c r="D11" s="2"/>
+      <c r="E11" s="2"/>
       <c r="F11"/>
-      <c r="G11" s="11"/>
+      <c r="G11" s="10"/>
       <c r="H11"/>
       <c r="I11"/>
-      <c r="J11" s="29"/>
-      <c r="K11" s="5"/>
-      <c r="L11" s="5"/>
-      <c r="M11" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="N11" s="5"/>
-      <c r="O11" s="5"/>
-      <c r="P11" s="5"/>
-      <c r="Q11" s="5"/>
-      <c r="R11" s="22"/>
+      <c r="J11" s="28"/>
+      <c r="K11" s="4"/>
+      <c r="L11" s="4"/>
+      <c r="M11" s="4"/>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1">
-      <c r="A12" s="3"/>
-      <c r="B12" s="3"/>
-      <c r="C12" s="3"/>
-      <c r="D12" s="3"/>
-      <c r="E12" s="3"/>
+      <c r="A12" s="2"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="2"/>
+      <c r="D12" s="2"/>
+      <c r="E12" s="2"/>
       <c r="F12"/>
-      <c r="G12" s="11"/>
+      <c r="G12" s="10"/>
       <c r="H12"/>
       <c r="I12"/>
-      <c r="J12" s="29"/>
-      <c r="K12" s="104" t="s">
-        <v>53</v>
-      </c>
-      <c r="L12" s="104"/>
-      <c r="M12" s="104"/>
-      <c r="N12" s="104"/>
-      <c r="O12" s="104"/>
-      <c r="P12" s="104"/>
-      <c r="Q12" s="104"/>
-      <c r="R12" s="104"/>
+      <c r="J12" s="28"/>
+      <c r="K12" s="97" t="s">
+        <v>55</v>
+      </c>
+      <c r="L12" s="97"/>
+      <c r="M12" s="97"/>
+      <c r="N12" s="97"/>
+      <c r="O12" s="97"/>
+      <c r="P12" s="97"/>
+      <c r="Q12" s="97"/>
+      <c r="R12" s="97"/>
     </row>
     <row r="13" spans="1:18">
-      <c r="A13" s="3"/>
-      <c r="B13" s="3"/>
-      <c r="C13" s="5"/>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="13"/>
-      <c r="G13" s="11"/>
+      <c r="A13" s="2"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="12"/>
+      <c r="G13" s="10"/>
       <c r="H13"/>
       <c r="I13"/>
-      <c r="J13" s="29"/>
-      <c r="K13" s="5"/>
-      <c r="L13" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N13" s="5"/>
-      <c r="O13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q13" s="5"/>
-      <c r="R13" s="22"/>
-    </row>
-    <row r="14" spans="1:18" s="28" customFormat="1" ht="3.95" customHeight="1">
-      <c r="A14" s="23"/>
-      <c r="B14" s="23"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="25"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="24"/>
-      <c r="J14" s="30"/>
-      <c r="K14" s="26"/>
-      <c r="L14" s="26"/>
-      <c r="M14" s="26"/>
-      <c r="N14" s="26"/>
-      <c r="O14" s="26"/>
-      <c r="P14" s="26"/>
-      <c r="Q14" s="26"/>
-      <c r="R14" s="27"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="4"/>
+      <c r="L13" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N13" s="4"/>
+      <c r="O13" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q13" s="4"/>
+      <c r="R13" s="21"/>
+    </row>
+    <row r="14" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1">
+      <c r="A14" s="22"/>
+      <c r="B14" s="22"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="23"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="23"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="29"/>
+      <c r="K14" s="25"/>
+      <c r="L14" s="25"/>
+      <c r="M14" s="25"/>
+      <c r="N14" s="25"/>
+      <c r="O14" s="25"/>
+      <c r="P14" s="25"/>
+      <c r="Q14" s="25"/>
+      <c r="R14" s="26"/>
     </row>
     <row r="15" spans="1:18">
-      <c r="A15" s="12" t="s">
+      <c r="A15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B15" s="11"/>
+      <c r="C15" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="D15" s="95"/>
+      <c r="E15" s="95"/>
+      <c r="F15" s="95"/>
+      <c r="G15" s="95"/>
+      <c r="H15" s="95"/>
+      <c r="I15" s="20"/>
+      <c r="J15" s="28"/>
+      <c r="K15" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="11"/>
+      <c r="M15" s="95" t="s">
+        <v>53</v>
+      </c>
+      <c r="N15" s="95"/>
+      <c r="O15" s="95"/>
+      <c r="P15" s="95"/>
+      <c r="Q15" s="95"/>
+      <c r="R15" s="95"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75">
+      <c r="A16" s="13"/>
+      <c r="B16" s="13"/>
+      <c r="C16" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="D16" s="36"/>
+      <c r="E16" s="36"/>
+      <c r="F16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="B15" s="12"/>
-      <c r="C15" s="102" t="s">
+      <c r="G16" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="H16" s="96"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="39"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40"/>
+      <c r="M16" s="36" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="36"/>
+      <c r="O16" s="36"/>
+      <c r="P16" s="37" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="96" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="96"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75">
+      <c r="A17" s="12"/>
+      <c r="B17" s="12"/>
+      <c r="C17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="102"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="102"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="21"/>
-      <c r="J15" s="29"/>
-      <c r="K15" s="12" t="s">
-        <v>15</v>
-      </c>
-      <c r="L15" s="12"/>
-      <c r="M15" s="102" t="s">
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="I17" s="42"/>
+      <c r="J17" s="39"/>
+      <c r="K17" s="43"/>
+      <c r="L17" s="43"/>
+      <c r="M17" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="N15" s="102"/>
-      <c r="O15" s="102"/>
-      <c r="P15" s="102"/>
-      <c r="Q15" s="102"/>
-      <c r="R15" s="102"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75">
-      <c r="A16" s="14"/>
-      <c r="B16" s="14"/>
-      <c r="C16" s="37" t="s">
+      <c r="N17" s="41"/>
+      <c r="O17" s="41"/>
+      <c r="P17" s="41"/>
+      <c r="Q17" s="41"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75">
+      <c r="A18" s="12"/>
+      <c r="B18" s="12"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="41"/>
+      <c r="E18" s="41"/>
+      <c r="F18" s="41"/>
+      <c r="G18" s="41"/>
+      <c r="H18" s="42" t="s">
         <v>17</v>
       </c>
-      <c r="D16" s="37"/>
-      <c r="E16" s="37"/>
-      <c r="F16" s="38" t="s">
+      <c r="I18" s="42"/>
+      <c r="J18" s="39"/>
+      <c r="K18" s="43"/>
+      <c r="L18" s="43"/>
+      <c r="M18" s="41"/>
+      <c r="N18" s="41"/>
+      <c r="O18" s="41"/>
+      <c r="P18" s="41"/>
+      <c r="Q18" s="41"/>
+      <c r="R18" s="42" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
+      <c r="A19" s="12"/>
+      <c r="B19" s="12"/>
+      <c r="C19" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="G16" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="H16" s="103"/>
-      <c r="I16" s="39"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="41"/>
-      <c r="L16" s="41"/>
-      <c r="M16" s="37" t="s">
-        <v>17</v>
-      </c>
-      <c r="N16" s="37"/>
-      <c r="O16" s="37"/>
-      <c r="P16" s="38" t="s">
+      <c r="D19" s="102"/>
+      <c r="E19" s="102"/>
+      <c r="F19" s="102"/>
+      <c r="G19" s="102"/>
+      <c r="H19" s="102"/>
+      <c r="I19" s="44"/>
+      <c r="J19" s="39"/>
+      <c r="K19" s="43"/>
+      <c r="L19" s="43"/>
+      <c r="M19" s="102" t="s">
         <v>18</v>
       </c>
-      <c r="Q16" s="103" t="s">
-        <v>6</v>
-      </c>
-      <c r="R16" s="103"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75">
-      <c r="A17" s="13"/>
-      <c r="B17" s="13"/>
-      <c r="C17" s="42" t="s">
+      <c r="N19" s="102"/>
+      <c r="O19" s="102"/>
+      <c r="P19" s="102"/>
+      <c r="Q19" s="102"/>
+      <c r="R19" s="102"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75">
+      <c r="A20" s="12"/>
+      <c r="B20" s="12"/>
+      <c r="C20" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D17" s="42"/>
-      <c r="E17" s="42"/>
-      <c r="F17" s="42"/>
-      <c r="G17" s="42"/>
-      <c r="I17" s="43"/>
-      <c r="J17" s="40"/>
-      <c r="K17" s="44"/>
-      <c r="L17" s="44"/>
-      <c r="M17" s="42" t="s">
-        <v>19</v>
-      </c>
-      <c r="N17" s="42"/>
-      <c r="O17" s="42"/>
-      <c r="P17" s="42"/>
-      <c r="Q17" s="42"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75">
-      <c r="A18" s="13"/>
-      <c r="B18" s="13"/>
-      <c r="C18" s="42"/>
-      <c r="D18" s="42"/>
-      <c r="E18" s="42"/>
-      <c r="F18" s="42"/>
-      <c r="G18" s="42"/>
-      <c r="H18" s="43" t="s">
+      <c r="D20" s="43"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="43"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="46" t="s">
+        <v>9</v>
+      </c>
+      <c r="I20" s="47"/>
+      <c r="J20" s="39"/>
+      <c r="K20" s="43"/>
+      <c r="L20" s="43"/>
+      <c r="M20" s="43" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="43"/>
+      <c r="O20" s="43"/>
+      <c r="P20" s="43"/>
+      <c r="Q20" s="45"/>
+      <c r="R20" s="46" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75">
+      <c r="A21" s="12"/>
+      <c r="B21" s="12"/>
+      <c r="C21" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" s="43"/>
+      <c r="E21" s="43"/>
+      <c r="F21" s="43"/>
+      <c r="G21" s="45"/>
+      <c r="H21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="I21" s="47"/>
+      <c r="J21" s="39"/>
+      <c r="K21" s="43"/>
+      <c r="L21" s="43"/>
+      <c r="M21" s="43" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="43"/>
+      <c r="O21" s="43"/>
+      <c r="P21" s="43"/>
+      <c r="Q21" s="45"/>
+      <c r="R21" s="48" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75">
+      <c r="A22" s="12"/>
+      <c r="B22" s="12"/>
+      <c r="C22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="D22" s="43"/>
+      <c r="E22" s="43"/>
+      <c r="F22" s="43"/>
+      <c r="G22" s="45"/>
+      <c r="H22" s="48" t="s">
+        <v>12</v>
+      </c>
+      <c r="I22" s="47"/>
+      <c r="J22" s="39"/>
+      <c r="K22" s="43"/>
+      <c r="L22" s="43"/>
+      <c r="M22" s="43" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="43"/>
+      <c r="O22" s="43"/>
+      <c r="P22" s="43"/>
+      <c r="Q22" s="45"/>
+      <c r="R22" s="48" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A23" s="12"/>
+      <c r="B23" s="12"/>
+      <c r="C23" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="D23" s="43"/>
+      <c r="E23" s="43"/>
+      <c r="F23" s="43"/>
+      <c r="G23" s="45"/>
+      <c r="H23" s="49" t="s">
+        <v>43</v>
+      </c>
+      <c r="I23" s="50"/>
+      <c r="J23" s="39"/>
+      <c r="K23" s="43"/>
+      <c r="L23" s="43"/>
+      <c r="M23" s="43" t="s">
+        <v>50</v>
+      </c>
+      <c r="N23" s="43"/>
+      <c r="O23" s="43"/>
+      <c r="P23" s="43"/>
+      <c r="Q23" s="45"/>
+      <c r="R23" s="49" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="27.75" customHeight="1">
+      <c r="A24" s="12"/>
+      <c r="B24" s="12"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="12"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="50"/>
+      <c r="I24" s="50"/>
+      <c r="J24" s="39"/>
+      <c r="K24" s="43"/>
+      <c r="L24" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="N24" s="4"/>
+      <c r="O24" s="12" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q24" s="45"/>
+      <c r="R24" s="50"/>
+    </row>
+    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A25" s="14"/>
+      <c r="B25" s="14"/>
+      <c r="C25" s="12"/>
+      <c r="D25" s="15"/>
+      <c r="E25" s="15"/>
+      <c r="F25" s="12"/>
+      <c r="G25" s="12"/>
+      <c r="H25" s="12"/>
+      <c r="I25" s="12"/>
+      <c r="J25" s="28"/>
+      <c r="K25" s="14"/>
+      <c r="L25" s="14"/>
+      <c r="M25" s="12"/>
+      <c r="N25" s="15"/>
+      <c r="O25" s="15"/>
+      <c r="P25" s="12"/>
+      <c r="Q25" s="12"/>
+      <c r="R25" s="12"/>
+    </row>
+    <row r="26" spans="1:19" ht="30.75" thickBot="1">
+      <c r="A26" s="51"/>
+      <c r="B26" s="106" t="s">
         <v>20</v>
       </c>
-      <c r="I18" s="43"/>
-      <c r="J18" s="40"/>
-      <c r="K18" s="44"/>
-      <c r="L18" s="44"/>
-      <c r="M18" s="42"/>
-      <c r="N18" s="42"/>
-      <c r="O18" s="42"/>
-      <c r="P18" s="42"/>
-      <c r="Q18" s="42"/>
-      <c r="R18" s="43" t="s">
+      <c r="C26" s="107"/>
+      <c r="D26" s="52" t="s">
+        <v>21</v>
+      </c>
+      <c r="E26" s="52" t="s">
+        <v>22</v>
+      </c>
+      <c r="F26" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="G26" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="H26" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="I26" s="54"/>
+      <c r="J26" s="39"/>
+      <c r="K26" s="51"/>
+      <c r="L26" s="106" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
-      <c r="A19" s="13"/>
-      <c r="B19" s="13"/>
-      <c r="C19" s="108" t="s">
+      <c r="M26" s="107"/>
+      <c r="N26" s="52" t="s">
         <v>21</v>
       </c>
-      <c r="D19" s="108"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="108"/>
-      <c r="H19" s="108"/>
-      <c r="I19" s="45"/>
-      <c r="J19" s="40"/>
-      <c r="K19" s="44"/>
-      <c r="L19" s="44"/>
-      <c r="M19" s="108" t="s">
-        <v>21</v>
-      </c>
-      <c r="N19" s="108"/>
-      <c r="O19" s="108"/>
-      <c r="P19" s="108"/>
-      <c r="Q19" s="108"/>
-      <c r="R19" s="108"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75">
-      <c r="A20" s="13"/>
-      <c r="B20" s="13"/>
-      <c r="C20" s="44" t="s">
+      <c r="O26" s="52" t="s">
         <v>22</v>
       </c>
-      <c r="D20" s="44"/>
-      <c r="E20" s="44"/>
-      <c r="F20" s="44"/>
-      <c r="G20" s="46"/>
-      <c r="H20" s="47" t="s">
-        <v>10</v>
-      </c>
-      <c r="I20" s="48"/>
-      <c r="J20" s="40"/>
-      <c r="K20" s="44"/>
-      <c r="L20" s="44"/>
-      <c r="M20" s="44" t="s">
-        <v>9</v>
-      </c>
-      <c r="N20" s="44"/>
-      <c r="O20" s="44"/>
-      <c r="P20" s="44"/>
-      <c r="Q20" s="46"/>
-      <c r="R20" s="47" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75">
-      <c r="A21" s="13"/>
-      <c r="B21" s="13"/>
-      <c r="C21" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="D21" s="44"/>
-      <c r="E21" s="44"/>
-      <c r="F21" s="44"/>
-      <c r="G21" s="46"/>
-      <c r="H21" s="49" t="s">
+      <c r="P26" s="52" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q26" s="52" t="s">
+        <v>24</v>
+      </c>
+      <c r="R26" s="53" t="s">
+        <v>25</v>
+      </c>
+      <c r="S26" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75">
+      <c r="A27" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="56"/>
+      <c r="C27" s="57"/>
+      <c r="D27" s="58"/>
+      <c r="E27" s="58"/>
+      <c r="F27" s="57"/>
+      <c r="G27" s="57"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="57"/>
+      <c r="J27" s="39"/>
+      <c r="K27" s="55"/>
+      <c r="L27" s="56"/>
+      <c r="M27" s="57"/>
+      <c r="N27" s="58"/>
+      <c r="O27" s="58"/>
+      <c r="P27" s="57"/>
+      <c r="Q27" s="57"/>
+      <c r="R27" s="59"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75">
+      <c r="A28" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="B28" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="C28" s="109"/>
+      <c r="D28" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="E28" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="F28" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="G28" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="H28" s="63" t="s">
+        <v>34</v>
+      </c>
+      <c r="I28" s="64"/>
+      <c r="J28" s="39"/>
+      <c r="K28" s="60" t="s">
+        <v>28</v>
+      </c>
+      <c r="L28" s="108" t="s">
+        <v>29</v>
+      </c>
+      <c r="M28" s="109"/>
+      <c r="N28" s="61" t="s">
+        <v>30</v>
+      </c>
+      <c r="O28" s="61" t="s">
+        <v>31</v>
+      </c>
+      <c r="P28" s="62" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q28" s="62" t="s">
+        <v>33</v>
+      </c>
+      <c r="R28" s="63" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A29" s="65" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="56"/>
+      <c r="C29" s="57"/>
+      <c r="D29" s="58"/>
+      <c r="E29" s="58"/>
+      <c r="F29" s="57"/>
+      <c r="G29" s="57"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="57"/>
+      <c r="J29" s="39"/>
+      <c r="K29" s="55"/>
+      <c r="L29" s="56"/>
+      <c r="M29" s="57"/>
+      <c r="N29" s="58"/>
+      <c r="O29" s="58"/>
+      <c r="P29" s="57"/>
+      <c r="Q29" s="57"/>
+      <c r="R29" s="59"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" thickBot="1">
+      <c r="A30" s="66"/>
+      <c r="B30" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="C30" s="104"/>
+      <c r="D30" s="105"/>
+      <c r="E30" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="F30" s="67"/>
+      <c r="G30" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="H30" s="76" t="s">
+        <v>46</v>
+      </c>
+      <c r="I30" s="64"/>
+      <c r="J30" s="39"/>
+      <c r="K30" s="66"/>
+      <c r="L30" s="103" t="s">
+        <v>35</v>
+      </c>
+      <c r="M30" s="104"/>
+      <c r="N30" s="105"/>
+      <c r="O30" s="75" t="s">
+        <v>36</v>
+      </c>
+      <c r="P30" s="67"/>
+      <c r="Q30" s="76" t="s">
+        <v>47</v>
+      </c>
+      <c r="R30" s="76" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
+      <c r="A31" s="56"/>
+      <c r="B31" s="68"/>
+      <c r="C31" s="68"/>
+      <c r="D31" s="68"/>
+      <c r="E31" s="58"/>
+      <c r="F31" s="64"/>
+      <c r="G31" s="64"/>
+      <c r="H31" s="64"/>
+      <c r="I31" s="64"/>
+      <c r="J31" s="39"/>
+      <c r="K31" s="56"/>
+      <c r="L31" s="68"/>
+      <c r="M31" s="68"/>
+      <c r="N31" s="68"/>
+      <c r="O31" s="58"/>
+      <c r="P31" s="64"/>
+      <c r="Q31" s="64"/>
+      <c r="R31" s="64"/>
+    </row>
+    <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1">
+      <c r="A32" s="1"/>
+      <c r="B32" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="C32" s="111"/>
+      <c r="D32" s="111"/>
+      <c r="E32" s="112"/>
+      <c r="F32" s="1"/>
+      <c r="G32" s="1"/>
+      <c r="H32" s="1"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="110" t="s">
+        <v>54</v>
+      </c>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="112"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="19"/>
+      <c r="R32" s="19"/>
+    </row>
+    <row r="33" spans="1:18" ht="15.75">
+      <c r="A33" s="56" t="s">
+        <v>37</v>
+      </c>
+      <c r="B33" s="69"/>
+      <c r="C33" s="70"/>
+      <c r="D33" s="70"/>
+      <c r="E33" s="78"/>
+      <c r="F33" s="64"/>
+      <c r="G33" s="64"/>
+      <c r="H33" s="64"/>
+      <c r="I33" s="64"/>
+      <c r="J33" s="39"/>
+      <c r="K33" s="56"/>
+      <c r="L33" s="90"/>
+      <c r="M33" s="91"/>
+      <c r="N33" s="91"/>
+      <c r="O33" s="92"/>
+      <c r="P33" s="64"/>
+      <c r="Q33" s="64"/>
+      <c r="R33" s="64"/>
+    </row>
+    <row r="34" spans="1:18" s="74" customFormat="1" ht="12.75">
+      <c r="A34" s="71"/>
+      <c r="B34" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="D34" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="E34" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="F34" s="19"/>
+      <c r="G34" s="19"/>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="73"/>
+      <c r="K34" s="71"/>
+      <c r="L34" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="M34" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="N34" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="O34" s="80" t="s">
+        <v>41</v>
+      </c>
+      <c r="P34" s="19"/>
+      <c r="Q34" s="19"/>
+      <c r="R34" s="19"/>
+    </row>
+    <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A35" s="71"/>
+      <c r="B35" s="82"/>
+      <c r="C35" s="72"/>
+      <c r="D35" s="72"/>
+      <c r="E35" s="77"/>
+      <c r="F35" s="19"/>
+      <c r="G35" s="19"/>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="73"/>
+      <c r="K35" s="71"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="72"/>
+      <c r="N35" s="72"/>
+      <c r="O35" s="77"/>
+      <c r="P35" s="19"/>
+      <c r="Q35" s="19"/>
+      <c r="R35" s="19"/>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="A36" s="16" t="s">
+        <v>1</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="17"/>
+      <c r="D36" s="17"/>
+      <c r="E36" s="18"/>
+      <c r="F36" s="19"/>
+      <c r="G36" s="19"/>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="28"/>
+      <c r="K36" s="16"/>
+      <c r="L36" s="17"/>
+      <c r="M36" s="17"/>
+      <c r="N36" s="17"/>
+      <c r="O36" s="18"/>
+      <c r="P36" s="19"/>
+      <c r="Q36" s="19"/>
+      <c r="R36" s="19"/>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="A37" s="16"/>
+      <c r="B37" s="17"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="18"/>
+      <c r="F37" s="19"/>
+      <c r="G37" s="19"/>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="28"/>
+      <c r="K37" s="16"/>
+      <c r="L37" s="100" t="s">
+        <v>48</v>
+      </c>
+      <c r="M37" s="101"/>
+      <c r="N37" s="101"/>
+      <c r="O37" s="101"/>
+      <c r="P37" s="101"/>
+      <c r="Q37" s="101"/>
+      <c r="R37" s="101"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1">
+      <c r="A38" s="16"/>
+      <c r="B38" s="17"/>
+      <c r="C38" s="17"/>
+      <c r="D38" s="89" t="s">
         <v>49</v>
       </c>
-      <c r="I21" s="48"/>
-      <c r="J21" s="40"/>
-      <c r="K21" s="44"/>
-      <c r="L21" s="44"/>
-      <c r="M21" s="44" t="s">
-        <v>11</v>
-      </c>
-      <c r="N21" s="44"/>
-      <c r="O21" s="44"/>
-      <c r="P21" s="44"/>
-      <c r="Q21" s="46"/>
-      <c r="R21" s="49" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75">
-      <c r="A22" s="13"/>
-      <c r="B22" s="13"/>
-      <c r="C22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="D22" s="44"/>
-      <c r="E22" s="44"/>
-      <c r="F22" s="44"/>
-      <c r="G22" s="46"/>
-      <c r="H22" s="49" t="s">
-        <v>13</v>
-      </c>
-      <c r="I22" s="48"/>
-      <c r="J22" s="40"/>
-      <c r="K22" s="44"/>
-      <c r="L22" s="44"/>
-      <c r="M22" s="44" t="s">
-        <v>12</v>
-      </c>
-      <c r="N22" s="44"/>
-      <c r="O22" s="44"/>
-      <c r="P22" s="44"/>
-      <c r="Q22" s="46"/>
-      <c r="R22" s="49" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A23" s="13"/>
-      <c r="B23" s="13"/>
-      <c r="C23" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="D23" s="44"/>
-      <c r="E23" s="44"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="46"/>
-      <c r="H23" s="50" t="s">
-        <v>50</v>
-      </c>
-      <c r="I23" s="51"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="44"/>
-      <c r="L23" s="44"/>
-      <c r="M23" s="44" t="s">
-        <v>60</v>
-      </c>
-      <c r="N23" s="44"/>
-      <c r="O23" s="44"/>
-      <c r="P23" s="44"/>
-      <c r="Q23" s="46"/>
-      <c r="R23" s="50" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1">
-      <c r="A24" s="13"/>
-      <c r="B24" s="13"/>
-      <c r="C24" s="5"/>
-      <c r="D24" s="5"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="13"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="51"/>
-      <c r="I24" s="51"/>
-      <c r="J24" s="40"/>
-      <c r="K24" s="44"/>
-      <c r="L24" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="N24" s="5"/>
-      <c r="O24" s="13" t="s">
-        <v>52</v>
-      </c>
-      <c r="Q24" s="46"/>
-      <c r="R24" s="51"/>
-    </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A25" s="15"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="13"/>
-      <c r="D25" s="16"/>
-      <c r="E25" s="16"/>
-      <c r="F25" s="13"/>
-      <c r="G25" s="13"/>
-      <c r="H25" s="13"/>
-      <c r="I25" s="13"/>
-      <c r="J25" s="29"/>
-      <c r="K25" s="15"/>
-      <c r="L25" s="15"/>
-      <c r="M25" s="13"/>
-      <c r="N25" s="16"/>
-      <c r="O25" s="16"/>
-      <c r="P25" s="13"/>
-      <c r="Q25" s="13"/>
-      <c r="R25" s="13"/>
-    </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1">
-      <c r="A26" s="52"/>
-      <c r="B26" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="C26" s="113"/>
-      <c r="D26" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="E26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="F26" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="G26" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="H26" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="I26" s="55"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="52"/>
-      <c r="L26" s="112" t="s">
-        <v>23</v>
-      </c>
-      <c r="M26" s="113"/>
-      <c r="N26" s="53" t="s">
-        <v>24</v>
-      </c>
-      <c r="O26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="P26" s="53" t="s">
-        <v>26</v>
-      </c>
-      <c r="Q26" s="53" t="s">
-        <v>27</v>
-      </c>
-      <c r="R26" s="54" t="s">
-        <v>28</v>
-      </c>
-      <c r="S26" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75">
-      <c r="A27" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="B27" s="57"/>
-      <c r="C27" s="58"/>
-      <c r="D27" s="59"/>
-      <c r="E27" s="59"/>
-      <c r="F27" s="58"/>
-      <c r="G27" s="58"/>
-      <c r="H27" s="60"/>
-      <c r="I27" s="58"/>
-      <c r="J27" s="40"/>
-      <c r="K27" s="56"/>
-      <c r="L27" s="57"/>
-      <c r="M27" s="58"/>
-      <c r="N27" s="59"/>
-      <c r="O27" s="59"/>
-      <c r="P27" s="58"/>
-      <c r="Q27" s="58"/>
-      <c r="R27" s="60"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75">
-      <c r="A28" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="B28" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="C28" s="115"/>
-      <c r="D28" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="E28" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="F28" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="G28" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="64" t="s">
-        <v>37</v>
-      </c>
-      <c r="I28" s="65"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="L28" s="114" t="s">
-        <v>32</v>
-      </c>
-      <c r="M28" s="115"/>
-      <c r="N28" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="O28" s="62" t="s">
-        <v>34</v>
-      </c>
-      <c r="P28" s="63" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q28" s="63" t="s">
-        <v>36</v>
-      </c>
-      <c r="R28" s="64" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A29" s="66" t="s">
-        <v>2</v>
-      </c>
-      <c r="B29" s="57"/>
-      <c r="C29" s="58"/>
-      <c r="D29" s="59"/>
-      <c r="E29" s="59"/>
-      <c r="F29" s="58"/>
-      <c r="G29" s="58"/>
-      <c r="H29" s="60"/>
-      <c r="I29" s="58"/>
-      <c r="J29" s="40"/>
-      <c r="K29" s="56"/>
-      <c r="L29" s="57"/>
-      <c r="M29" s="58"/>
-      <c r="N29" s="59"/>
-      <c r="O29" s="59"/>
-      <c r="P29" s="58"/>
-      <c r="Q29" s="58"/>
-      <c r="R29" s="60"/>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1">
-      <c r="A30" s="67"/>
-      <c r="B30" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="C30" s="110"/>
-      <c r="D30" s="111"/>
-      <c r="E30" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="F30" s="68"/>
-      <c r="G30" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="H30" s="80" t="s">
-        <v>54</v>
-      </c>
-      <c r="I30" s="65"/>
-      <c r="J30" s="40"/>
-      <c r="K30" s="67"/>
-      <c r="L30" s="109" t="s">
-        <v>38</v>
-      </c>
-      <c r="M30" s="110"/>
-      <c r="N30" s="111"/>
-      <c r="O30" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="P30" s="68"/>
-      <c r="Q30" s="80" t="s">
-        <v>55</v>
-      </c>
-      <c r="R30" s="80" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="69"/>
-      <c r="C31" s="69"/>
-      <c r="D31" s="69"/>
-      <c r="E31" s="59"/>
-      <c r="F31" s="65"/>
-      <c r="G31" s="65"/>
-      <c r="H31" s="65"/>
-      <c r="I31" s="65"/>
-      <c r="J31" s="40"/>
-      <c r="K31" s="57"/>
-      <c r="L31" s="69"/>
-      <c r="M31" s="69"/>
-      <c r="N31" s="69"/>
-      <c r="O31" s="59"/>
-      <c r="P31" s="65"/>
-      <c r="Q31" s="65"/>
-      <c r="R31" s="65"/>
-    </row>
-    <row r="32" spans="1:19" s="78" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A32" s="75"/>
-      <c r="B32" s="86" t="s">
-        <v>40</v>
-      </c>
-      <c r="C32" s="87" t="s">
-        <v>41</v>
-      </c>
-      <c r="D32" s="87" t="s">
-        <v>42</v>
-      </c>
-      <c r="E32" s="88" t="s">
-        <v>43</v>
-      </c>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="77"/>
-      <c r="K32" s="75"/>
-      <c r="L32" s="81" t="s">
-        <v>40</v>
-      </c>
-      <c r="M32" s="74" t="s">
-        <v>41</v>
-      </c>
-      <c r="N32" s="74" t="s">
-        <v>42</v>
-      </c>
-      <c r="O32" s="82" t="s">
-        <v>43</v>
-      </c>
-      <c r="P32" s="20"/>
-      <c r="Q32" s="20"/>
-      <c r="R32" s="20"/>
-    </row>
-    <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="57" t="s">
-        <v>44</v>
-      </c>
-      <c r="B33" s="70"/>
-      <c r="C33" s="71"/>
-      <c r="D33" s="71"/>
-      <c r="E33" s="85"/>
-      <c r="F33" s="65"/>
-      <c r="G33" s="65"/>
-      <c r="H33" s="65"/>
-      <c r="I33" s="65"/>
-      <c r="J33" s="40"/>
-      <c r="K33" s="57"/>
-      <c r="L33" s="72"/>
-      <c r="M33" s="73"/>
-      <c r="N33" s="73"/>
-      <c r="O33" s="83"/>
-      <c r="P33" s="65"/>
-      <c r="Q33" s="65"/>
-      <c r="R33" s="65"/>
-    </row>
-    <row r="34" spans="1:18" s="78" customFormat="1" ht="12.75">
-      <c r="A34" s="75"/>
-      <c r="B34" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="C34" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="D34" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="E34" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="F34" s="20"/>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
-      <c r="I34" s="20"/>
-      <c r="J34" s="77"/>
-      <c r="K34" s="75"/>
-      <c r="L34" s="91" t="s">
-        <v>45</v>
-      </c>
-      <c r="M34" s="89" t="s">
-        <v>46</v>
-      </c>
-      <c r="N34" s="89" t="s">
-        <v>47</v>
-      </c>
-      <c r="O34" s="90" t="s">
-        <v>48</v>
-      </c>
-      <c r="P34" s="20"/>
-      <c r="Q34" s="20"/>
-      <c r="R34" s="20"/>
-    </row>
-    <row r="35" spans="1:18" s="78" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="75"/>
-      <c r="B35" s="92"/>
-      <c r="C35" s="76"/>
-      <c r="D35" s="76"/>
-      <c r="E35" s="84"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20"/>
-      <c r="I35" s="20"/>
-      <c r="J35" s="77"/>
-      <c r="K35" s="75"/>
-      <c r="L35" s="92"/>
-      <c r="M35" s="76"/>
-      <c r="N35" s="76"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="20"/>
-      <c r="Q35" s="20"/>
-      <c r="R35" s="20"/>
-    </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="17" t="s">
-        <v>2</v>
-      </c>
-      <c r="B36" s="18"/>
-      <c r="C36" s="18"/>
-      <c r="D36" s="18"/>
-      <c r="E36" s="19"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="29"/>
-      <c r="K36" s="17"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="O36" s="19"/>
-      <c r="P36" s="20"/>
-      <c r="Q36" s="20"/>
-      <c r="R36" s="20"/>
-    </row>
-    <row r="37" spans="1:18">
-      <c r="A37" s="17"/>
-      <c r="B37" s="18"/>
-      <c r="C37" s="18"/>
-      <c r="D37" s="18"/>
-      <c r="E37" s="19"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20"/>
-      <c r="I37" s="20"/>
-      <c r="J37" s="29"/>
-      <c r="K37" s="17"/>
-      <c r="L37" s="106" t="s">
-        <v>57</v>
-      </c>
-      <c r="M37" s="107"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="107"/>
-      <c r="P37" s="107"/>
-      <c r="Q37" s="107"/>
-      <c r="R37" s="107"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1">
-      <c r="A38" s="17"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="18"/>
-      <c r="D38" s="99" t="s">
-        <v>59</v>
-      </c>
-      <c r="E38" s="19"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="29"/>
-      <c r="K38" s="17"/>
-      <c r="L38" s="107"/>
-      <c r="M38" s="107"/>
-      <c r="N38" s="107"/>
-      <c r="O38" s="107"/>
-      <c r="P38" s="107"/>
-      <c r="Q38" s="107"/>
-      <c r="R38" s="107"/>
+      <c r="E38" s="18"/>
+      <c r="F38" s="19"/>
+      <c r="G38" s="19"/>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="28"/>
+      <c r="K38" s="16"/>
+      <c r="L38" s="101"/>
+      <c r="M38" s="101"/>
+      <c r="N38" s="101"/>
+      <c r="O38" s="101"/>
+      <c r="P38" s="101"/>
+      <c r="Q38" s="101"/>
+      <c r="R38" s="101"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" t="s">
-        <v>2</v>
-      </c>
-      <c r="B39" s="18"/>
-      <c r="C39" s="18"/>
-      <c r="D39" s="18"/>
-      <c r="E39" s="19"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="29"/>
-      <c r="K39" s="17"/>
-      <c r="L39" s="98"/>
-      <c r="M39" s="98"/>
-      <c r="N39" s="98"/>
-      <c r="O39" s="98"/>
-      <c r="P39" s="98"/>
-      <c r="Q39" s="98"/>
-      <c r="R39" s="98"/>
+        <v>1</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="17"/>
+      <c r="D39" s="17"/>
+      <c r="E39" s="18"/>
+      <c r="F39" s="19"/>
+      <c r="G39" s="19"/>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="28"/>
+      <c r="K39" s="16"/>
+      <c r="L39" s="88"/>
+      <c r="M39" s="88"/>
+      <c r="N39" s="88"/>
+      <c r="O39" s="88"/>
+      <c r="P39" s="88"/>
+      <c r="Q39" s="88"/>
+      <c r="R39" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
+  <mergeCells count="19">
     <mergeCell ref="L37:R38"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2528,6 +2508,8 @@
     <mergeCell ref="L26:M26"/>
     <mergeCell ref="B28:C28"/>
     <mergeCell ref="L28:M28"/>
+    <mergeCell ref="B32:E32"/>
+    <mergeCell ref="L32:O32"/>
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="M15:R15"/>
@@ -2535,6 +2517,7 @@
     <mergeCell ref="Q16:R16"/>
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="106" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -255,6 +255,15 @@
   </si>
   <si>
     <t>${lc.counters4ask}</t>
+  </si>
+  <si>
+    <t>Текущее</t>
+  </si>
+  <si>
+    <t>Предыдущее</t>
+  </si>
+  <si>
+    <t>Расход</t>
   </si>
 </sst>
 </file>
@@ -1503,10 +1512,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S39"/>
+  <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="K12" sqref="K12:R12"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="F45" sqref="F45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -2331,108 +2340,117 @@
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
     </row>
-    <row r="33" spans="1:18" ht="15.75">
-      <c r="A33" s="56" t="s">
+    <row r="33" spans="1:18">
+      <c r="A33" s="71"/>
+      <c r="B33" s="81"/>
+      <c r="C33" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="E33" s="80" t="s">
+        <v>58</v>
+      </c>
+      <c r="F33" s="19"/>
+      <c r="G33" s="19"/>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="73"/>
+      <c r="K33" s="71"/>
+      <c r="L33" s="81"/>
+      <c r="M33" s="79" t="s">
+        <v>56</v>
+      </c>
+      <c r="N33" s="79" t="s">
+        <v>57</v>
+      </c>
+      <c r="O33" s="80" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="74" customFormat="1" ht="15.75">
+      <c r="A34" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B33" s="69"/>
-      <c r="C33" s="70"/>
-      <c r="D33" s="70"/>
-      <c r="E33" s="78"/>
-      <c r="F33" s="64"/>
-      <c r="G33" s="64"/>
-      <c r="H33" s="64"/>
-      <c r="I33" s="64"/>
-      <c r="J33" s="39"/>
-      <c r="K33" s="56"/>
-      <c r="L33" s="90"/>
-      <c r="M33" s="91"/>
-      <c r="N33" s="91"/>
-      <c r="O33" s="92"/>
-      <c r="P33" s="64"/>
-      <c r="Q33" s="64"/>
-      <c r="R33" s="64"/>
-    </row>
-    <row r="34" spans="1:18" s="74" customFormat="1" ht="12.75">
-      <c r="A34" s="71"/>
-      <c r="B34" s="81" t="s">
+      <c r="B34" s="69"/>
+      <c r="C34" s="70"/>
+      <c r="D34" s="70"/>
+      <c r="E34" s="78"/>
+      <c r="F34" s="64"/>
+      <c r="G34" s="64"/>
+      <c r="H34" s="64"/>
+      <c r="I34" s="64"/>
+      <c r="J34" s="39"/>
+      <c r="K34" s="56"/>
+      <c r="L34" s="90"/>
+      <c r="M34" s="91"/>
+      <c r="N34" s="91"/>
+      <c r="O34" s="92"/>
+      <c r="P34" s="64"/>
+      <c r="Q34" s="64"/>
+      <c r="R34" s="64"/>
+    </row>
+    <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A35" s="71"/>
+      <c r="B35" s="81" t="s">
         <v>38</v>
       </c>
-      <c r="C34" s="79" t="s">
+      <c r="C35" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="D34" s="79" t="s">
+      <c r="D35" s="79" t="s">
         <v>40</v>
       </c>
-      <c r="E34" s="80" t="s">
+      <c r="E35" s="80" t="s">
         <v>41</v>
       </c>
-      <c r="F34" s="19"/>
-      <c r="G34" s="19"/>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="73"/>
-      <c r="K34" s="71"/>
-      <c r="L34" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="M34" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="N34" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="O34" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="P34" s="19"/>
-      <c r="Q34" s="19"/>
-      <c r="R34" s="19"/>
-    </row>
-    <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A35" s="71"/>
-      <c r="B35" s="82"/>
-      <c r="C35" s="72"/>
-      <c r="D35" s="72"/>
-      <c r="E35" s="77"/>
       <c r="F35" s="19"/>
       <c r="G35" s="19"/>
       <c r="H35" s="19"/>
       <c r="I35" s="19"/>
       <c r="J35" s="73"/>
       <c r="K35" s="71"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="72"/>
-      <c r="N35" s="72"/>
-      <c r="O35" s="77"/>
+      <c r="L35" s="81" t="s">
+        <v>38</v>
+      </c>
+      <c r="M35" s="79" t="s">
+        <v>39</v>
+      </c>
+      <c r="N35" s="79" t="s">
+        <v>40</v>
+      </c>
+      <c r="O35" s="80" t="s">
+        <v>41</v>
+      </c>
       <c r="P35" s="19"/>
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
     </row>
-    <row r="36" spans="1:18">
-      <c r="A36" s="16" t="s">
-        <v>1</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="17"/>
-      <c r="D36" s="17"/>
-      <c r="E36" s="18"/>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1">
+      <c r="A36" s="71"/>
+      <c r="B36" s="82"/>
+      <c r="C36" s="72"/>
+      <c r="D36" s="72"/>
+      <c r="E36" s="77"/>
       <c r="F36" s="19"/>
       <c r="G36" s="19"/>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
-      <c r="J36" s="28"/>
-      <c r="K36" s="16"/>
-      <c r="L36" s="17"/>
-      <c r="M36" s="17"/>
-      <c r="N36" s="17"/>
-      <c r="O36" s="18"/>
+      <c r="J36" s="73"/>
+      <c r="K36" s="71"/>
+      <c r="L36" s="82"/>
+      <c r="M36" s="72"/>
+      <c r="N36" s="72"/>
+      <c r="O36" s="77"/>
       <c r="P36" s="19"/>
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
     </row>
     <row r="37" spans="1:18">
-      <c r="A37" s="16"/>
+      <c r="A37" s="16" t="s">
+        <v>1</v>
+      </c>
       <c r="B37" s="17"/>
       <c r="C37" s="17"/>
       <c r="D37" s="17"/>
@@ -2443,23 +2461,19 @@
       <c r="I37" s="19"/>
       <c r="J37" s="28"/>
       <c r="K37" s="16"/>
-      <c r="L37" s="100" t="s">
-        <v>48</v>
-      </c>
-      <c r="M37" s="101"/>
-      <c r="N37" s="101"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
+      <c r="L37" s="17"/>
+      <c r="M37" s="17"/>
+      <c r="N37" s="17"/>
+      <c r="O37" s="18"/>
+      <c r="P37" s="19"/>
+      <c r="Q37" s="19"/>
+      <c r="R37" s="19"/>
     </row>
     <row r="38" spans="1:18" ht="12.75" customHeight="1">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
-      <c r="D38" s="89" t="s">
-        <v>49</v>
-      </c>
+      <c r="D38" s="17"/>
       <c r="E38" s="18"/>
       <c r="F38" s="19"/>
       <c r="G38" s="19"/>
@@ -2467,7 +2481,9 @@
       <c r="I38" s="19"/>
       <c r="J38" s="28"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="101"/>
+      <c r="L38" s="100" t="s">
+        <v>48</v>
+      </c>
       <c r="M38" s="101"/>
       <c r="N38" s="101"/>
       <c r="O38" s="101"/>
@@ -2476,12 +2492,12 @@
       <c r="R38" s="101"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
-      <c r="A39" t="s">
-        <v>1</v>
-      </c>
+      <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
-      <c r="D39" s="17"/>
+      <c r="D39" s="89" t="s">
+        <v>49</v>
+      </c>
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
       <c r="G39" s="19"/>
@@ -2489,17 +2505,39 @@
       <c r="I39" s="19"/>
       <c r="J39" s="28"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="88"/>
-      <c r="M39" s="88"/>
-      <c r="N39" s="88"/>
-      <c r="O39" s="88"/>
-      <c r="P39" s="88"/>
-      <c r="Q39" s="88"/>
-      <c r="R39" s="88"/>
+      <c r="L39" s="101"/>
+      <c r="M39" s="101"/>
+      <c r="N39" s="101"/>
+      <c r="O39" s="101"/>
+      <c r="P39" s="101"/>
+      <c r="Q39" s="101"/>
+      <c r="R39" s="101"/>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40" t="s">
+        <v>1</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="18"/>
+      <c r="F40" s="19"/>
+      <c r="G40" s="19"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="28"/>
+      <c r="K40" s="16"/>
+      <c r="L40" s="88"/>
+      <c r="M40" s="88"/>
+      <c r="N40" s="88"/>
+      <c r="O40" s="88"/>
+      <c r="P40" s="88"/>
+      <c r="Q40" s="88"/>
+      <c r="R40" s="88"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L37:R38"/>
+    <mergeCell ref="L38:R39"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
     <mergeCell ref="L30:N30"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -264,6 +269,9 @@
   </si>
   <si>
     <t>Расход</t>
+  </si>
+  <si>
+    <t>Текущие показания счетчиков:</t>
   </si>
 </sst>
 </file>
@@ -847,7 +855,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="113">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1054,27 +1062,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1116,6 +1103,30 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1514,8 +1525,8 @@
   </sheetPr>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="F45" sqref="F45"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1553,18 +1564,18 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="99" t="s">
+      <c r="K2" s="112" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="99"/>
-      <c r="M2" s="93" t="s">
+      <c r="L2" s="112"/>
+      <c r="M2" s="106" t="s">
         <v>52</v>
       </c>
-      <c r="N2" s="94"/>
-      <c r="O2" s="94"/>
-      <c r="P2" s="94"/>
-      <c r="Q2" s="94"/>
-      <c r="R2" s="94"/>
+      <c r="N2" s="107"/>
+      <c r="O2" s="107"/>
+      <c r="P2" s="107"/>
+      <c r="Q2" s="107"/>
+      <c r="R2" s="107"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
@@ -1586,10 +1597,10 @@
       <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="98" t="s">
+      <c r="Q3" s="111" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="98"/>
+      <c r="R3" s="111"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
@@ -1610,8 +1621,8 @@
       <c r="N4" s="84"/>
       <c r="O4" s="85"/>
       <c r="P4" s="83"/>
-      <c r="Q4" s="98"/>
-      <c r="R4" s="98"/>
+      <c r="Q4" s="111"/>
+      <c r="R4" s="111"/>
     </row>
     <row r="5" spans="1:18" ht="35.25" thickBot="1">
       <c r="A5" s="2"/>
@@ -1753,7 +1764,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" ht="18.75" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1766,12 +1777,14 @@
       <c r="J11" s="28"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="4"/>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="21"/>
+      <c r="M11" s="113" t="s">
+        <v>59</v>
+      </c>
+      <c r="N11" s="113"/>
+      <c r="O11" s="113"/>
+      <c r="P11" s="113"/>
+      <c r="Q11" s="113"/>
+      <c r="R11" s="113"/>
     </row>
     <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1">
       <c r="A12" s="2"/>
@@ -1784,16 +1797,16 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="97" t="s">
+      <c r="K12" s="110" t="s">
         <v>55</v>
       </c>
-      <c r="L12" s="97"/>
-      <c r="M12" s="97"/>
-      <c r="N12" s="97"/>
-      <c r="O12" s="97"/>
-      <c r="P12" s="97"/>
-      <c r="Q12" s="97"/>
-      <c r="R12" s="97"/>
+      <c r="L12" s="110"/>
+      <c r="M12" s="110"/>
+      <c r="N12" s="110"/>
+      <c r="O12" s="110"/>
+      <c r="P12" s="110"/>
+      <c r="Q12" s="110"/>
+      <c r="R12" s="110"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2"/>
@@ -1842,28 +1855,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="95" t="s">
+      <c r="C15" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="D15" s="95"/>
-      <c r="E15" s="95"/>
-      <c r="F15" s="95"/>
-      <c r="G15" s="95"/>
-      <c r="H15" s="95"/>
+      <c r="D15" s="108"/>
+      <c r="E15" s="108"/>
+      <c r="F15" s="108"/>
+      <c r="G15" s="108"/>
+      <c r="H15" s="108"/>
       <c r="I15" s="20"/>
       <c r="J15" s="28"/>
       <c r="K15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="95" t="s">
+      <c r="M15" s="108" t="s">
         <v>53</v>
       </c>
-      <c r="N15" s="95"/>
-      <c r="O15" s="95"/>
-      <c r="P15" s="95"/>
-      <c r="Q15" s="95"/>
-      <c r="R15" s="95"/>
+      <c r="N15" s="108"/>
+      <c r="O15" s="108"/>
+      <c r="P15" s="108"/>
+      <c r="Q15" s="108"/>
+      <c r="R15" s="108"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="13"/>
@@ -1876,10 +1889,10 @@
       <c r="F16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="96" t="s">
+      <c r="G16" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="96"/>
+      <c r="H16" s="109"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
@@ -1892,10 +1905,10 @@
       <c r="P16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="96" t="s">
+      <c r="Q16" s="109" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="96"/>
+      <c r="R16" s="109"/>
     </row>
     <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="12"/>
@@ -1946,26 +1959,26 @@
     <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="102" t="s">
+      <c r="C19" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="102"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="102"/>
-      <c r="H19" s="102"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="95"/>
+      <c r="F19" s="95"/>
+      <c r="G19" s="95"/>
+      <c r="H19" s="95"/>
       <c r="I19" s="44"/>
       <c r="J19" s="39"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="102" t="s">
+      <c r="M19" s="95" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="102"/>
-      <c r="O19" s="102"/>
-      <c r="P19" s="102"/>
-      <c r="Q19" s="102"/>
-      <c r="R19" s="102"/>
+      <c r="N19" s="95"/>
+      <c r="O19" s="95"/>
+      <c r="P19" s="95"/>
+      <c r="Q19" s="95"/>
+      <c r="R19" s="95"/>
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="12"/>
@@ -2123,10 +2136,10 @@
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="106" t="s">
+      <c r="B26" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="107"/>
+      <c r="C26" s="100"/>
       <c r="D26" s="52" t="s">
         <v>21</v>
       </c>
@@ -2145,10 +2158,10 @@
       <c r="I26" s="54"/>
       <c r="J26" s="39"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="106" t="s">
+      <c r="L26" s="99" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="107"/>
+      <c r="M26" s="100"/>
       <c r="N26" s="52" t="s">
         <v>21</v>
       </c>
@@ -2194,10 +2207,10 @@
       <c r="A28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="108" t="s">
+      <c r="B28" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="109"/>
+      <c r="C28" s="102"/>
       <c r="D28" s="61" t="s">
         <v>30</v>
       </c>
@@ -2218,10 +2231,10 @@
       <c r="K28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="108" t="s">
+      <c r="L28" s="101" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="109"/>
+      <c r="M28" s="102"/>
       <c r="N28" s="61" t="s">
         <v>30</v>
       </c>
@@ -2262,11 +2275,11 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="103" t="s">
+      <c r="B30" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="104"/>
-      <c r="D30" s="105"/>
+      <c r="C30" s="97"/>
+      <c r="D30" s="98"/>
       <c r="E30" s="75" t="s">
         <v>36</v>
       </c>
@@ -2280,11 +2293,11 @@
       <c r="I30" s="64"/>
       <c r="J30" s="39"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="103" t="s">
+      <c r="L30" s="96" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="104"/>
-      <c r="N30" s="105"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
       <c r="O30" s="75" t="s">
         <v>36</v>
       </c>
@@ -2318,24 +2331,24 @@
     </row>
     <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="110" t="s">
+      <c r="B32" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="C32" s="111"/>
-      <c r="D32" s="111"/>
-      <c r="E32" s="112"/>
+      <c r="C32" s="104"/>
+      <c r="D32" s="104"/>
+      <c r="E32" s="105"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="30"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="110" t="s">
+      <c r="L32" s="103" t="s">
         <v>54</v>
       </c>
-      <c r="M32" s="111"/>
-      <c r="N32" s="111"/>
-      <c r="O32" s="112"/>
+      <c r="M32" s="104"/>
+      <c r="N32" s="104"/>
+      <c r="O32" s="105"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
@@ -2481,15 +2494,15 @@
       <c r="I38" s="19"/>
       <c r="J38" s="28"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="100" t="s">
+      <c r="L38" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="M38" s="101"/>
-      <c r="N38" s="101"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
+      <c r="M38" s="94"/>
+      <c r="N38" s="94"/>
+      <c r="O38" s="94"/>
+      <c r="P38" s="94"/>
+      <c r="Q38" s="94"/>
+      <c r="R38" s="94"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="16"/>
@@ -2505,13 +2518,13 @@
       <c r="I39" s="19"/>
       <c r="J39" s="28"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="101"/>
-      <c r="M39" s="101"/>
-      <c r="N39" s="101"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
+      <c r="L39" s="94"/>
+      <c r="M39" s="94"/>
+      <c r="N39" s="94"/>
+      <c r="O39" s="94"/>
+      <c r="P39" s="94"/>
+      <c r="Q39" s="94"/>
+      <c r="R39" s="94"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
@@ -2536,7 +2549,16 @@
       <c r="R40" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="M11:R11"/>
     <mergeCell ref="L38:R39"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2548,14 +2570,6 @@
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="L32:O32"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -1,13 +1,8 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr autoCompressPictures="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -153,9 +148,6 @@
   </si>
   <si>
     <t>${lc.saldo.debt}</t>
-  </si>
-  <si>
-    <t>${lc.saldo.full_end}</t>
   </si>
   <si>
     <t>Кассир: ____________</t>
@@ -273,6 +265,9 @@
   <si>
     <t>Текущие показания счетчиков:</t>
   </si>
+  <si>
+    <t>${lc.saldo.full_end}</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="20">
+  <fonts count="21">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -415,6 +410,12 @@
       <family val="2"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1062,6 +1063,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1124,9 +1126,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1525,8 +1524,8 @@
   </sheetPr>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
@@ -1564,18 +1563,18 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="112" t="s">
+      <c r="K2" s="113" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" s="113"/>
+      <c r="M2" s="107" t="s">
         <v>51</v>
       </c>
-      <c r="L2" s="112"/>
-      <c r="M2" s="106" t="s">
-        <v>52</v>
-      </c>
-      <c r="N2" s="107"/>
-      <c r="O2" s="107"/>
-      <c r="P2" s="107"/>
-      <c r="Q2" s="107"/>
-      <c r="R2" s="107"/>
+      <c r="N2" s="108"/>
+      <c r="O2" s="108"/>
+      <c r="P2" s="108"/>
+      <c r="Q2" s="108"/>
+      <c r="R2" s="108"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1">
       <c r="A3"/>
@@ -1597,10 +1596,10 @@
       <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="111" t="s">
+      <c r="Q3" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="111"/>
+      <c r="R3" s="112"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1">
       <c r="A4"/>
@@ -1621,8 +1620,8 @@
       <c r="N4" s="84"/>
       <c r="O4" s="85"/>
       <c r="P4" s="83"/>
-      <c r="Q4" s="111"/>
-      <c r="R4" s="111"/>
+      <c r="Q4" s="112"/>
+      <c r="R4" s="112"/>
     </row>
     <row r="5" spans="1:18" ht="35.25" thickBot="1">
       <c r="A5" s="2"/>
@@ -1734,14 +1733,14 @@
       <c r="K9" s="4"/>
       <c r="L9" s="4"/>
       <c r="M9" s="32" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N9" s="32"/>
       <c r="O9" s="32"/>
       <c r="P9" s="32"/>
       <c r="Q9" s="32"/>
       <c r="R9" s="35" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="3.95" customHeight="1">
@@ -1764,7 +1763,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18" ht="18.75" customHeight="1">
+    <row r="11" spans="1:18">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1777,14 +1776,14 @@
       <c r="J11" s="28"/>
       <c r="K11" s="4"/>
       <c r="L11" s="4"/>
-      <c r="M11" s="113" t="s">
-        <v>59</v>
-      </c>
-      <c r="N11" s="113"/>
-      <c r="O11" s="113"/>
-      <c r="P11" s="113"/>
-      <c r="Q11" s="113"/>
-      <c r="R11" s="113"/>
+      <c r="M11" s="93" t="s">
+        <v>58</v>
+      </c>
+      <c r="N11" s="4"/>
+      <c r="O11" s="4"/>
+      <c r="P11" s="4"/>
+      <c r="Q11" s="4"/>
+      <c r="R11" s="21"/>
     </row>
     <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1">
       <c r="A12" s="2"/>
@@ -1797,16 +1796,16 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="110" t="s">
-        <v>55</v>
-      </c>
-      <c r="L12" s="110"/>
-      <c r="M12" s="110"/>
-      <c r="N12" s="110"/>
-      <c r="O12" s="110"/>
-      <c r="P12" s="110"/>
-      <c r="Q12" s="110"/>
-      <c r="R12" s="110"/>
+      <c r="K12" s="111" t="s">
+        <v>54</v>
+      </c>
+      <c r="L12" s="111"/>
+      <c r="M12" s="111"/>
+      <c r="N12" s="111"/>
+      <c r="O12" s="111"/>
+      <c r="P12" s="111"/>
+      <c r="Q12" s="111"/>
+      <c r="R12" s="111"/>
     </row>
     <row r="13" spans="1:18">
       <c r="A13" s="2"/>
@@ -1821,11 +1820,11 @@
       <c r="J13" s="28"/>
       <c r="K13" s="4"/>
       <c r="L13" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N13" s="4"/>
       <c r="O13" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q13" s="4"/>
       <c r="R13" s="21"/>
@@ -1855,28 +1854,28 @@
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="D15" s="108"/>
-      <c r="E15" s="108"/>
-      <c r="F15" s="108"/>
-      <c r="G15" s="108"/>
-      <c r="H15" s="108"/>
+      <c r="C15" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="D15" s="109"/>
+      <c r="E15" s="109"/>
+      <c r="F15" s="109"/>
+      <c r="G15" s="109"/>
+      <c r="H15" s="109"/>
       <c r="I15" s="20"/>
       <c r="J15" s="28"/>
       <c r="K15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="108" t="s">
-        <v>53</v>
-      </c>
-      <c r="N15" s="108"/>
-      <c r="O15" s="108"/>
-      <c r="P15" s="108"/>
-      <c r="Q15" s="108"/>
-      <c r="R15" s="108"/>
+      <c r="M15" s="109" t="s">
+        <v>52</v>
+      </c>
+      <c r="N15" s="109"/>
+      <c r="O15" s="109"/>
+      <c r="P15" s="109"/>
+      <c r="Q15" s="109"/>
+      <c r="R15" s="109"/>
     </row>
     <row r="16" spans="1:18" ht="15.75">
       <c r="A16" s="13"/>
@@ -1889,10 +1888,10 @@
       <c r="F16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="109" t="s">
+      <c r="G16" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="109"/>
+      <c r="H16" s="110"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
@@ -1905,10 +1904,10 @@
       <c r="P16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="109" t="s">
+      <c r="Q16" s="110" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="109"/>
+      <c r="R16" s="110"/>
     </row>
     <row r="17" spans="1:19" ht="15.75">
       <c r="A17" s="12"/>
@@ -1959,26 +1958,26 @@
     <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="95" t="s">
+      <c r="C19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="95"/>
-      <c r="E19" s="95"/>
-      <c r="F19" s="95"/>
-      <c r="G19" s="95"/>
-      <c r="H19" s="95"/>
+      <c r="D19" s="96"/>
+      <c r="E19" s="96"/>
+      <c r="F19" s="96"/>
+      <c r="G19" s="96"/>
+      <c r="H19" s="96"/>
       <c r="I19" s="44"/>
       <c r="J19" s="39"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="95" t="s">
+      <c r="M19" s="96" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="95"/>
-      <c r="O19" s="95"/>
-      <c r="P19" s="95"/>
-      <c r="Q19" s="95"/>
-      <c r="R19" s="95"/>
+      <c r="N19" s="96"/>
+      <c r="O19" s="96"/>
+      <c r="P19" s="96"/>
+      <c r="Q19" s="96"/>
+      <c r="R19" s="96"/>
     </row>
     <row r="20" spans="1:19" ht="15.75">
       <c r="A20" s="12"/>
@@ -2068,28 +2067,28 @@
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D23" s="43"/>
       <c r="E23" s="43"/>
       <c r="F23" s="43"/>
       <c r="G23" s="45"/>
       <c r="H23" s="49" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="I23" s="50"/>
       <c r="J23" s="39"/>
       <c r="K23" s="43"/>
       <c r="L23" s="43"/>
       <c r="M23" s="43" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="N23" s="43"/>
       <c r="O23" s="43"/>
       <c r="P23" s="43"/>
       <c r="Q23" s="45"/>
       <c r="R23" s="49" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="27.75" customHeight="1">
@@ -2105,11 +2104,11 @@
       <c r="J24" s="39"/>
       <c r="K24" s="43"/>
       <c r="L24" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N24" s="4"/>
       <c r="O24" s="12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="Q24" s="45"/>
       <c r="R24" s="50"/>
@@ -2136,10 +2135,10 @@
     </row>
     <row r="26" spans="1:19" ht="30.75" thickBot="1">
       <c r="A26" s="51"/>
-      <c r="B26" s="99" t="s">
+      <c r="B26" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="100"/>
+      <c r="C26" s="101"/>
       <c r="D26" s="52" t="s">
         <v>21</v>
       </c>
@@ -2158,10 +2157,10 @@
       <c r="I26" s="54"/>
       <c r="J26" s="39"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="99" t="s">
+      <c r="L26" s="100" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="100"/>
+      <c r="M26" s="101"/>
       <c r="N26" s="52" t="s">
         <v>21</v>
       </c>
@@ -2207,10 +2206,10 @@
       <c r="A28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="101" t="s">
+      <c r="B28" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="102"/>
+      <c r="C28" s="103"/>
       <c r="D28" s="61" t="s">
         <v>30</v>
       </c>
@@ -2231,10 +2230,10 @@
       <c r="K28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="101" t="s">
+      <c r="L28" s="102" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="102"/>
+      <c r="M28" s="103"/>
       <c r="N28" s="61" t="s">
         <v>30</v>
       </c>
@@ -2275,38 +2274,38 @@
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1">
       <c r="A30" s="66"/>
-      <c r="B30" s="96" t="s">
+      <c r="B30" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="97"/>
-      <c r="D30" s="98"/>
+      <c r="C30" s="98"/>
+      <c r="D30" s="99"/>
       <c r="E30" s="75" t="s">
         <v>36</v>
       </c>
       <c r="F30" s="67"/>
       <c r="G30" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H30" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="I30" s="64"/>
       <c r="J30" s="39"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="96" t="s">
+      <c r="L30" s="97" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
+      <c r="M30" s="98"/>
+      <c r="N30" s="99"/>
       <c r="O30" s="75" t="s">
         <v>36</v>
       </c>
       <c r="P30" s="67"/>
       <c r="Q30" s="76" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="R30" s="76" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
@@ -2331,24 +2330,24 @@
     </row>
     <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1">
       <c r="A32" s="1"/>
-      <c r="B32" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="C32" s="104"/>
-      <c r="D32" s="104"/>
-      <c r="E32" s="105"/>
+      <c r="B32" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="C32" s="105"/>
+      <c r="D32" s="105"/>
+      <c r="E32" s="106"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="30"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="103" t="s">
-        <v>54</v>
-      </c>
-      <c r="M32" s="104"/>
-      <c r="N32" s="104"/>
-      <c r="O32" s="105"/>
+      <c r="L32" s="104" t="s">
+        <v>53</v>
+      </c>
+      <c r="M32" s="105"/>
+      <c r="N32" s="105"/>
+      <c r="O32" s="106"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
@@ -2357,13 +2356,13 @@
       <c r="A33" s="71"/>
       <c r="B33" s="81"/>
       <c r="C33" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="D33" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="D33" s="79" t="s">
+      <c r="E33" s="80" t="s">
         <v>57</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>58</v>
       </c>
       <c r="F33" s="19"/>
       <c r="G33" s="19"/>
@@ -2373,13 +2372,13 @@
       <c r="K33" s="71"/>
       <c r="L33" s="81"/>
       <c r="M33" s="79" t="s">
+        <v>55</v>
+      </c>
+      <c r="N33" s="79" t="s">
         <v>56</v>
       </c>
-      <c r="N33" s="79" t="s">
+      <c r="O33" s="80" t="s">
         <v>57</v>
-      </c>
-      <c r="O33" s="80" t="s">
-        <v>58</v>
       </c>
     </row>
     <row r="34" spans="1:18" s="74" customFormat="1" ht="15.75">
@@ -2494,22 +2493,22 @@
       <c r="I38" s="19"/>
       <c r="J38" s="28"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="93" t="s">
-        <v>48</v>
-      </c>
-      <c r="M38" s="94"/>
-      <c r="N38" s="94"/>
-      <c r="O38" s="94"/>
-      <c r="P38" s="94"/>
-      <c r="Q38" s="94"/>
-      <c r="R38" s="94"/>
+      <c r="L38" s="94" t="s">
+        <v>47</v>
+      </c>
+      <c r="M38" s="95"/>
+      <c r="N38" s="95"/>
+      <c r="O38" s="95"/>
+      <c r="P38" s="95"/>
+      <c r="Q38" s="95"/>
+      <c r="R38" s="95"/>
     </row>
     <row r="39" spans="1:18" ht="15" customHeight="1">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
       <c r="D39" s="89" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E39" s="18"/>
       <c r="F39" s="19"/>
@@ -2518,13 +2517,13 @@
       <c r="I39" s="19"/>
       <c r="J39" s="28"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="94"/>
-      <c r="M39" s="94"/>
-      <c r="N39" s="94"/>
-      <c r="O39" s="94"/>
-      <c r="P39" s="94"/>
-      <c r="Q39" s="94"/>
-      <c r="R39" s="94"/>
+      <c r="L39" s="95"/>
+      <c r="M39" s="95"/>
+      <c r="N39" s="95"/>
+      <c r="O39" s="95"/>
+      <c r="P39" s="95"/>
+      <c r="Q39" s="95"/>
+      <c r="R39" s="95"/>
     </row>
     <row r="40" spans="1:18">
       <c r="A40" t="s">
@@ -2549,7 +2548,7 @@
       <c r="R40" s="88"/>
     </row>
   </sheetData>
-  <mergeCells count="20">
+  <mergeCells count="19">
     <mergeCell ref="M2:R2"/>
     <mergeCell ref="C15:H15"/>
     <mergeCell ref="M15:R15"/>
@@ -2558,7 +2557,6 @@
     <mergeCell ref="K12:R12"/>
     <mergeCell ref="Q3:R4"/>
     <mergeCell ref="K2:L2"/>
-    <mergeCell ref="M11:R11"/>
     <mergeCell ref="L38:R39"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -276,7 +276,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1064,6 +1064,27 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1105,27 +1126,6 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1524,11 +1524,11 @@
   </sheetPr>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
+      <selection activeCell="Q32" sqref="Q32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15"/>
+  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
@@ -1546,13 +1546,13 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1">
+    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="J1" s="28"/>
     </row>
-    <row r="2" spans="1:18" ht="87" customHeight="1">
+    <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2"/>
       <c r="B2" s="3"/>
       <c r="C2" s="2"/>
@@ -1563,20 +1563,20 @@
       <c r="H2"/>
       <c r="I2"/>
       <c r="J2" s="28"/>
-      <c r="K2" s="113" t="s">
+      <c r="K2" s="100" t="s">
         <v>50</v>
       </c>
-      <c r="L2" s="113"/>
-      <c r="M2" s="107" t="s">
+      <c r="L2" s="100"/>
+      <c r="M2" s="94" t="s">
         <v>51</v>
       </c>
-      <c r="N2" s="108"/>
-      <c r="O2" s="108"/>
-      <c r="P2" s="108"/>
-      <c r="Q2" s="108"/>
-      <c r="R2" s="108"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1">
+      <c r="N2" s="95"/>
+      <c r="O2" s="95"/>
+      <c r="P2" s="95"/>
+      <c r="Q2" s="95"/>
+      <c r="R2" s="95"/>
+    </row>
+    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3"/>
       <c r="B3" s="3"/>
       <c r="C3"/>
@@ -1596,12 +1596,12 @@
       <c r="P3" s="87" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="112" t="s">
+      <c r="Q3" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="112"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1">
+      <c r="R3" s="99"/>
+    </row>
+    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4"/>
       <c r="B4" s="3"/>
       <c r="C4"/>
@@ -1620,10 +1620,10 @@
       <c r="N4" s="84"/>
       <c r="O4" s="85"/>
       <c r="P4" s="83"/>
-      <c r="Q4" s="112"/>
-      <c r="R4" s="112"/>
-    </row>
-    <row r="5" spans="1:18" ht="35.25" thickBot="1">
+      <c r="Q4" s="99"/>
+      <c r="R4" s="99"/>
+    </row>
+    <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
       <c r="B5" s="3"/>
       <c r="C5"/>
@@ -1647,7 +1647,7 @@
       </c>
       <c r="R5" s="9"/>
     </row>
-    <row r="6" spans="1:18" ht="15.75">
+    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
       <c r="B6" s="3"/>
       <c r="C6"/>
@@ -1671,7 +1671,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:18" ht="15.75">
+    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7"/>
       <c r="C7"/>
@@ -1695,7 +1695,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="8" spans="1:18" ht="15.75">
+    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8"/>
       <c r="C8" s="10"/>
@@ -1719,7 +1719,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1">
+    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A9" s="2"/>
       <c r="B9" s="2"/>
       <c r="C9" s="2"/>
@@ -1743,7 +1743,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="10" spans="1:18" ht="3.95" customHeight="1">
+    <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1763,7 +1763,7 @@
       <c r="Q10" s="4"/>
       <c r="R10" s="21"/>
     </row>
-    <row r="11" spans="1:18">
+    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1785,7 +1785,7 @@
       <c r="Q11" s="4"/>
       <c r="R11" s="21"/>
     </row>
-    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1">
+    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1796,18 +1796,18 @@
       <c r="H12"/>
       <c r="I12"/>
       <c r="J12" s="28"/>
-      <c r="K12" s="111" t="s">
+      <c r="K12" s="98" t="s">
         <v>54</v>
       </c>
-      <c r="L12" s="111"/>
-      <c r="M12" s="111"/>
-      <c r="N12" s="111"/>
-      <c r="O12" s="111"/>
-      <c r="P12" s="111"/>
-      <c r="Q12" s="111"/>
-      <c r="R12" s="111"/>
-    </row>
-    <row r="13" spans="1:18">
+      <c r="L12" s="98"/>
+      <c r="M12" s="98"/>
+      <c r="N12" s="98"/>
+      <c r="O12" s="98"/>
+      <c r="P12" s="98"/>
+      <c r="Q12" s="98"/>
+      <c r="R12" s="98"/>
+    </row>
+    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="4"/>
@@ -1829,7 +1829,7 @@
       <c r="Q13" s="4"/>
       <c r="R13" s="21"/>
     </row>
-    <row r="14" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1">
+    <row r="14" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="22"/>
       <c r="B14" s="22"/>
       <c r="C14" s="22"/>
@@ -1849,35 +1849,35 @@
       <c r="Q14" s="25"/>
       <c r="R14" s="26"/>
     </row>
-    <row r="15" spans="1:18">
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="B15" s="11"/>
-      <c r="C15" s="109" t="s">
+      <c r="C15" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="D15" s="109"/>
-      <c r="E15" s="109"/>
-      <c r="F15" s="109"/>
-      <c r="G15" s="109"/>
-      <c r="H15" s="109"/>
+      <c r="D15" s="96"/>
+      <c r="E15" s="96"/>
+      <c r="F15" s="96"/>
+      <c r="G15" s="96"/>
+      <c r="H15" s="96"/>
       <c r="I15" s="20"/>
       <c r="J15" s="28"/>
       <c r="K15" s="11" t="s">
         <v>13</v>
       </c>
       <c r="L15" s="11"/>
-      <c r="M15" s="109" t="s">
+      <c r="M15" s="96" t="s">
         <v>52</v>
       </c>
-      <c r="N15" s="109"/>
-      <c r="O15" s="109"/>
-      <c r="P15" s="109"/>
-      <c r="Q15" s="109"/>
-      <c r="R15" s="109"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75">
+      <c r="N15" s="96"/>
+      <c r="O15" s="96"/>
+      <c r="P15" s="96"/>
+      <c r="Q15" s="96"/>
+      <c r="R15" s="96"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="13"/>
       <c r="B16" s="13"/>
       <c r="C16" s="36" t="s">
@@ -1888,10 +1888,10 @@
       <c r="F16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="G16" s="110" t="s">
+      <c r="G16" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="H16" s="110"/>
+      <c r="H16" s="97"/>
       <c r="I16" s="38"/>
       <c r="J16" s="39"/>
       <c r="K16" s="40"/>
@@ -1904,12 +1904,12 @@
       <c r="P16" s="37" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="110" t="s">
+      <c r="Q16" s="97" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="110"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75">
+      <c r="R16" s="97"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="12"/>
       <c r="B17" s="12"/>
       <c r="C17" s="41" t="s">
@@ -1931,7 +1931,7 @@
       <c r="P17" s="41"/>
       <c r="Q17" s="41"/>
     </row>
-    <row r="18" spans="1:19" ht="15.75">
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="12"/>
       <c r="B18" s="12"/>
       <c r="C18" s="41"/>
@@ -1955,31 +1955,31 @@
         <v>17</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1">
+    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A19" s="12"/>
       <c r="B19" s="12"/>
-      <c r="C19" s="96" t="s">
+      <c r="C19" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="D19" s="96"/>
-      <c r="E19" s="96"/>
-      <c r="F19" s="96"/>
-      <c r="G19" s="96"/>
-      <c r="H19" s="96"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="103"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="103"/>
+      <c r="H19" s="103"/>
       <c r="I19" s="44"/>
       <c r="J19" s="39"/>
       <c r="K19" s="43"/>
       <c r="L19" s="43"/>
-      <c r="M19" s="96" t="s">
+      <c r="M19" s="103" t="s">
         <v>18</v>
       </c>
-      <c r="N19" s="96"/>
-      <c r="O19" s="96"/>
-      <c r="P19" s="96"/>
-      <c r="Q19" s="96"/>
-      <c r="R19" s="96"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75">
+      <c r="N19" s="103"/>
+      <c r="O19" s="103"/>
+      <c r="P19" s="103"/>
+      <c r="Q19" s="103"/>
+      <c r="R19" s="103"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A20" s="12"/>
       <c r="B20" s="12"/>
       <c r="C20" s="43" t="s">
@@ -2007,7 +2007,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75">
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="12"/>
       <c r="B21" s="12"/>
       <c r="C21" s="43" t="s">
@@ -2035,7 +2035,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="22" spans="1:19" ht="15.75">
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A22" s="12"/>
       <c r="B22" s="12"/>
       <c r="C22" s="43" t="s">
@@ -2063,7 +2063,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1">
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A23" s="12"/>
       <c r="B23" s="12"/>
       <c r="C23" s="43" t="s">
@@ -2091,7 +2091,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1">
+    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="12"/>
       <c r="B24" s="12"/>
       <c r="C24" s="4"/>
@@ -2113,7 +2113,7 @@
       <c r="Q24" s="45"/>
       <c r="R24" s="50"/>
     </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A25" s="14"/>
       <c r="B25" s="14"/>
       <c r="C25" s="12"/>
@@ -2133,12 +2133,12 @@
       <c r="Q25" s="12"/>
       <c r="R25" s="12"/>
     </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1">
+    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="51"/>
-      <c r="B26" s="100" t="s">
+      <c r="B26" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="C26" s="101"/>
+      <c r="C26" s="108"/>
       <c r="D26" s="52" t="s">
         <v>21</v>
       </c>
@@ -2157,10 +2157,10 @@
       <c r="I26" s="54"/>
       <c r="J26" s="39"/>
       <c r="K26" s="51"/>
-      <c r="L26" s="100" t="s">
+      <c r="L26" s="107" t="s">
         <v>20</v>
       </c>
-      <c r="M26" s="101"/>
+      <c r="M26" s="108"/>
       <c r="N26" s="52" t="s">
         <v>21</v>
       </c>
@@ -2180,7 +2180,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75">
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A27" s="55" t="s">
         <v>27</v>
       </c>
@@ -2202,14 +2202,14 @@
       <c r="Q27" s="57"/>
       <c r="R27" s="59"/>
     </row>
-    <row r="28" spans="1:19" ht="15.75">
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="B28" s="102" t="s">
+      <c r="B28" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="C28" s="103"/>
+      <c r="C28" s="110"/>
       <c r="D28" s="61" t="s">
         <v>30</v>
       </c>
@@ -2230,10 +2230,10 @@
       <c r="K28" s="60" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="102" t="s">
+      <c r="L28" s="109" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="103"/>
+      <c r="M28" s="110"/>
       <c r="N28" s="61" t="s">
         <v>30</v>
       </c>
@@ -2250,7 +2250,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1">
+    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A29" s="65" t="s">
         <v>1</v>
       </c>
@@ -2272,13 +2272,13 @@
       <c r="Q29" s="57"/>
       <c r="R29" s="59"/>
     </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1">
+    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A30" s="66"/>
-      <c r="B30" s="97" t="s">
+      <c r="B30" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="C30" s="98"/>
-      <c r="D30" s="99"/>
+      <c r="C30" s="105"/>
+      <c r="D30" s="106"/>
       <c r="E30" s="75" t="s">
         <v>36</v>
       </c>
@@ -2292,11 +2292,11 @@
       <c r="I30" s="64"/>
       <c r="J30" s="39"/>
       <c r="K30" s="66"/>
-      <c r="L30" s="97" t="s">
+      <c r="L30" s="104" t="s">
         <v>35</v>
       </c>
-      <c r="M30" s="98"/>
-      <c r="N30" s="99"/>
+      <c r="M30" s="105"/>
+      <c r="N30" s="106"/>
       <c r="O30" s="75" t="s">
         <v>36</v>
       </c>
@@ -2308,7 +2308,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1">
+    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="56"/>
       <c r="B31" s="68"/>
       <c r="C31" s="68"/>
@@ -2328,31 +2328,31 @@
       <c r="Q31" s="64"/>
       <c r="R31" s="64"/>
     </row>
-    <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1">
+    <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
-      <c r="B32" s="104" t="s">
+      <c r="B32" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="C32" s="105"/>
-      <c r="D32" s="105"/>
-      <c r="E32" s="106"/>
+      <c r="C32" s="112"/>
+      <c r="D32" s="112"/>
+      <c r="E32" s="113"/>
       <c r="F32" s="1"/>
       <c r="G32" s="1"/>
       <c r="H32" s="1"/>
       <c r="I32" s="1"/>
       <c r="J32" s="30"/>
       <c r="K32" s="1"/>
-      <c r="L32" s="104" t="s">
+      <c r="L32" s="111" t="s">
         <v>53</v>
       </c>
-      <c r="M32" s="105"/>
-      <c r="N32" s="105"/>
-      <c r="O32" s="106"/>
+      <c r="M32" s="112"/>
+      <c r="N32" s="112"/>
+      <c r="O32" s="113"/>
       <c r="P32" s="1"/>
       <c r="Q32" s="19"/>
       <c r="R32" s="19"/>
     </row>
-    <row r="33" spans="1:18">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A33" s="71"/>
       <c r="B33" s="81"/>
       <c r="C33" s="79" t="s">
@@ -2381,7 +2381,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="74" customFormat="1" ht="15.75">
+    <row r="34" spans="1:18" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A34" s="56" t="s">
         <v>37</v>
       </c>
@@ -2403,7 +2403,7 @@
       <c r="Q34" s="64"/>
       <c r="R34" s="64"/>
     </row>
-    <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1">
+    <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="71"/>
       <c r="B35" s="81" t="s">
         <v>38</v>
@@ -2439,7 +2439,7 @@
       <c r="Q35" s="19"/>
       <c r="R35" s="19"/>
     </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1">
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A36" s="71"/>
       <c r="B36" s="82"/>
       <c r="C36" s="72"/>
@@ -2459,7 +2459,7 @@
       <c r="Q36" s="19"/>
       <c r="R36" s="19"/>
     </row>
-    <row r="37" spans="1:18">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A37" s="16" t="s">
         <v>1</v>
       </c>
@@ -2481,7 +2481,7 @@
       <c r="Q37" s="19"/>
       <c r="R37" s="19"/>
     </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1">
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="16"/>
       <c r="B38" s="17"/>
       <c r="C38" s="17"/>
@@ -2493,17 +2493,17 @@
       <c r="I38" s="19"/>
       <c r="J38" s="28"/>
       <c r="K38" s="16"/>
-      <c r="L38" s="94" t="s">
+      <c r="L38" s="101" t="s">
         <v>47</v>
       </c>
-      <c r="M38" s="95"/>
-      <c r="N38" s="95"/>
-      <c r="O38" s="95"/>
-      <c r="P38" s="95"/>
-      <c r="Q38" s="95"/>
-      <c r="R38" s="95"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1">
+      <c r="M38" s="102"/>
+      <c r="N38" s="102"/>
+      <c r="O38" s="102"/>
+      <c r="P38" s="102"/>
+      <c r="Q38" s="102"/>
+      <c r="R38" s="102"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="16"/>
       <c r="B39" s="17"/>
       <c r="C39" s="17"/>
@@ -2517,15 +2517,15 @@
       <c r="I39" s="19"/>
       <c r="J39" s="28"/>
       <c r="K39" s="16"/>
-      <c r="L39" s="95"/>
-      <c r="M39" s="95"/>
-      <c r="N39" s="95"/>
-      <c r="O39" s="95"/>
-      <c r="P39" s="95"/>
-      <c r="Q39" s="95"/>
-      <c r="R39" s="95"/>
-    </row>
-    <row r="40" spans="1:18">
+      <c r="L39" s="102"/>
+      <c r="M39" s="102"/>
+      <c r="N39" s="102"/>
+      <c r="O39" s="102"/>
+      <c r="P39" s="102"/>
+      <c r="Q39" s="102"/>
+      <c r="R39" s="102"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
         <v>1</v>
       </c>
@@ -2549,14 +2549,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="K2:L2"/>
     <mergeCell ref="L38:R39"/>
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="M19:R19"/>
@@ -2568,6 +2560,14 @@
     <mergeCell ref="L28:M28"/>
     <mergeCell ref="B32:E32"/>
     <mergeCell ref="L32:O32"/>
+    <mergeCell ref="M2:R2"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="M15:R15"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="Q16:R16"/>
+    <mergeCell ref="K12:R12"/>
+    <mergeCell ref="Q3:R4"/>
+    <mergeCell ref="K2:L2"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
   <workbookPr autoCompressPictures="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="113" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -76,9 +81,6 @@
   </si>
   <si>
     <t>Площадь (кв. м):  ${lc.chars_str}</t>
-  </si>
-  <si>
-    <t>Начислено за  ${lc.date}  г. :</t>
   </si>
   <si>
     <t>Вид платежа</t>
@@ -201,9 +203,6 @@
   </si>
   <si>
     <t>К оплате всего :${lc.percent}</t>
-  </si>
-  <si>
-    <t>СЧЕТ-ИЗВЕЩЕНИЕ</t>
   </si>
   <si>
     <r>
@@ -267,6 +266,9 @@
   </si>
   <si>
     <t>${lc.saldo.full_end}</t>
+  </si>
+  <si>
+    <t>СЧЕТ-ИЗВЕЩЕНИЕ           ВНИМАНИЕ! НОВЫЕ БАНКОВСКИЕ РЕКВИЗИТЫ !</t>
   </si>
 </sst>
 </file>
@@ -856,12 +858,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="114">
+  <cellXfs count="134">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyProtection="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyAlignment="1" applyProtection="1">
@@ -880,12 +881,8 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -906,9 +903,7 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -985,7 +980,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
@@ -993,9 +987,6 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -1016,9 +1007,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
@@ -1064,6 +1052,56 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="5" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1073,6 +1111,9 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -1091,6 +1132,9 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -1103,17 +1147,30 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
@@ -1524,17 +1581,17 @@
   </sheetPr>
   <dimension ref="A1:S40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C16" workbookViewId="0">
-      <selection activeCell="Q32" sqref="Q32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="1" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="95" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="95" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" style="95" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="30" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="25" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
@@ -1550,172 +1607,179 @@
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="J1" s="28"/>
+      <c r="B1" s="86"/>
+      <c r="C1" s="86"/>
+      <c r="D1" s="86"/>
+      <c r="E1" s="86"/>
+      <c r="F1" s="86"/>
+      <c r="G1" s="86"/>
+      <c r="H1" s="86"/>
+      <c r="J1" s="23"/>
     </row>
     <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2" s="3"/>
+      <c r="A2" s="86"/>
+      <c r="B2" s="2"/>
       <c r="C2" s="2"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2"/>
-      <c r="G2"/>
-      <c r="H2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="86"/>
+      <c r="G2" s="86"/>
+      <c r="H2" s="86"/>
       <c r="I2"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="100" t="s">
-        <v>50</v>
-      </c>
-      <c r="L2" s="100"/>
-      <c r="M2" s="94" t="s">
-        <v>51</v>
-      </c>
-      <c r="N2" s="95"/>
-      <c r="O2" s="95"/>
-      <c r="P2" s="95"/>
-      <c r="Q2" s="95"/>
-      <c r="R2" s="95"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="L2" s="115"/>
+      <c r="M2" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="N2" s="109"/>
+      <c r="O2" s="109"/>
+      <c r="P2" s="109"/>
+      <c r="Q2" s="109"/>
+      <c r="R2" s="109"/>
     </row>
     <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3" s="3"/>
-      <c r="C3"/>
-      <c r="D3"/>
+      <c r="A3" s="86"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="86"/>
+      <c r="D3" s="86"/>
       <c r="E3" s="2"/>
-      <c r="F3"/>
-      <c r="G3"/>
-      <c r="H3"/>
+      <c r="F3" s="86"/>
+      <c r="G3" s="86"/>
+      <c r="H3" s="86"/>
       <c r="I3"/>
-      <c r="J3" s="28"/>
-      <c r="K3" s="5"/>
-      <c r="L3" s="5"/>
-      <c r="M3" s="86" t="s">
+      <c r="J3" s="23"/>
+      <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
+      <c r="M3" s="78" t="s">
         <v>2</v>
       </c>
-      <c r="N3" s="84"/>
-      <c r="P3" s="87" t="s">
+      <c r="N3" s="76"/>
+      <c r="P3" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q3" s="99" t="s">
+      <c r="Q3" s="114" t="s">
         <v>5</v>
       </c>
-      <c r="R3" s="99"/>
+      <c r="R3" s="114"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4" s="3"/>
-      <c r="C4"/>
-      <c r="D4"/>
+      <c r="A4" s="86"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="86"/>
+      <c r="D4" s="86"/>
       <c r="E4" s="2"/>
-      <c r="F4"/>
-      <c r="G4"/>
-      <c r="H4"/>
+      <c r="F4" s="86"/>
+      <c r="G4" s="86"/>
+      <c r="H4" s="86"/>
       <c r="I4"/>
-      <c r="J4" s="28"/>
-      <c r="K4" s="5"/>
-      <c r="L4" s="5"/>
-      <c r="M4" s="83" t="s">
+      <c r="J4" s="23"/>
+      <c r="K4" s="4"/>
+      <c r="L4" s="4"/>
+      <c r="M4" s="75" t="s">
         <v>4</v>
       </c>
-      <c r="N4" s="84"/>
-      <c r="O4" s="85"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="99"/>
-      <c r="R4" s="99"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="75"/>
+      <c r="Q4" s="114"/>
+      <c r="R4" s="114"/>
     </row>
     <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="2"/>
-      <c r="B5" s="3"/>
-      <c r="C5"/>
-      <c r="D5"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="3"/>
-      <c r="G5"/>
-      <c r="H5"/>
+      <c r="F5" s="2"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
       <c r="I5"/>
-      <c r="J5" s="28"/>
-      <c r="K5" s="5"/>
-      <c r="L5" s="5"/>
-      <c r="M5" s="31" t="s">
+      <c r="J5" s="23"/>
+      <c r="K5" s="4"/>
+      <c r="L5" s="4"/>
+      <c r="M5" s="26" t="s">
         <v>6</v>
       </c>
-      <c r="N5" s="5"/>
-      <c r="O5" s="6"/>
-      <c r="P5" s="7"/>
-      <c r="Q5" s="8" t="s">
+      <c r="N5" s="4"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="6"/>
+      <c r="Q5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="R5" s="9"/>
+      <c r="R5" s="8"/>
     </row>
     <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="3"/>
-      <c r="C6"/>
-      <c r="D6"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="86"/>
+      <c r="D6" s="86"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="3"/>
-      <c r="G6"/>
-      <c r="H6"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="86"/>
+      <c r="H6" s="86"/>
       <c r="I6"/>
-      <c r="J6" s="28"/>
-      <c r="K6" s="4"/>
-      <c r="L6" s="4"/>
-      <c r="M6" s="32" t="s">
+      <c r="J6" s="23"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="27" t="s">
         <v>8</v>
       </c>
-      <c r="N6" s="32"/>
-      <c r="O6" s="32"/>
-      <c r="P6" s="32"/>
-      <c r="Q6" s="32"/>
-      <c r="R6" s="33" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27"/>
+      <c r="Q6" s="27"/>
+      <c r="R6" s="28" t="s">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7"/>
-      <c r="C7"/>
-      <c r="D7"/>
+      <c r="B7" s="86"/>
+      <c r="C7" s="86"/>
+      <c r="D7" s="86"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="3"/>
-      <c r="G7"/>
-      <c r="H7"/>
+      <c r="F7" s="2"/>
+      <c r="G7" s="86"/>
+      <c r="H7" s="86"/>
       <c r="I7"/>
-      <c r="J7" s="28"/>
-      <c r="K7" s="4"/>
-      <c r="L7" s="4"/>
-      <c r="M7" s="32" t="s">
+      <c r="J7" s="23"/>
+      <c r="K7" s="3"/>
+      <c r="L7" s="3"/>
+      <c r="M7" s="27" t="s">
         <v>10</v>
       </c>
-      <c r="N7" s="32"/>
-      <c r="O7" s="32"/>
-      <c r="P7" s="32"/>
-      <c r="Q7" s="32"/>
-      <c r="R7" s="34" t="s">
-        <v>42</v>
+      <c r="N7" s="27"/>
+      <c r="O7" s="27"/>
+      <c r="P7" s="27"/>
+      <c r="Q7" s="27"/>
+      <c r="R7" s="29" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8"/>
-      <c r="C8" s="10"/>
-      <c r="D8"/>
+      <c r="B8" s="86"/>
+      <c r="C8" s="87"/>
+      <c r="D8" s="86"/>
       <c r="E8" s="2"/>
-      <c r="F8"/>
-      <c r="G8"/>
-      <c r="H8"/>
+      <c r="F8" s="86"/>
+      <c r="G8" s="86"/>
+      <c r="H8" s="86"/>
       <c r="I8"/>
-      <c r="J8" s="28"/>
-      <c r="K8" s="4"/>
-      <c r="L8" s="4"/>
-      <c r="M8" s="32" t="s">
+      <c r="J8" s="23"/>
+      <c r="K8" s="3"/>
+      <c r="L8" s="3"/>
+      <c r="M8" s="27" t="s">
         <v>11</v>
       </c>
-      <c r="N8" s="32"/>
-      <c r="O8" s="32"/>
-      <c r="P8" s="32"/>
-      <c r="Q8" s="32"/>
-      <c r="R8" s="34" t="s">
+      <c r="N8" s="27"/>
+      <c r="O8" s="27"/>
+      <c r="P8" s="27"/>
+      <c r="Q8" s="27"/>
+      <c r="R8" s="29" t="s">
         <v>12</v>
       </c>
     </row>
@@ -1725,22 +1789,22 @@
       <c r="C9" s="2"/>
       <c r="D9" s="2"/>
       <c r="E9" s="2"/>
-      <c r="F9"/>
-      <c r="G9" s="10"/>
-      <c r="H9"/>
+      <c r="F9" s="86"/>
+      <c r="G9" s="87"/>
+      <c r="H9" s="86"/>
       <c r="I9"/>
-      <c r="J9" s="28"/>
-      <c r="K9" s="4"/>
-      <c r="L9" s="4"/>
-      <c r="M9" s="32" t="s">
-        <v>49</v>
-      </c>
-      <c r="N9" s="32"/>
-      <c r="O9" s="32"/>
-      <c r="P9" s="32"/>
-      <c r="Q9" s="32"/>
-      <c r="R9" s="35" t="s">
-        <v>59</v>
+      <c r="J9" s="23"/>
+      <c r="K9" s="3"/>
+      <c r="L9" s="3"/>
+      <c r="M9" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9" s="27"/>
+      <c r="O9" s="27"/>
+      <c r="P9" s="27"/>
+      <c r="Q9" s="27"/>
+      <c r="R9" s="30" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1749,19 +1813,19 @@
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10"/>
-      <c r="G10" s="10"/>
-      <c r="H10"/>
+      <c r="F10" s="86"/>
+      <c r="G10" s="87"/>
+      <c r="H10" s="86"/>
       <c r="I10"/>
-      <c r="J10" s="28"/>
-      <c r="K10" s="4"/>
-      <c r="L10" s="4"/>
-      <c r="M10" s="4"/>
-      <c r="N10" s="4"/>
-      <c r="O10" s="4"/>
-      <c r="P10" s="4"/>
-      <c r="Q10" s="4"/>
-      <c r="R10" s="21"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="18"/>
     </row>
     <row r="11" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
@@ -1769,21 +1833,21 @@
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11"/>
-      <c r="G11" s="10"/>
-      <c r="H11"/>
+      <c r="F11" s="86"/>
+      <c r="G11" s="87"/>
+      <c r="H11" s="86"/>
       <c r="I11"/>
-      <c r="J11" s="28"/>
-      <c r="K11" s="4"/>
-      <c r="L11" s="4"/>
-      <c r="M11" s="93" t="s">
-        <v>58</v>
-      </c>
-      <c r="N11" s="4"/>
-      <c r="O11" s="4"/>
-      <c r="P11" s="4"/>
-      <c r="Q11" s="4"/>
-      <c r="R11" s="21"/>
+      <c r="J11" s="23"/>
+      <c r="K11" s="3"/>
+      <c r="L11" s="3"/>
+      <c r="M11" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="N11" s="3"/>
+      <c r="O11" s="3"/>
+      <c r="P11" s="3"/>
+      <c r="Q11" s="3"/>
+      <c r="R11" s="18"/>
     </row>
     <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
@@ -1791,761 +1855,679 @@
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12"/>
-      <c r="G12" s="10"/>
-      <c r="H12"/>
+      <c r="F12" s="86"/>
+      <c r="G12" s="87"/>
+      <c r="H12" s="86"/>
       <c r="I12"/>
-      <c r="J12" s="28"/>
-      <c r="K12" s="98" t="s">
-        <v>54</v>
-      </c>
-      <c r="L12" s="98"/>
-      <c r="M12" s="98"/>
-      <c r="N12" s="98"/>
-      <c r="O12" s="98"/>
-      <c r="P12" s="98"/>
-      <c r="Q12" s="98"/>
-      <c r="R12" s="98"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="L12" s="113"/>
+      <c r="M12" s="113"/>
+      <c r="N12" s="113"/>
+      <c r="O12" s="113"/>
+      <c r="P12" s="113"/>
+      <c r="Q12" s="113"/>
+      <c r="R12" s="113"/>
     </row>
     <row r="13" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="4"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="12"/>
-      <c r="G13" s="10"/>
-      <c r="H13"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="88"/>
+      <c r="E13" s="88"/>
+      <c r="F13" s="89"/>
+      <c r="G13" s="87"/>
+      <c r="H13" s="86"/>
       <c r="I13"/>
-      <c r="J13" s="28"/>
-      <c r="K13" s="4"/>
-      <c r="L13" s="4" t="s">
+      <c r="J13" s="23"/>
+      <c r="K13" s="3"/>
+      <c r="L13" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N13" s="3"/>
+      <c r="O13" s="3" t="s">
         <v>43</v>
       </c>
-      <c r="N13" s="4"/>
-      <c r="O13" s="4" t="s">
+      <c r="Q13" s="3"/>
+      <c r="R13" s="18"/>
+    </row>
+    <row r="14" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="2"/>
+      <c r="D14" s="2"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="86"/>
+      <c r="G14" s="87"/>
+      <c r="H14" s="86"/>
+      <c r="I14" s="19"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="20"/>
+      <c r="L14" s="20"/>
+      <c r="M14" s="20"/>
+      <c r="N14" s="20"/>
+      <c r="O14" s="20"/>
+      <c r="P14" s="20"/>
+      <c r="Q14" s="20"/>
+      <c r="R14" s="21"/>
+    </row>
+    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A15" s="90"/>
+      <c r="B15" s="90"/>
+      <c r="C15" s="110"/>
+      <c r="D15" s="110"/>
+      <c r="E15" s="110"/>
+      <c r="F15" s="110"/>
+      <c r="G15" s="110"/>
+      <c r="H15" s="110"/>
+      <c r="I15" s="17"/>
+      <c r="J15" s="23"/>
+      <c r="K15" s="9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" s="9"/>
+      <c r="M15" s="110" t="s">
+        <v>50</v>
+      </c>
+      <c r="N15" s="110"/>
+      <c r="O15" s="110"/>
+      <c r="P15" s="110"/>
+      <c r="Q15" s="110"/>
+      <c r="R15" s="110"/>
+    </row>
+    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="91"/>
+      <c r="B16" s="91"/>
+      <c r="C16" s="92"/>
+      <c r="D16" s="92"/>
+      <c r="E16" s="92"/>
+      <c r="F16" s="93"/>
+      <c r="G16" s="111"/>
+      <c r="H16" s="111"/>
+      <c r="I16" s="33"/>
+      <c r="J16" s="34"/>
+      <c r="K16" s="35"/>
+      <c r="L16" s="35"/>
+      <c r="M16" s="31" t="s">
+        <v>14</v>
+      </c>
+      <c r="N16" s="31"/>
+      <c r="O16" s="31"/>
+      <c r="P16" s="32" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="R16" s="112"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="89"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="94"/>
+      <c r="D17" s="94"/>
+      <c r="E17" s="94"/>
+      <c r="F17" s="94"/>
+      <c r="G17" s="94"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="38"/>
+      <c r="L17" s="38"/>
+      <c r="M17" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="N17" s="36"/>
+      <c r="O17" s="36"/>
+      <c r="P17" s="36"/>
+      <c r="Q17" s="36"/>
+    </row>
+    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="89"/>
+      <c r="B18" s="89"/>
+      <c r="C18" s="94"/>
+      <c r="D18" s="94"/>
+      <c r="E18" s="94"/>
+      <c r="F18" s="94"/>
+      <c r="G18" s="94"/>
+      <c r="H18" s="96"/>
+      <c r="I18" s="37"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="38"/>
+      <c r="L18" s="38"/>
+      <c r="M18" s="36"/>
+      <c r="N18" s="36"/>
+      <c r="O18" s="36"/>
+      <c r="P18" s="36"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="89"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="118"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="118"/>
+      <c r="F19" s="118"/>
+      <c r="G19" s="118"/>
+      <c r="H19" s="118"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="38"/>
+      <c r="L19" s="38"/>
+      <c r="M19" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="N19" s="119"/>
+      <c r="O19" s="119"/>
+      <c r="P19" s="119"/>
+      <c r="Q19" s="119"/>
+      <c r="R19" s="119"/>
+    </row>
+    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="89"/>
+      <c r="B20" s="89"/>
+      <c r="C20" s="52"/>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="52"/>
+      <c r="G20" s="97"/>
+      <c r="H20" s="42"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="34"/>
+      <c r="K20" s="38"/>
+      <c r="L20" s="38"/>
+      <c r="M20" s="38" t="s">
+        <v>8</v>
+      </c>
+      <c r="N20" s="38"/>
+      <c r="O20" s="38"/>
+      <c r="P20" s="38"/>
+      <c r="Q20" s="40"/>
+      <c r="R20" s="41" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="89"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="52"/>
+      <c r="D21" s="52"/>
+      <c r="E21" s="52"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="97"/>
+      <c r="H21" s="42"/>
+      <c r="I21" s="42"/>
+      <c r="J21" s="34"/>
+      <c r="K21" s="38"/>
+      <c r="L21" s="38"/>
+      <c r="M21" s="38" t="s">
+        <v>10</v>
+      </c>
+      <c r="N21" s="38"/>
+      <c r="O21" s="38"/>
+      <c r="P21" s="38"/>
+      <c r="Q21" s="40"/>
+      <c r="R21" s="43" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="89"/>
+      <c r="B22" s="89"/>
+      <c r="C22" s="52"/>
+      <c r="D22" s="52"/>
+      <c r="E22" s="52"/>
+      <c r="F22" s="52"/>
+      <c r="G22" s="97"/>
+      <c r="H22" s="42"/>
+      <c r="I22" s="42"/>
+      <c r="J22" s="34"/>
+      <c r="K22" s="38"/>
+      <c r="L22" s="38"/>
+      <c r="M22" s="38" t="s">
+        <v>11</v>
+      </c>
+      <c r="N22" s="38"/>
+      <c r="O22" s="38"/>
+      <c r="P22" s="38"/>
+      <c r="Q22" s="40"/>
+      <c r="R22" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A23" s="89"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="52"/>
+      <c r="D23" s="52"/>
+      <c r="E23" s="52"/>
+      <c r="F23" s="52"/>
+      <c r="G23" s="97"/>
+      <c r="H23" s="45"/>
+      <c r="I23" s="45"/>
+      <c r="J23" s="34"/>
+      <c r="K23" s="38"/>
+      <c r="L23" s="38"/>
+      <c r="M23" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N23" s="38"/>
+      <c r="O23" s="38"/>
+      <c r="P23" s="38"/>
+      <c r="Q23" s="40"/>
+      <c r="R23" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="89"/>
+      <c r="B24" s="89"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="88"/>
+      <c r="E24" s="88"/>
+      <c r="F24" s="89"/>
+      <c r="G24" s="97"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="45"/>
+      <c r="J24" s="34"/>
+      <c r="K24" s="38"/>
+      <c r="L24" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N24" s="3"/>
+      <c r="O24" s="10" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="45"/>
+    </row>
+    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A25" s="13"/>
+      <c r="B25" s="13"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="98"/>
+      <c r="E25" s="98"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="89"/>
+      <c r="H25" s="89"/>
+      <c r="I25" s="10"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="11"/>
+      <c r="L25" s="11"/>
+      <c r="M25" s="10"/>
+      <c r="N25" s="12"/>
+      <c r="O25" s="12"/>
+      <c r="P25" s="10"/>
+      <c r="Q25" s="10"/>
+      <c r="R25" s="10"/>
+    </row>
+    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="52"/>
+      <c r="B26" s="124"/>
+      <c r="C26" s="124"/>
+      <c r="D26" s="99"/>
+      <c r="E26" s="99"/>
+      <c r="F26" s="99"/>
+      <c r="G26" s="99"/>
+      <c r="H26" s="49"/>
+      <c r="I26" s="49"/>
+      <c r="J26" s="34"/>
+      <c r="K26" s="46"/>
+      <c r="L26" s="125" t="s">
+        <v>19</v>
+      </c>
+      <c r="M26" s="126"/>
+      <c r="N26" s="47" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="47" t="s">
+        <v>21</v>
+      </c>
+      <c r="P26" s="47" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q26" s="47" t="s">
+        <v>23</v>
+      </c>
+      <c r="R26" s="48" t="s">
+        <v>24</v>
+      </c>
+      <c r="S26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="B27" s="51"/>
+      <c r="C27" s="52"/>
+      <c r="D27" s="53"/>
+      <c r="E27" s="53"/>
+      <c r="F27" s="52"/>
+      <c r="G27" s="52"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="52"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="50"/>
+      <c r="L27" s="51"/>
+      <c r="M27" s="52"/>
+      <c r="N27" s="53"/>
+      <c r="O27" s="53"/>
+      <c r="P27" s="52"/>
+      <c r="Q27" s="52"/>
+      <c r="R27" s="54"/>
+    </row>
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="100"/>
+      <c r="B28" s="127"/>
+      <c r="C28" s="127"/>
+      <c r="D28" s="101"/>
+      <c r="E28" s="101"/>
+      <c r="F28" s="52"/>
+      <c r="G28" s="52"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L28" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="M28" s="129"/>
+      <c r="N28" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O28" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P28" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q28" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R28" s="58" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A29" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29" s="51"/>
+      <c r="C29" s="52"/>
+      <c r="D29" s="53"/>
+      <c r="E29" s="53"/>
+      <c r="F29" s="52"/>
+      <c r="G29" s="52"/>
+      <c r="H29" s="52"/>
+      <c r="I29" s="52"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="50"/>
+      <c r="L29" s="51"/>
+      <c r="M29" s="52"/>
+      <c r="N29" s="53"/>
+      <c r="O29" s="53"/>
+      <c r="P29" s="52"/>
+      <c r="Q29" s="52"/>
+      <c r="R29" s="54"/>
+    </row>
+    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="51"/>
+      <c r="B30" s="123"/>
+      <c r="C30" s="123"/>
+      <c r="D30" s="123"/>
+      <c r="E30" s="103"/>
+      <c r="F30" s="59"/>
+      <c r="G30" s="104"/>
+      <c r="H30" s="104"/>
+      <c r="I30" s="59"/>
+      <c r="J30" s="34"/>
+      <c r="K30" s="60"/>
+      <c r="L30" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="M30" s="121"/>
+      <c r="N30" s="122"/>
+      <c r="O30" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P30" s="61"/>
+      <c r="Q30" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="R30" s="69" t="s">
         <v>44</v>
       </c>
-      <c r="Q13" s="4"/>
-      <c r="R13" s="21"/>
-    </row>
-    <row r="14" spans="1:18" s="27" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="22"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="22"/>
-      <c r="E14" s="22"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="29"/>
-      <c r="K14" s="25"/>
-      <c r="L14" s="25"/>
-      <c r="M14" s="25"/>
-      <c r="N14" s="25"/>
-      <c r="O14" s="25"/>
-      <c r="P14" s="25"/>
-      <c r="Q14" s="25"/>
-      <c r="R14" s="26"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B15" s="11"/>
-      <c r="C15" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="D15" s="96"/>
-      <c r="E15" s="96"/>
-      <c r="F15" s="96"/>
-      <c r="G15" s="96"/>
-      <c r="H15" s="96"/>
-      <c r="I15" s="20"/>
-      <c r="J15" s="28"/>
-      <c r="K15" s="11" t="s">
-        <v>13</v>
-      </c>
-      <c r="L15" s="11"/>
-      <c r="M15" s="96" t="s">
-        <v>52</v>
-      </c>
-      <c r="N15" s="96"/>
-      <c r="O15" s="96"/>
-      <c r="P15" s="96"/>
-      <c r="Q15" s="96"/>
-      <c r="R15" s="96"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="13"/>
-      <c r="B16" s="13"/>
-      <c r="C16" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="D16" s="36"/>
-      <c r="E16" s="36"/>
-      <c r="F16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="H16" s="97"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="39"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40"/>
-      <c r="M16" s="36" t="s">
-        <v>14</v>
-      </c>
-      <c r="N16" s="36"/>
-      <c r="O16" s="36"/>
-      <c r="P16" s="37" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="97" t="s">
-        <v>5</v>
-      </c>
-      <c r="R16" s="97"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="12"/>
-      <c r="B17" s="12"/>
-      <c r="C17" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="43"/>
-      <c r="L17" s="43"/>
-      <c r="M17" s="41" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="41"/>
-      <c r="O17" s="41"/>
-      <c r="P17" s="41"/>
-      <c r="Q17" s="41"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="12"/>
-      <c r="B18" s="12"/>
-      <c r="C18" s="41"/>
-      <c r="D18" s="41"/>
-      <c r="E18" s="41"/>
-      <c r="F18" s="41"/>
-      <c r="G18" s="41"/>
-      <c r="H18" s="42" t="s">
-        <v>17</v>
-      </c>
-      <c r="I18" s="42"/>
-      <c r="J18" s="39"/>
-      <c r="K18" s="43"/>
-      <c r="L18" s="43"/>
-      <c r="M18" s="41"/>
-      <c r="N18" s="41"/>
-      <c r="O18" s="41"/>
-      <c r="P18" s="41"/>
-      <c r="Q18" s="41"/>
-      <c r="R18" s="42" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="12"/>
-      <c r="B19" s="12"/>
-      <c r="C19" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="103"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="103"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="44"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="43"/>
-      <c r="L19" s="43"/>
-      <c r="M19" s="103" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="103"/>
-      <c r="O19" s="103"/>
-      <c r="P19" s="103"/>
-      <c r="Q19" s="103"/>
-      <c r="R19" s="103"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A20" s="12"/>
-      <c r="B20" s="12"/>
-      <c r="C20" s="43" t="s">
-        <v>19</v>
-      </c>
-      <c r="D20" s="43"/>
-      <c r="E20" s="43"/>
-      <c r="F20" s="43"/>
-      <c r="G20" s="45"/>
-      <c r="H20" s="46" t="s">
-        <v>9</v>
-      </c>
-      <c r="I20" s="47"/>
-      <c r="J20" s="39"/>
-      <c r="K20" s="43"/>
-      <c r="L20" s="43"/>
-      <c r="M20" s="43" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="43"/>
-      <c r="O20" s="43"/>
-      <c r="P20" s="43"/>
-      <c r="Q20" s="45"/>
-      <c r="R20" s="46" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="12"/>
-      <c r="B21" s="12"/>
-      <c r="C21" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="D21" s="43"/>
-      <c r="E21" s="43"/>
-      <c r="F21" s="43"/>
-      <c r="G21" s="45"/>
-      <c r="H21" s="48" t="s">
-        <v>42</v>
-      </c>
-      <c r="I21" s="47"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="43"/>
-      <c r="L21" s="43"/>
-      <c r="M21" s="43" t="s">
-        <v>10</v>
-      </c>
-      <c r="N21" s="43"/>
-      <c r="O21" s="43"/>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="45"/>
-      <c r="R21" s="48" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="12"/>
-      <c r="B22" s="12"/>
-      <c r="C22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="D22" s="43"/>
-      <c r="E22" s="43"/>
-      <c r="F22" s="43"/>
-      <c r="G22" s="45"/>
-      <c r="H22" s="48" t="s">
-        <v>12</v>
-      </c>
-      <c r="I22" s="47"/>
-      <c r="J22" s="39"/>
-      <c r="K22" s="43"/>
-      <c r="L22" s="43"/>
-      <c r="M22" s="43" t="s">
-        <v>11</v>
-      </c>
-      <c r="N22" s="43"/>
-      <c r="O22" s="43"/>
-      <c r="P22" s="43"/>
-      <c r="Q22" s="45"/>
-      <c r="R22" s="48" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="12"/>
-      <c r="B23" s="12"/>
-      <c r="C23" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="43"/>
-      <c r="G23" s="45"/>
-      <c r="H23" s="49" t="s">
-        <v>59</v>
-      </c>
-      <c r="I23" s="50"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="43"/>
-      <c r="L23" s="43"/>
-      <c r="M23" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="45"/>
-      <c r="R23" s="49" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="12"/>
-      <c r="B24" s="12"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="4"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="12"/>
-      <c r="G24" s="45"/>
-      <c r="H24" s="50"/>
-      <c r="I24" s="50"/>
-      <c r="J24" s="39"/>
-      <c r="K24" s="43"/>
-      <c r="L24" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="N24" s="4"/>
-      <c r="O24" s="12" t="s">
-        <v>44</v>
-      </c>
-      <c r="Q24" s="45"/>
-      <c r="R24" s="50"/>
-    </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="14"/>
-      <c r="B25" s="14"/>
-      <c r="C25" s="12"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="F25" s="12"/>
-      <c r="G25" s="12"/>
-      <c r="H25" s="12"/>
-      <c r="I25" s="12"/>
-      <c r="J25" s="28"/>
-      <c r="K25" s="14"/>
-      <c r="L25" s="14"/>
-      <c r="M25" s="12"/>
-      <c r="N25" s="15"/>
-      <c r="O25" s="15"/>
-      <c r="P25" s="12"/>
-      <c r="Q25" s="12"/>
-      <c r="R25" s="12"/>
-    </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="51"/>
-      <c r="B26" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="C26" s="108"/>
-      <c r="D26" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="F26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="G26" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="H26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="I26" s="54"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="51"/>
-      <c r="L26" s="107" t="s">
-        <v>20</v>
-      </c>
-      <c r="M26" s="108"/>
-      <c r="N26" s="52" t="s">
-        <v>21</v>
-      </c>
-      <c r="O26" s="52" t="s">
-        <v>22</v>
-      </c>
-      <c r="P26" s="52" t="s">
-        <v>23</v>
-      </c>
-      <c r="Q26" s="52" t="s">
-        <v>24</v>
-      </c>
-      <c r="R26" s="53" t="s">
-        <v>25</v>
-      </c>
-      <c r="S26" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="B27" s="56"/>
-      <c r="C27" s="57"/>
-      <c r="D27" s="58"/>
-      <c r="E27" s="58"/>
-      <c r="F27" s="57"/>
-      <c r="G27" s="57"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="57"/>
-      <c r="J27" s="39"/>
-      <c r="K27" s="55"/>
-      <c r="L27" s="56"/>
-      <c r="M27" s="57"/>
-      <c r="N27" s="58"/>
-      <c r="O27" s="58"/>
-      <c r="P27" s="57"/>
-      <c r="Q27" s="57"/>
-      <c r="R27" s="59"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="B28" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="C28" s="110"/>
-      <c r="D28" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="E28" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="F28" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="G28" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="H28" s="63" t="s">
-        <v>34</v>
-      </c>
-      <c r="I28" s="64"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="60" t="s">
-        <v>28</v>
-      </c>
-      <c r="L28" s="109" t="s">
-        <v>29</v>
-      </c>
-      <c r="M28" s="110"/>
-      <c r="N28" s="61" t="s">
-        <v>30</v>
-      </c>
-      <c r="O28" s="61" t="s">
-        <v>31</v>
-      </c>
-      <c r="P28" s="62" t="s">
-        <v>32</v>
-      </c>
-      <c r="Q28" s="62" t="s">
-        <v>33</v>
-      </c>
-      <c r="R28" s="63" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="65" t="s">
+    </row>
+    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="51"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="62"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="53"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
+      <c r="J31" s="34"/>
+      <c r="K31" s="51"/>
+      <c r="L31" s="62"/>
+      <c r="M31" s="62"/>
+      <c r="N31" s="62"/>
+      <c r="O31" s="53"/>
+      <c r="P31" s="59"/>
+      <c r="Q31" s="59"/>
+      <c r="R31" s="59"/>
+    </row>
+    <row r="32" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="95"/>
+      <c r="B32" s="130"/>
+      <c r="C32" s="130"/>
+      <c r="D32" s="130"/>
+      <c r="E32" s="130"/>
+      <c r="F32" s="95"/>
+      <c r="G32" s="95"/>
+      <c r="H32" s="95"/>
+      <c r="I32" s="1"/>
+      <c r="J32" s="25"/>
+      <c r="K32" s="1"/>
+      <c r="L32" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="M32" s="132"/>
+      <c r="N32" s="132"/>
+      <c r="O32" s="133"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="16"/>
+      <c r="R32" s="16"/>
+    </row>
+    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A33" s="64"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="105"/>
+      <c r="D33" s="105"/>
+      <c r="E33" s="106"/>
+      <c r="F33" s="16"/>
+      <c r="G33" s="16"/>
+      <c r="H33" s="16"/>
+      <c r="I33" s="16"/>
+      <c r="J33" s="66"/>
+      <c r="K33" s="64"/>
+      <c r="L33" s="73"/>
+      <c r="M33" s="71" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="71" t="s">
+        <v>54</v>
+      </c>
+      <c r="O33" s="72" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="B34" s="63"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="63"/>
+      <c r="E34" s="101"/>
+      <c r="F34" s="59"/>
+      <c r="G34" s="59"/>
+      <c r="H34" s="59"/>
+      <c r="I34" s="59"/>
+      <c r="J34" s="34"/>
+      <c r="K34" s="51"/>
+      <c r="L34" s="82"/>
+      <c r="M34" s="83"/>
+      <c r="N34" s="83"/>
+      <c r="O34" s="84"/>
+      <c r="P34" s="59"/>
+      <c r="Q34" s="59"/>
+      <c r="R34" s="59"/>
+    </row>
+    <row r="35" spans="1:18" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="64"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="105"/>
+      <c r="D35" s="105"/>
+      <c r="E35" s="106"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="16"/>
+      <c r="J35" s="66"/>
+      <c r="K35" s="64"/>
+      <c r="L35" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M35" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="N35" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O35" s="72" t="s">
+        <v>40</v>
+      </c>
+      <c r="P35" s="16"/>
+      <c r="Q35" s="16"/>
+      <c r="R35" s="16"/>
+    </row>
+    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="64"/>
+      <c r="B36" s="91"/>
+      <c r="C36" s="107"/>
+      <c r="D36" s="107"/>
+      <c r="E36" s="91"/>
+      <c r="F36" s="16"/>
+      <c r="G36" s="16"/>
+      <c r="H36" s="16"/>
+      <c r="I36" s="16"/>
+      <c r="J36" s="66"/>
+      <c r="K36" s="64"/>
+      <c r="L36" s="74"/>
+      <c r="M36" s="65"/>
+      <c r="N36" s="65"/>
+      <c r="O36" s="70"/>
+      <c r="P36" s="16"/>
+      <c r="Q36" s="16"/>
+      <c r="R36" s="16"/>
+    </row>
+    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A37" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="B29" s="56"/>
-      <c r="C29" s="57"/>
-      <c r="D29" s="58"/>
-      <c r="E29" s="58"/>
-      <c r="F29" s="57"/>
-      <c r="G29" s="57"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="57"/>
-      <c r="J29" s="39"/>
-      <c r="K29" s="55"/>
-      <c r="L29" s="56"/>
-      <c r="M29" s="57"/>
-      <c r="N29" s="58"/>
-      <c r="O29" s="58"/>
-      <c r="P29" s="57"/>
-      <c r="Q29" s="57"/>
-      <c r="R29" s="59"/>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="66"/>
-      <c r="B30" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="C30" s="105"/>
-      <c r="D30" s="106"/>
-      <c r="E30" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="F30" s="67"/>
-      <c r="G30" s="76" t="s">
+      <c r="B37" s="14"/>
+      <c r="C37" s="14"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="16"/>
+      <c r="G37" s="16"/>
+      <c r="H37" s="16"/>
+      <c r="I37" s="16"/>
+      <c r="J37" s="23"/>
+      <c r="K37" s="13"/>
+      <c r="L37" s="14"/>
+      <c r="M37" s="14"/>
+      <c r="N37" s="14"/>
+      <c r="O37" s="15"/>
+      <c r="P37" s="16"/>
+      <c r="Q37" s="16"/>
+      <c r="R37" s="16"/>
+    </row>
+    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="13"/>
+      <c r="B38" s="14"/>
+      <c r="C38" s="14"/>
+      <c r="D38" s="14"/>
+      <c r="E38" s="15"/>
+      <c r="F38" s="16"/>
+      <c r="G38" s="16"/>
+      <c r="H38" s="16"/>
+      <c r="I38" s="16"/>
+      <c r="J38" s="23"/>
+      <c r="K38" s="13"/>
+      <c r="L38" s="116" t="s">
         <v>46</v>
       </c>
-      <c r="H30" s="76" t="s">
-        <v>45</v>
-      </c>
-      <c r="I30" s="64"/>
-      <c r="J30" s="39"/>
-      <c r="K30" s="66"/>
-      <c r="L30" s="104" t="s">
-        <v>35</v>
-      </c>
-      <c r="M30" s="105"/>
-      <c r="N30" s="106"/>
-      <c r="O30" s="75" t="s">
-        <v>36</v>
-      </c>
-      <c r="P30" s="67"/>
-      <c r="Q30" s="76" t="s">
-        <v>46</v>
-      </c>
-      <c r="R30" s="76" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="56"/>
-      <c r="B31" s="68"/>
-      <c r="C31" s="68"/>
-      <c r="D31" s="68"/>
-      <c r="E31" s="58"/>
-      <c r="F31" s="64"/>
-      <c r="G31" s="64"/>
-      <c r="H31" s="64"/>
-      <c r="I31" s="64"/>
-      <c r="J31" s="39"/>
-      <c r="K31" s="56"/>
-      <c r="L31" s="68"/>
-      <c r="M31" s="68"/>
-      <c r="N31" s="68"/>
-      <c r="O31" s="58"/>
-      <c r="P31" s="64"/>
-      <c r="Q31" s="64"/>
-      <c r="R31" s="64"/>
-    </row>
-    <row r="32" spans="1:19" s="74" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="1"/>
-      <c r="B32" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="C32" s="112"/>
-      <c r="D32" s="112"/>
-      <c r="E32" s="113"/>
-      <c r="F32" s="1"/>
-      <c r="G32" s="1"/>
-      <c r="H32" s="1"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="30"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="111" t="s">
-        <v>53</v>
-      </c>
-      <c r="M32" s="112"/>
-      <c r="N32" s="112"/>
-      <c r="O32" s="113"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="19"/>
-      <c r="R32" s="19"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="71"/>
-      <c r="B33" s="81"/>
-      <c r="C33" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="E33" s="80" t="s">
-        <v>57</v>
-      </c>
-      <c r="F33" s="19"/>
-      <c r="G33" s="19"/>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="73"/>
-      <c r="K33" s="71"/>
-      <c r="L33" s="81"/>
-      <c r="M33" s="79" t="s">
-        <v>55</v>
-      </c>
-      <c r="N33" s="79" t="s">
-        <v>56</v>
-      </c>
-      <c r="O33" s="80" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="34" spans="1:18" s="74" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="56" t="s">
-        <v>37</v>
-      </c>
-      <c r="B34" s="69"/>
-      <c r="C34" s="70"/>
-      <c r="D34" s="70"/>
-      <c r="E34" s="78"/>
-      <c r="F34" s="64"/>
-      <c r="G34" s="64"/>
-      <c r="H34" s="64"/>
-      <c r="I34" s="64"/>
-      <c r="J34" s="39"/>
-      <c r="K34" s="56"/>
-      <c r="L34" s="90"/>
-      <c r="M34" s="91"/>
-      <c r="N34" s="91"/>
-      <c r="O34" s="92"/>
-      <c r="P34" s="64"/>
-      <c r="Q34" s="64"/>
-      <c r="R34" s="64"/>
-    </row>
-    <row r="35" spans="1:18" s="74" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="71"/>
-      <c r="B35" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="C35" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="D35" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="F35" s="19"/>
-      <c r="G35" s="19"/>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="73"/>
-      <c r="K35" s="71"/>
-      <c r="L35" s="81" t="s">
-        <v>38</v>
-      </c>
-      <c r="M35" s="79" t="s">
-        <v>39</v>
-      </c>
-      <c r="N35" s="79" t="s">
-        <v>40</v>
-      </c>
-      <c r="O35" s="80" t="s">
-        <v>41</v>
-      </c>
-      <c r="P35" s="19"/>
-      <c r="Q35" s="19"/>
-      <c r="R35" s="19"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="71"/>
-      <c r="B36" s="82"/>
-      <c r="C36" s="72"/>
-      <c r="D36" s="72"/>
-      <c r="E36" s="77"/>
-      <c r="F36" s="19"/>
-      <c r="G36" s="19"/>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="73"/>
-      <c r="K36" s="71"/>
-      <c r="L36" s="82"/>
-      <c r="M36" s="72"/>
-      <c r="N36" s="72"/>
-      <c r="O36" s="77"/>
-      <c r="P36" s="19"/>
-      <c r="Q36" s="19"/>
-      <c r="R36" s="19"/>
-    </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="16" t="s">
+      <c r="M38" s="117"/>
+      <c r="N38" s="117"/>
+      <c r="O38" s="117"/>
+      <c r="P38" s="117"/>
+      <c r="Q38" s="117"/>
+      <c r="R38" s="117"/>
+    </row>
+    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="13"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="14"/>
+      <c r="D39" s="81" t="s">
+        <v>47</v>
+      </c>
+      <c r="E39" s="15"/>
+      <c r="F39" s="16"/>
+      <c r="G39" s="16"/>
+      <c r="H39" s="16"/>
+      <c r="I39" s="16"/>
+      <c r="J39" s="23"/>
+      <c r="K39" s="13"/>
+      <c r="L39" s="117"/>
+      <c r="M39" s="117"/>
+      <c r="N39" s="117"/>
+      <c r="O39" s="117"/>
+      <c r="P39" s="117"/>
+      <c r="Q39" s="117"/>
+      <c r="R39" s="117"/>
+    </row>
+    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A40" s="86" t="s">
         <v>1</v>
       </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="17"/>
-      <c r="D37" s="17"/>
-      <c r="E37" s="18"/>
-      <c r="F37" s="19"/>
-      <c r="G37" s="19"/>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="28"/>
-      <c r="K37" s="16"/>
-      <c r="L37" s="17"/>
-      <c r="M37" s="17"/>
-      <c r="N37" s="17"/>
-      <c r="O37" s="18"/>
-      <c r="P37" s="19"/>
-      <c r="Q37" s="19"/>
-      <c r="R37" s="19"/>
-    </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="16"/>
-      <c r="B38" s="17"/>
-      <c r="C38" s="17"/>
-      <c r="D38" s="17"/>
-      <c r="E38" s="18"/>
-      <c r="F38" s="19"/>
-      <c r="G38" s="19"/>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="28"/>
-      <c r="K38" s="16"/>
-      <c r="L38" s="101" t="s">
-        <v>47</v>
-      </c>
-      <c r="M38" s="102"/>
-      <c r="N38" s="102"/>
-      <c r="O38" s="102"/>
-      <c r="P38" s="102"/>
-      <c r="Q38" s="102"/>
-      <c r="R38" s="102"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A39" s="16"/>
-      <c r="B39" s="17"/>
-      <c r="C39" s="17"/>
-      <c r="D39" s="89" t="s">
-        <v>48</v>
-      </c>
-      <c r="E39" s="18"/>
-      <c r="F39" s="19"/>
-      <c r="G39" s="19"/>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="28"/>
-      <c r="K39" s="16"/>
-      <c r="L39" s="102"/>
-      <c r="M39" s="102"/>
-      <c r="N39" s="102"/>
-      <c r="O39" s="102"/>
-      <c r="P39" s="102"/>
-      <c r="Q39" s="102"/>
-      <c r="R39" s="102"/>
-    </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>1</v>
-      </c>
-      <c r="B40" s="17"/>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
-      <c r="E40" s="18"/>
-      <c r="F40" s="19"/>
-      <c r="G40" s="19"/>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="28"/>
-      <c r="K40" s="16"/>
-      <c r="L40" s="88"/>
-      <c r="M40" s="88"/>
-      <c r="N40" s="88"/>
-      <c r="O40" s="88"/>
-      <c r="P40" s="88"/>
-      <c r="Q40" s="88"/>
-      <c r="R40" s="88"/>
+      <c r="B40" s="14"/>
+      <c r="C40" s="14"/>
+      <c r="D40" s="14"/>
+      <c r="E40" s="15"/>
+      <c r="F40" s="16"/>
+      <c r="G40" s="16"/>
+      <c r="H40" s="16"/>
+      <c r="I40" s="16"/>
+      <c r="J40" s="23"/>
+      <c r="K40" s="13"/>
+      <c r="L40" s="80"/>
+      <c r="M40" s="80"/>
+      <c r="N40" s="80"/>
+      <c r="O40" s="80"/>
+      <c r="P40" s="80"/>
+      <c r="Q40" s="80"/>
+      <c r="R40" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="19">

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -5,7 +5,7 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypusreports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -269,6 +269,12 @@
   </si>
   <si>
     <t>СЧЕТ-ИЗВЕЩЕНИЕ           ВНИМАНИЕ! НОВЫЕ БАНКОВСКИЕ РЕКВИЗИТЫ !</t>
+  </si>
+  <si>
+    <t>${qrCode.pstring}</t>
+  </si>
+  <si>
+    <t>.</t>
   </si>
 </sst>
 </file>
@@ -1579,10 +1585,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S40"/>
+  <dimension ref="A1:S41"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1603,67 +1609,50 @@
     <col min="20" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="95" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" s="95" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="86"/>
-      <c r="C1" s="86"/>
-      <c r="D1" s="86"/>
-      <c r="E1" s="86"/>
-      <c r="F1" s="86"/>
-      <c r="G1" s="86"/>
-      <c r="H1" s="86"/>
-      <c r="J1" s="23"/>
-    </row>
-    <row r="2" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="86"/>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
-      <c r="D2" s="2"/>
-      <c r="E2" s="2"/>
+      <c r="B2" s="86"/>
+      <c r="C2" s="86"/>
+      <c r="D2" s="86"/>
+      <c r="E2" s="86"/>
       <c r="F2" s="86"/>
       <c r="G2" s="86"/>
       <c r="H2" s="86"/>
-      <c r="I2"/>
       <c r="J2" s="23"/>
-      <c r="K2" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="L2" s="115"/>
-      <c r="M2" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="N2" s="109"/>
-      <c r="O2" s="109"/>
-      <c r="P2" s="109"/>
-      <c r="Q2" s="109"/>
-      <c r="R2" s="109"/>
-    </row>
-    <row r="3" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="86"/>
       <c r="B3" s="2"/>
-      <c r="C3" s="86"/>
-      <c r="D3" s="86"/>
+      <c r="C3" s="2"/>
+      <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="86"/>
       <c r="G3" s="86"/>
       <c r="H3" s="86"/>
       <c r="I3"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="78" t="s">
-        <v>2</v>
-      </c>
-      <c r="N3" s="76"/>
-      <c r="P3" s="79" t="s">
-        <v>3</v>
-      </c>
-      <c r="Q3" s="114" t="s">
-        <v>5</v>
-      </c>
-      <c r="R3" s="114"/>
+      <c r="K3" s="115" t="s">
+        <v>58</v>
+      </c>
+      <c r="L3" s="115"/>
+      <c r="M3" s="108" t="s">
+        <v>49</v>
+      </c>
+      <c r="N3" s="109"/>
+      <c r="O3" s="109"/>
+      <c r="P3" s="109"/>
+      <c r="Q3" s="109"/>
+      <c r="R3" s="109"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
@@ -1678,40 +1667,41 @@
       <c r="J4" s="23"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="75" t="s">
-        <v>4</v>
+      <c r="M4" s="78" t="s">
+        <v>2</v>
       </c>
       <c r="N4" s="76"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="75"/>
-      <c r="Q4" s="114"/>
+      <c r="P4" s="79" t="s">
+        <v>3</v>
+      </c>
+      <c r="Q4" s="114" t="s">
+        <v>5</v>
+      </c>
       <c r="R4" s="114"/>
     </row>
-    <row r="5" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="2"/>
+    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="86"/>
       <c r="B5" s="2"/>
       <c r="C5" s="86"/>
       <c r="D5" s="86"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
+      <c r="F5" s="86"/>
       <c r="G5" s="86"/>
       <c r="H5" s="86"/>
       <c r="I5"/>
       <c r="J5" s="23"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="26" t="s">
-        <v>6</v>
-      </c>
-      <c r="N5" s="4"/>
-      <c r="O5" s="5"/>
-      <c r="P5" s="6"/>
-      <c r="Q5" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="R5" s="8"/>
-    </row>
-    <row r="6" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M5" s="75" t="s">
+        <v>4</v>
+      </c>
+      <c r="N5" s="76"/>
+      <c r="O5" s="77"/>
+      <c r="P5" s="75"/>
+      <c r="Q5" s="114"/>
+      <c r="R5" s="114"/>
+    </row>
+    <row r="6" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="86"/>
@@ -1722,22 +1712,22 @@
       <c r="H6" s="86"/>
       <c r="I6"/>
       <c r="J6" s="23"/>
-      <c r="K6" s="3"/>
-      <c r="L6" s="3"/>
-      <c r="M6" s="27" t="s">
-        <v>8</v>
-      </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27"/>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="28" t="s">
-        <v>9</v>
-      </c>
+      <c r="K6" s="4"/>
+      <c r="L6" s="4"/>
+      <c r="M6" s="26" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6" s="4"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="6"/>
+      <c r="Q6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="86"/>
+      <c r="B7" s="2"/>
       <c r="C7" s="86"/>
       <c r="D7" s="86"/>
       <c r="E7" s="2"/>
@@ -1749,23 +1739,23 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="27" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
-      <c r="R7" s="29" t="s">
-        <v>41</v>
+      <c r="R7" s="28" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="86"/>
-      <c r="C8" s="87"/>
+      <c r="C8" s="86"/>
       <c r="D8" s="86"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="86"/>
+      <c r="F8" s="2"/>
       <c r="G8" s="86"/>
       <c r="H8" s="86"/>
       <c r="I8"/>
@@ -1773,41 +1763,41 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="29" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="2"/>
-      <c r="D9" s="2"/>
+      <c r="B9" s="86"/>
+      <c r="C9" s="87"/>
+      <c r="D9" s="86"/>
       <c r="E9" s="2"/>
       <c r="F9" s="86"/>
-      <c r="G9" s="87"/>
+      <c r="G9" s="86"/>
       <c r="H9" s="86"/>
       <c r="I9"/>
       <c r="J9" s="23"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="27" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
-      <c r="R9" s="30" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R9" s="29" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1820,14 +1810,18 @@
       <c r="J10" s="23"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="3"/>
-      <c r="N10" s="3"/>
-      <c r="O10" s="3"/>
-      <c r="P10" s="3"/>
-      <c r="Q10" s="3"/>
-      <c r="R10" s="18"/>
-    </row>
-    <row r="11" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="M10" s="27" t="s">
+        <v>48</v>
+      </c>
+      <c r="N10" s="27"/>
+      <c r="O10" s="27"/>
+      <c r="P10" s="27"/>
+      <c r="Q10" s="27"/>
+      <c r="R10" s="30" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1840,16 +1834,14 @@
       <c r="J11" s="23"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
-      <c r="M11" s="85" t="s">
-        <v>56</v>
-      </c>
+      <c r="M11" s="3"/>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="18"/>
     </row>
-    <row r="12" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1860,128 +1852,130 @@
       <c r="H12" s="86"/>
       <c r="I12"/>
       <c r="J12" s="23"/>
-      <c r="K12" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="L12" s="113"/>
-      <c r="M12" s="113"/>
-      <c r="N12" s="113"/>
-      <c r="O12" s="113"/>
-      <c r="P12" s="113"/>
-      <c r="Q12" s="113"/>
-      <c r="R12" s="113"/>
-    </row>
-    <row r="13" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="K12" s="3"/>
+      <c r="L12" s="3"/>
+      <c r="M12" s="85" t="s">
+        <v>56</v>
+      </c>
+      <c r="N12" s="3"/>
+      <c r="O12" s="3"/>
+      <c r="P12" s="3"/>
+      <c r="Q12" s="3"/>
+      <c r="R12" s="18"/>
+    </row>
+    <row r="13" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="88"/>
-      <c r="E13" s="88"/>
-      <c r="F13" s="89"/>
+      <c r="C13" s="2"/>
+      <c r="D13" s="2"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="86"/>
       <c r="G13" s="87"/>
       <c r="H13" s="86"/>
       <c r="I13"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="3"/>
-      <c r="L13" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="N13" s="3"/>
-      <c r="O13" s="3" t="s">
-        <v>43</v>
-      </c>
-      <c r="Q13" s="3"/>
-      <c r="R13" s="18"/>
-    </row>
-    <row r="14" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K13" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="L13" s="113"/>
+      <c r="M13" s="113"/>
+      <c r="N13" s="113"/>
+      <c r="O13" s="113"/>
+      <c r="P13" s="113"/>
+      <c r="Q13" s="113"/>
+      <c r="R13" s="113"/>
+    </row>
+    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="2"/>
-      <c r="D14" s="2"/>
-      <c r="E14" s="2"/>
-      <c r="F14" s="86"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="88"/>
+      <c r="E14" s="88"/>
+      <c r="F14" s="89"/>
       <c r="G14" s="87"/>
       <c r="H14" s="86"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="24"/>
-      <c r="K14" s="20"/>
-      <c r="L14" s="20"/>
-      <c r="M14" s="20"/>
-      <c r="N14" s="20"/>
-      <c r="O14" s="20"/>
-      <c r="P14" s="20"/>
-      <c r="Q14" s="20"/>
-      <c r="R14" s="21"/>
-    </row>
-    <row r="15" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A15" s="90"/>
-      <c r="B15" s="90"/>
-      <c r="C15" s="110"/>
-      <c r="D15" s="110"/>
-      <c r="E15" s="110"/>
-      <c r="F15" s="110"/>
-      <c r="G15" s="110"/>
-      <c r="H15" s="110"/>
-      <c r="I15" s="17"/>
-      <c r="J15" s="23"/>
-      <c r="K15" s="9" t="s">
+      <c r="I14"/>
+      <c r="J14" s="23"/>
+      <c r="K14" s="3"/>
+      <c r="L14" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="N14" s="3"/>
+      <c r="O14" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q14" s="3"/>
+      <c r="R14" s="18"/>
+    </row>
+    <row r="15" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="2"/>
+      <c r="D15" s="2"/>
+      <c r="E15" s="2"/>
+      <c r="F15" s="86"/>
+      <c r="G15" s="87"/>
+      <c r="H15" s="86"/>
+      <c r="I15" s="19"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="20"/>
+      <c r="L15" s="20"/>
+      <c r="M15" s="20"/>
+      <c r="N15" s="20"/>
+      <c r="O15" s="20"/>
+      <c r="P15" s="20"/>
+      <c r="Q15" s="20"/>
+      <c r="R15" s="21"/>
+    </row>
+    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A16" s="90"/>
+      <c r="B16" s="90"/>
+      <c r="C16" s="110"/>
+      <c r="D16" s="110"/>
+      <c r="E16" s="110"/>
+      <c r="F16" s="110"/>
+      <c r="G16" s="110"/>
+      <c r="H16" s="110"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="23"/>
+      <c r="K16" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="L15" s="9"/>
-      <c r="M15" s="110" t="s">
+      <c r="L16" s="9"/>
+      <c r="M16" s="110" t="s">
         <v>50</v>
       </c>
-      <c r="N15" s="110"/>
-      <c r="O15" s="110"/>
-      <c r="P15" s="110"/>
-      <c r="Q15" s="110"/>
-      <c r="R15" s="110"/>
-    </row>
-    <row r="16" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="91"/>
-      <c r="B16" s="91"/>
-      <c r="C16" s="92"/>
-      <c r="D16" s="92"/>
-      <c r="E16" s="92"/>
-      <c r="F16" s="93"/>
-      <c r="G16" s="111"/>
-      <c r="H16" s="111"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="35"/>
-      <c r="L16" s="35"/>
-      <c r="M16" s="31" t="s">
+      <c r="N16" s="110"/>
+      <c r="O16" s="110"/>
+      <c r="P16" s="110"/>
+      <c r="Q16" s="110"/>
+      <c r="R16" s="110"/>
+    </row>
+    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="91"/>
+      <c r="B17" s="91"/>
+      <c r="C17" s="92"/>
+      <c r="D17" s="92"/>
+      <c r="E17" s="92"/>
+      <c r="F17" s="93"/>
+      <c r="G17" s="111"/>
+      <c r="H17" s="111"/>
+      <c r="I17" s="33"/>
+      <c r="J17" s="34"/>
+      <c r="K17" s="35"/>
+      <c r="L17" s="35"/>
+      <c r="M17" s="31" t="s">
         <v>14</v>
       </c>
-      <c r="N16" s="31"/>
-      <c r="O16" s="31"/>
-      <c r="P16" s="32" t="s">
+      <c r="N17" s="31"/>
+      <c r="O17" s="31"/>
+      <c r="P17" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="Q16" s="112" t="s">
+      <c r="Q17" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="R16" s="112"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="89"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="94"/>
-      <c r="D17" s="94"/>
-      <c r="E17" s="94"/>
-      <c r="F17" s="94"/>
-      <c r="G17" s="94"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="38"/>
-      <c r="L17" s="38"/>
-      <c r="M17" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="N17" s="36"/>
-      <c r="O17" s="36"/>
-      <c r="P17" s="36"/>
-      <c r="Q17" s="36"/>
+      <c r="R17" s="112"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="89"/>
@@ -1991,65 +1985,61 @@
       <c r="E18" s="94"/>
       <c r="F18" s="94"/>
       <c r="G18" s="94"/>
-      <c r="H18" s="96"/>
       <c r="I18" s="37"/>
       <c r="J18" s="34"/>
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
-      <c r="M18" s="36"/>
+      <c r="M18" s="36" t="s">
+        <v>16</v>
+      </c>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
       <c r="P18" s="36"/>
       <c r="Q18" s="36"/>
-      <c r="R18" s="37" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="19" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A19" s="89"/>
       <c r="B19" s="89"/>
-      <c r="C19" s="118"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="118"/>
-      <c r="F19" s="118"/>
-      <c r="G19" s="118"/>
-      <c r="H19" s="118"/>
-      <c r="I19" s="39"/>
+      <c r="C19" s="94"/>
+      <c r="D19" s="94"/>
+      <c r="E19" s="94"/>
+      <c r="F19" s="94"/>
+      <c r="G19" s="94"/>
+      <c r="H19" s="96"/>
+      <c r="I19" s="37"/>
       <c r="J19" s="34"/>
       <c r="K19" s="38"/>
       <c r="L19" s="38"/>
-      <c r="M19" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="N19" s="119"/>
-      <c r="O19" s="119"/>
-      <c r="P19" s="119"/>
-      <c r="Q19" s="119"/>
-      <c r="R19" s="119"/>
-    </row>
-    <row r="20" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M19" s="36"/>
+      <c r="N19" s="36"/>
+      <c r="O19" s="36"/>
+      <c r="P19" s="36"/>
+      <c r="Q19" s="36"/>
+      <c r="R19" s="37" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="89"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="52"/>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="52"/>
-      <c r="G20" s="97"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
+      <c r="C20" s="118"/>
+      <c r="D20" s="118"/>
+      <c r="E20" s="118"/>
+      <c r="F20" s="118"/>
+      <c r="G20" s="118"/>
+      <c r="H20" s="118"/>
+      <c r="I20" s="39"/>
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="38" t="s">
-        <v>8</v>
-      </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
-      <c r="Q20" s="40"/>
-      <c r="R20" s="41" t="s">
-        <v>9</v>
-      </c>
+      <c r="M20" s="119" t="s">
+        <v>18</v>
+      </c>
+      <c r="N20" s="119"/>
+      <c r="O20" s="119"/>
+      <c r="P20" s="119"/>
+      <c r="Q20" s="119"/>
+      <c r="R20" s="119"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
@@ -2065,14 +2055,14 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="40"/>
-      <c r="R21" s="43" t="s">
-        <v>41</v>
+      <c r="R21" s="41" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -2089,17 +2079,17 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="43" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="23" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A23" s="89"/>
       <c r="B23" s="89"/>
       <c r="C23" s="52"/>
@@ -2107,364 +2097,368 @@
       <c r="E23" s="52"/>
       <c r="F23" s="52"/>
       <c r="G23" s="97"/>
-      <c r="H23" s="45"/>
-      <c r="I23" s="45"/>
+      <c r="H23" s="42"/>
+      <c r="I23" s="42"/>
       <c r="J23" s="34"/>
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38" t="s">
-        <v>48</v>
+        <v>11</v>
       </c>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="40"/>
-      <c r="R23" s="44" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="24" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R23" s="43" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="89"/>
       <c r="B24" s="89"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="88"/>
-      <c r="E24" s="88"/>
-      <c r="F24" s="89"/>
+      <c r="C24" s="52"/>
+      <c r="D24" s="52"/>
+      <c r="E24" s="52"/>
+      <c r="F24" s="52"/>
       <c r="G24" s="97"/>
       <c r="H24" s="45"/>
       <c r="I24" s="45"/>
       <c r="J24" s="34"/>
       <c r="K24" s="38"/>
-      <c r="L24" s="3" t="s">
+      <c r="L24" s="38"/>
+      <c r="M24" s="38" t="s">
+        <v>48</v>
+      </c>
+      <c r="N24" s="38"/>
+      <c r="O24" s="38"/>
+      <c r="P24" s="38"/>
+      <c r="Q24" s="40"/>
+      <c r="R24" s="44" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="89"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="88"/>
+      <c r="E25" s="88"/>
+      <c r="F25" s="89"/>
+      <c r="G25" s="97"/>
+      <c r="H25" s="45"/>
+      <c r="I25" s="45"/>
+      <c r="J25" s="34"/>
+      <c r="K25" s="38"/>
+      <c r="L25" s="3" t="s">
         <v>42</v>
       </c>
-      <c r="N24" s="3"/>
-      <c r="O24" s="10" t="s">
+      <c r="N25" s="3"/>
+      <c r="O25" s="10" t="s">
         <v>43</v>
       </c>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="45"/>
-    </row>
-    <row r="25" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="13"/>
-      <c r="B25" s="13"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="98"/>
-      <c r="E25" s="98"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="89"/>
-      <c r="H25" s="89"/>
-      <c r="I25" s="10"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="11"/>
-      <c r="L25" s="11"/>
-      <c r="M25" s="10"/>
-      <c r="N25" s="12"/>
-      <c r="O25" s="12"/>
-      <c r="P25" s="10"/>
-      <c r="Q25" s="10"/>
-      <c r="R25" s="10"/>
-    </row>
-    <row r="26" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="52"/>
-      <c r="B26" s="124"/>
-      <c r="C26" s="124"/>
-      <c r="D26" s="99"/>
-      <c r="E26" s="99"/>
-      <c r="F26" s="99"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="49"/>
-      <c r="I26" s="49"/>
-      <c r="J26" s="34"/>
-      <c r="K26" s="46"/>
-      <c r="L26" s="125" t="s">
+      <c r="Q25" s="40"/>
+      <c r="R25" s="45"/>
+    </row>
+    <row r="26" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A26" s="13"/>
+      <c r="B26" s="13"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="98"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="89"/>
+      <c r="G26" s="89"/>
+      <c r="H26" s="89"/>
+      <c r="I26" s="10"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="11"/>
+      <c r="L26" s="11"/>
+      <c r="M26" s="10"/>
+      <c r="N26" s="12"/>
+      <c r="O26" s="12"/>
+      <c r="P26" s="10"/>
+      <c r="Q26" s="10"/>
+      <c r="R26" s="10"/>
+    </row>
+    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="52"/>
+      <c r="B27" s="124"/>
+      <c r="C27" s="124"/>
+      <c r="D27" s="99"/>
+      <c r="E27" s="99"/>
+      <c r="F27" s="99"/>
+      <c r="G27" s="99"/>
+      <c r="H27" s="49"/>
+      <c r="I27" s="49"/>
+      <c r="J27" s="34"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="125" t="s">
         <v>19</v>
       </c>
-      <c r="M26" s="126"/>
-      <c r="N26" s="47" t="s">
+      <c r="M27" s="126"/>
+      <c r="N27" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O26" s="47" t="s">
+      <c r="O27" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P26" s="47" t="s">
+      <c r="P27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q26" s="47" t="s">
+      <c r="Q27" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="R26" s="48" t="s">
+      <c r="R27" s="48" t="s">
         <v>24</v>
       </c>
-      <c r="S26" t="s">
+      <c r="S27" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="27" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A27" s="51" t="s">
+    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="51"/>
-      <c r="C27" s="52"/>
-      <c r="D27" s="53"/>
-      <c r="E27" s="53"/>
-      <c r="F27" s="52"/>
-      <c r="G27" s="52"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="52"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="50"/>
-      <c r="L27" s="51"/>
-      <c r="M27" s="52"/>
-      <c r="N27" s="53"/>
-      <c r="O27" s="53"/>
-      <c r="P27" s="52"/>
-      <c r="Q27" s="52"/>
-      <c r="R27" s="54"/>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="100"/>
-      <c r="B28" s="127"/>
-      <c r="C28" s="127"/>
-      <c r="D28" s="101"/>
-      <c r="E28" s="101"/>
+      <c r="B28" s="51"/>
+      <c r="C28" s="52"/>
+      <c r="D28" s="53"/>
+      <c r="E28" s="53"/>
       <c r="F28" s="52"/>
       <c r="G28" s="52"/>
-      <c r="H28" s="59"/>
-      <c r="I28" s="59"/>
+      <c r="H28" s="52"/>
+      <c r="I28" s="52"/>
       <c r="J28" s="34"/>
-      <c r="K28" s="55" t="s">
-        <v>27</v>
-      </c>
-      <c r="L28" s="128" t="s">
-        <v>28</v>
-      </c>
-      <c r="M28" s="129"/>
-      <c r="N28" s="56" t="s">
-        <v>29</v>
-      </c>
-      <c r="O28" s="56" t="s">
-        <v>30</v>
-      </c>
-      <c r="P28" s="57" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q28" s="57" t="s">
-        <v>32</v>
-      </c>
-      <c r="R28" s="58" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="29" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="102" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29" s="51"/>
-      <c r="C29" s="52"/>
-      <c r="D29" s="53"/>
-      <c r="E29" s="53"/>
+      <c r="K28" s="50"/>
+      <c r="L28" s="51"/>
+      <c r="M28" s="52"/>
+      <c r="N28" s="53"/>
+      <c r="O28" s="53"/>
+      <c r="P28" s="52"/>
+      <c r="Q28" s="52"/>
+      <c r="R28" s="54"/>
+    </row>
+    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="100"/>
+      <c r="B29" s="127"/>
+      <c r="C29" s="127"/>
+      <c r="D29" s="101"/>
+      <c r="E29" s="101"/>
       <c r="F29" s="52"/>
       <c r="G29" s="52"/>
-      <c r="H29" s="52"/>
-      <c r="I29" s="52"/>
+      <c r="H29" s="59"/>
+      <c r="I29" s="59"/>
       <c r="J29" s="34"/>
-      <c r="K29" s="50"/>
-      <c r="L29" s="51"/>
-      <c r="M29" s="52"/>
-      <c r="N29" s="53"/>
-      <c r="O29" s="53"/>
-      <c r="P29" s="52"/>
-      <c r="Q29" s="52"/>
-      <c r="R29" s="54"/>
+      <c r="K29" s="55" t="s">
+        <v>27</v>
+      </c>
+      <c r="L29" s="128" t="s">
+        <v>28</v>
+      </c>
+      <c r="M29" s="129"/>
+      <c r="N29" s="56" t="s">
+        <v>29</v>
+      </c>
+      <c r="O29" s="56" t="s">
+        <v>30</v>
+      </c>
+      <c r="P29" s="57" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q29" s="57" t="s">
+        <v>32</v>
+      </c>
+      <c r="R29" s="58" t="s">
+        <v>33</v>
+      </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="51"/>
-      <c r="B30" s="123"/>
-      <c r="C30" s="123"/>
-      <c r="D30" s="123"/>
-      <c r="E30" s="103"/>
-      <c r="F30" s="59"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="104"/>
-      <c r="I30" s="59"/>
+      <c r="A30" s="102" t="s">
+        <v>1</v>
+      </c>
+      <c r="B30" s="51"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="53"/>
+      <c r="E30" s="53"/>
+      <c r="F30" s="52"/>
+      <c r="G30" s="52"/>
+      <c r="H30" s="52"/>
+      <c r="I30" s="52"/>
       <c r="J30" s="34"/>
-      <c r="K30" s="60"/>
-      <c r="L30" s="120" t="s">
-        <v>34</v>
-      </c>
-      <c r="M30" s="121"/>
-      <c r="N30" s="122"/>
-      <c r="O30" s="68" t="s">
-        <v>35</v>
-      </c>
-      <c r="P30" s="61"/>
-      <c r="Q30" s="69" t="s">
-        <v>45</v>
-      </c>
-      <c r="R30" s="69" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="31" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="K30" s="50"/>
+      <c r="L30" s="51"/>
+      <c r="M30" s="52"/>
+      <c r="N30" s="53"/>
+      <c r="O30" s="53"/>
+      <c r="P30" s="52"/>
+      <c r="Q30" s="52"/>
+      <c r="R30" s="54"/>
+    </row>
+    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="51"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="62"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="53"/>
+      <c r="B31" s="123"/>
+      <c r="C31" s="123"/>
+      <c r="D31" s="123"/>
+      <c r="E31" s="103"/>
       <c r="F31" s="59"/>
-      <c r="G31" s="59"/>
-      <c r="H31" s="59"/>
+      <c r="G31" s="104"/>
+      <c r="H31" s="104"/>
       <c r="I31" s="59"/>
       <c r="J31" s="34"/>
-      <c r="K31" s="51"/>
-      <c r="L31" s="62"/>
-      <c r="M31" s="62"/>
-      <c r="N31" s="62"/>
-      <c r="O31" s="53"/>
-      <c r="P31" s="59"/>
-      <c r="Q31" s="59"/>
-      <c r="R31" s="59"/>
-    </row>
-    <row r="32" spans="1:19" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="95"/>
-      <c r="B32" s="130"/>
-      <c r="C32" s="130"/>
-      <c r="D32" s="130"/>
-      <c r="E32" s="130"/>
-      <c r="F32" s="95"/>
-      <c r="G32" s="95"/>
-      <c r="H32" s="95"/>
-      <c r="I32" s="1"/>
-      <c r="J32" s="25"/>
-      <c r="K32" s="1"/>
-      <c r="L32" s="131" t="s">
+      <c r="K31" s="60"/>
+      <c r="L31" s="120" t="s">
+        <v>34</v>
+      </c>
+      <c r="M31" s="121"/>
+      <c r="N31" s="122"/>
+      <c r="O31" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="P31" s="61"/>
+      <c r="Q31" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="R31" s="69" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="51"/>
+      <c r="B32" s="62"/>
+      <c r="C32" s="62"/>
+      <c r="D32" s="62"/>
+      <c r="E32" s="53"/>
+      <c r="F32" s="59"/>
+      <c r="G32" s="59"/>
+      <c r="H32" s="59"/>
+      <c r="I32" s="59"/>
+      <c r="J32" s="34"/>
+      <c r="K32" s="51"/>
+      <c r="L32" s="62"/>
+      <c r="M32" s="62"/>
+      <c r="N32" s="62"/>
+      <c r="O32" s="53"/>
+      <c r="P32" s="59"/>
+      <c r="Q32" s="59"/>
+      <c r="R32" s="59"/>
+    </row>
+    <row r="33" spans="1:18" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="95"/>
+      <c r="B33" s="130"/>
+      <c r="C33" s="130"/>
+      <c r="D33" s="130"/>
+      <c r="E33" s="130"/>
+      <c r="F33" s="95"/>
+      <c r="G33" s="95"/>
+      <c r="H33" s="95"/>
+      <c r="I33" s="1"/>
+      <c r="J33" s="25"/>
+      <c r="K33" s="1"/>
+      <c r="L33" s="131" t="s">
         <v>51</v>
       </c>
-      <c r="M32" s="132"/>
-      <c r="N32" s="132"/>
-      <c r="O32" s="133"/>
-      <c r="P32" s="1"/>
-      <c r="Q32" s="16"/>
-      <c r="R32" s="16"/>
-    </row>
-    <row r="33" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A33" s="64"/>
-      <c r="B33" s="91"/>
-      <c r="C33" s="105"/>
-      <c r="D33" s="105"/>
-      <c r="E33" s="106"/>
-      <c r="F33" s="16"/>
-      <c r="G33" s="16"/>
-      <c r="H33" s="16"/>
-      <c r="I33" s="16"/>
-      <c r="J33" s="66"/>
-      <c r="K33" s="64"/>
-      <c r="L33" s="73"/>
-      <c r="M33" s="71" t="s">
+      <c r="M33" s="132"/>
+      <c r="N33" s="132"/>
+      <c r="O33" s="133"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="16"/>
+      <c r="R33" s="16"/>
+    </row>
+    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A34" s="64"/>
+      <c r="B34" s="91"/>
+      <c r="C34" s="105"/>
+      <c r="D34" s="105"/>
+      <c r="E34" s="106"/>
+      <c r="F34" s="16"/>
+      <c r="G34" s="16"/>
+      <c r="H34" s="16"/>
+      <c r="I34" s="16"/>
+      <c r="J34" s="66"/>
+      <c r="K34" s="64"/>
+      <c r="L34" s="73"/>
+      <c r="M34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="N33" s="71" t="s">
+      <c r="N34" s="71" t="s">
         <v>54</v>
       </c>
-      <c r="O33" s="72" t="s">
+      <c r="O34" s="72" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="34" spans="1:18" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A34" s="51" t="s">
+    <row r="35" spans="1:18" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="63"/>
-      <c r="E34" s="101"/>
-      <c r="F34" s="59"/>
-      <c r="G34" s="59"/>
-      <c r="H34" s="59"/>
-      <c r="I34" s="59"/>
-      <c r="J34" s="34"/>
-      <c r="K34" s="51"/>
-      <c r="L34" s="82"/>
-      <c r="M34" s="83"/>
-      <c r="N34" s="83"/>
-      <c r="O34" s="84"/>
-      <c r="P34" s="59"/>
-      <c r="Q34" s="59"/>
-      <c r="R34" s="59"/>
-    </row>
-    <row r="35" spans="1:18" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="64"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="105"/>
-      <c r="D35" s="105"/>
-      <c r="E35" s="106"/>
-      <c r="F35" s="16"/>
-      <c r="G35" s="16"/>
-      <c r="H35" s="16"/>
-      <c r="I35" s="16"/>
-      <c r="J35" s="66"/>
-      <c r="K35" s="64"/>
-      <c r="L35" s="73" t="s">
-        <v>37</v>
-      </c>
-      <c r="M35" s="71" t="s">
-        <v>38</v>
-      </c>
-      <c r="N35" s="71" t="s">
-        <v>39</v>
-      </c>
-      <c r="O35" s="72" t="s">
-        <v>40</v>
-      </c>
-      <c r="P35" s="16"/>
-      <c r="Q35" s="16"/>
-      <c r="R35" s="16"/>
-    </row>
-    <row r="36" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B35" s="63"/>
+      <c r="C35" s="63"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="101"/>
+      <c r="F35" s="59"/>
+      <c r="G35" s="59"/>
+      <c r="H35" s="59"/>
+      <c r="I35" s="59"/>
+      <c r="J35" s="34"/>
+      <c r="K35" s="51"/>
+      <c r="L35" s="82"/>
+      <c r="M35" s="83"/>
+      <c r="N35" s="83"/>
+      <c r="O35" s="84"/>
+      <c r="P35" s="59"/>
+      <c r="Q35" s="59"/>
+      <c r="R35" s="59"/>
+    </row>
+    <row r="36" spans="1:18" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="64"/>
       <c r="B36" s="91"/>
-      <c r="C36" s="107"/>
-      <c r="D36" s="107"/>
-      <c r="E36" s="91"/>
+      <c r="C36" s="105"/>
+      <c r="D36" s="105"/>
+      <c r="E36" s="106"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
       <c r="J36" s="66"/>
       <c r="K36" s="64"/>
-      <c r="L36" s="74"/>
-      <c r="M36" s="65"/>
-      <c r="N36" s="65"/>
-      <c r="O36" s="70"/>
+      <c r="L36" s="73" t="s">
+        <v>37</v>
+      </c>
+      <c r="M36" s="71" t="s">
+        <v>38</v>
+      </c>
+      <c r="N36" s="71" t="s">
+        <v>39</v>
+      </c>
+      <c r="O36" s="72" t="s">
+        <v>40</v>
+      </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
     </row>
-    <row r="37" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>1</v>
-      </c>
-      <c r="B37" s="14"/>
-      <c r="C37" s="14"/>
-      <c r="D37" s="14"/>
-      <c r="E37" s="15"/>
+    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="64"/>
+      <c r="B37" s="91"/>
+      <c r="C37" s="107"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="91"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="23"/>
-      <c r="K37" s="13"/>
-      <c r="L37" s="14"/>
-      <c r="M37" s="14"/>
-      <c r="N37" s="14"/>
-      <c r="O37" s="15"/>
+      <c r="J37" s="66"/>
+      <c r="K37" s="64"/>
+      <c r="L37" s="74"/>
+      <c r="M37" s="65"/>
+      <c r="N37" s="65"/>
+      <c r="O37" s="70"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
     </row>
-    <row r="38" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="13"/>
+    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A38" s="13" t="s">
+        <v>1</v>
+      </c>
       <c r="B38" s="14"/>
       <c r="C38" s="14"/>
       <c r="D38" s="14"/>
@@ -2475,23 +2469,19 @@
       <c r="I38" s="16"/>
       <c r="J38" s="23"/>
       <c r="K38" s="13"/>
-      <c r="L38" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="117"/>
-      <c r="P38" s="117"/>
-      <c r="Q38" s="117"/>
-      <c r="R38" s="117"/>
-    </row>
-    <row r="39" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="L38" s="14"/>
+      <c r="M38" s="14"/>
+      <c r="N38" s="14"/>
+      <c r="O38" s="15"/>
+      <c r="P38" s="16"/>
+      <c r="Q38" s="16"/>
+      <c r="R38" s="16"/>
+    </row>
+    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
-      <c r="D39" s="81" t="s">
-        <v>47</v>
-      </c>
+      <c r="D39" s="14"/>
       <c r="E39" s="15"/>
       <c r="F39" s="16"/>
       <c r="G39" s="16"/>
@@ -2499,7 +2489,9 @@
       <c r="I39" s="16"/>
       <c r="J39" s="23"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="117"/>
+      <c r="L39" s="116" t="s">
+        <v>46</v>
+      </c>
       <c r="M39" s="117"/>
       <c r="N39" s="117"/>
       <c r="O39" s="117"/>
@@ -2507,13 +2499,13 @@
       <c r="Q39" s="117"/>
       <c r="R39" s="117"/>
     </row>
-    <row r="40" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A40" s="86" t="s">
-        <v>1</v>
-      </c>
+    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="14"/>
+      <c r="D40" s="81" t="s">
+        <v>47</v>
+      </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
       <c r="G40" s="16"/>
@@ -2521,35 +2513,57 @@
       <c r="I40" s="16"/>
       <c r="J40" s="23"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="80"/>
-      <c r="M40" s="80"/>
-      <c r="N40" s="80"/>
-      <c r="O40" s="80"/>
-      <c r="P40" s="80"/>
-      <c r="Q40" s="80"/>
-      <c r="R40" s="80"/>
+      <c r="L40" s="117"/>
+      <c r="M40" s="117"/>
+      <c r="N40" s="117"/>
+      <c r="O40" s="117"/>
+      <c r="P40" s="117"/>
+      <c r="Q40" s="117"/>
+      <c r="R40" s="117"/>
+    </row>
+    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="A41" s="86" t="s">
+        <v>1</v>
+      </c>
+      <c r="B41" s="14"/>
+      <c r="C41" s="14"/>
+      <c r="D41" s="14"/>
+      <c r="E41" s="15"/>
+      <c r="F41" s="16"/>
+      <c r="G41" s="16"/>
+      <c r="H41" s="16"/>
+      <c r="I41" s="16"/>
+      <c r="J41" s="23"/>
+      <c r="K41" s="13"/>
+      <c r="L41" s="80"/>
+      <c r="M41" s="80"/>
+      <c r="N41" s="80"/>
+      <c r="O41" s="80"/>
+      <c r="P41" s="80"/>
+      <c r="Q41" s="80"/>
+      <c r="R41" s="80"/>
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="L38:R39"/>
-    <mergeCell ref="C19:H19"/>
-    <mergeCell ref="M19:R19"/>
-    <mergeCell ref="L30:N30"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="L26:M26"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="L28:M28"/>
-    <mergeCell ref="B32:E32"/>
-    <mergeCell ref="L32:O32"/>
-    <mergeCell ref="M2:R2"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="M15:R15"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="Q16:R16"/>
-    <mergeCell ref="K12:R12"/>
-    <mergeCell ref="Q3:R4"/>
-    <mergeCell ref="K2:L2"/>
+    <mergeCell ref="L39:R40"/>
+    <mergeCell ref="C20:H20"/>
+    <mergeCell ref="M20:R20"/>
+    <mergeCell ref="L31:N31"/>
+    <mergeCell ref="B31:D31"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="L27:M27"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="L29:M29"/>
+    <mergeCell ref="B33:E33"/>
+    <mergeCell ref="L33:O33"/>
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="Q4:R5"/>
+    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -42,9 +42,6 @@
   </si>
   <si>
     <t>${lc.lc_regto}</t>
-  </si>
-  <si>
-    <t>${lc.barcode}</t>
   </si>
   <si>
     <t>Л/с ${lc.lc_num}</t>
@@ -864,7 +861,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -1108,30 +1105,6 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1189,6 +1162,33 @@
     <xf numFmtId="0" fontId="19" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1588,7 +1588,7 @@
   <dimension ref="A1:S41"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L4" sqref="L4"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1611,10 +1611,10 @@
   <sheetData>
     <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="95" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="95" t="s">
         <v>59</v>
-      </c>
-      <c r="B1" s="95" t="s">
-        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
@@ -1641,18 +1641,18 @@
       <c r="H3" s="86"/>
       <c r="I3"/>
       <c r="J3" s="23"/>
-      <c r="K3" s="115" t="s">
-        <v>58</v>
-      </c>
-      <c r="L3" s="115"/>
-      <c r="M3" s="108" t="s">
-        <v>49</v>
-      </c>
-      <c r="N3" s="109"/>
-      <c r="O3" s="109"/>
-      <c r="P3" s="109"/>
-      <c r="Q3" s="109"/>
-      <c r="R3" s="109"/>
+      <c r="K3" s="132" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" s="132"/>
+      <c r="M3" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="N3" s="127"/>
+      <c r="O3" s="127"/>
+      <c r="P3" s="127"/>
+      <c r="Q3" s="127"/>
+      <c r="R3" s="127"/>
     </row>
     <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="86"/>
@@ -1674,10 +1674,10 @@
       <c r="P4" s="79" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="114" t="s">
+      <c r="Q4" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="114"/>
+      <c r="R4" s="133"/>
     </row>
     <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="86"/>
@@ -1698,10 +1698,12 @@
       <c r="N5" s="76"/>
       <c r="O5" s="77"/>
       <c r="P5" s="75"/>
-      <c r="Q5" s="114"/>
-      <c r="R5" s="114"/>
-    </row>
-    <row r="6" spans="1:18" ht="33.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q5" s="134" t="s">
+        <v>6</v>
+      </c>
+      <c r="R5" s="134"/>
+    </row>
+    <row r="6" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="86"/>
@@ -1714,15 +1716,11 @@
       <c r="J6" s="23"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="26" t="s">
-        <v>6</v>
-      </c>
+      <c r="M6" s="26"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
-      <c r="Q6" s="7" t="s">
-        <v>7</v>
-      </c>
+      <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
     </row>
     <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1739,14 +1737,14 @@
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
       <c r="M7" s="27" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N7" s="27"/>
       <c r="O7" s="27"/>
       <c r="P7" s="27"/>
       <c r="Q7" s="27"/>
       <c r="R7" s="28" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1763,14 +1761,14 @@
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
       <c r="M8" s="27" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N8" s="27"/>
       <c r="O8" s="27"/>
       <c r="P8" s="27"/>
       <c r="Q8" s="27"/>
       <c r="R8" s="29" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
@@ -1787,14 +1785,14 @@
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
       <c r="M9" s="27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N9" s="27"/>
       <c r="O9" s="27"/>
       <c r="P9" s="27"/>
       <c r="Q9" s="27"/>
       <c r="R9" s="29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -1811,14 +1809,14 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="27" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N10" s="27"/>
       <c r="O10" s="27"/>
       <c r="P10" s="27"/>
       <c r="Q10" s="27"/>
       <c r="R10" s="30" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="11" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
@@ -1855,7 +1853,7 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="85" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
@@ -1874,16 +1872,16 @@
       <c r="H13" s="86"/>
       <c r="I13"/>
       <c r="J13" s="23"/>
-      <c r="K13" s="113" t="s">
-        <v>52</v>
-      </c>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="113"/>
-      <c r="P13" s="113"/>
-      <c r="Q13" s="113"/>
-      <c r="R13" s="113"/>
+      <c r="K13" s="131" t="s">
+        <v>51</v>
+      </c>
+      <c r="L13" s="131"/>
+      <c r="M13" s="131"/>
+      <c r="N13" s="131"/>
+      <c r="O13" s="131"/>
+      <c r="P13" s="131"/>
+      <c r="Q13" s="131"/>
+      <c r="R13" s="131"/>
     </row>
     <row r="14" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
@@ -1898,11 +1896,11 @@
       <c r="J14" s="23"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="18"/>
@@ -1930,26 +1928,26 @@
     <row r="16" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A16" s="90"/>
       <c r="B16" s="90"/>
-      <c r="C16" s="110"/>
-      <c r="D16" s="110"/>
-      <c r="E16" s="110"/>
-      <c r="F16" s="110"/>
-      <c r="G16" s="110"/>
-      <c r="H16" s="110"/>
+      <c r="C16" s="128"/>
+      <c r="D16" s="128"/>
+      <c r="E16" s="128"/>
+      <c r="F16" s="128"/>
+      <c r="G16" s="128"/>
+      <c r="H16" s="128"/>
       <c r="I16" s="17"/>
       <c r="J16" s="23"/>
       <c r="K16" s="9" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="110" t="s">
-        <v>50</v>
-      </c>
-      <c r="N16" s="110"/>
-      <c r="O16" s="110"/>
-      <c r="P16" s="110"/>
-      <c r="Q16" s="110"/>
-      <c r="R16" s="110"/>
+      <c r="M16" s="128" t="s">
+        <v>49</v>
+      </c>
+      <c r="N16" s="128"/>
+      <c r="O16" s="128"/>
+      <c r="P16" s="128"/>
+      <c r="Q16" s="128"/>
+      <c r="R16" s="128"/>
     </row>
     <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A17" s="91"/>
@@ -1958,24 +1956,24 @@
       <c r="D17" s="92"/>
       <c r="E17" s="92"/>
       <c r="F17" s="93"/>
-      <c r="G17" s="111"/>
-      <c r="H17" s="111"/>
+      <c r="G17" s="129"/>
+      <c r="H17" s="129"/>
       <c r="I17" s="33"/>
       <c r="J17" s="34"/>
       <c r="K17" s="35"/>
       <c r="L17" s="35"/>
       <c r="M17" s="31" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="N17" s="31"/>
       <c r="O17" s="31"/>
       <c r="P17" s="32" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q17" s="112" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q17" s="130" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="112"/>
+      <c r="R17" s="130"/>
     </row>
     <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A18" s="89"/>
@@ -1990,7 +1988,7 @@
       <c r="K18" s="38"/>
       <c r="L18" s="38"/>
       <c r="M18" s="36" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="N18" s="36"/>
       <c r="O18" s="36"/>
@@ -2016,30 +2014,30 @@
       <c r="P19" s="36"/>
       <c r="Q19" s="36"/>
       <c r="R19" s="37" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A20" s="89"/>
       <c r="B20" s="89"/>
-      <c r="C20" s="118"/>
-      <c r="D20" s="118"/>
-      <c r="E20" s="118"/>
-      <c r="F20" s="118"/>
-      <c r="G20" s="118"/>
-      <c r="H20" s="118"/>
+      <c r="C20" s="110"/>
+      <c r="D20" s="110"/>
+      <c r="E20" s="110"/>
+      <c r="F20" s="110"/>
+      <c r="G20" s="110"/>
+      <c r="H20" s="110"/>
       <c r="I20" s="39"/>
       <c r="J20" s="34"/>
       <c r="K20" s="38"/>
       <c r="L20" s="38"/>
-      <c r="M20" s="119" t="s">
-        <v>18</v>
-      </c>
-      <c r="N20" s="119"/>
-      <c r="O20" s="119"/>
-      <c r="P20" s="119"/>
-      <c r="Q20" s="119"/>
-      <c r="R20" s="119"/>
+      <c r="M20" s="111" t="s">
+        <v>17</v>
+      </c>
+      <c r="N20" s="111"/>
+      <c r="O20" s="111"/>
+      <c r="P20" s="111"/>
+      <c r="Q20" s="111"/>
+      <c r="R20" s="111"/>
     </row>
     <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A21" s="89"/>
@@ -2055,14 +2053,14 @@
       <c r="K21" s="38"/>
       <c r="L21" s="38"/>
       <c r="M21" s="38" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="N21" s="38"/>
       <c r="O21" s="38"/>
       <c r="P21" s="38"/>
       <c r="Q21" s="40"/>
       <c r="R21" s="41" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -2079,14 +2077,14 @@
       <c r="K22" s="38"/>
       <c r="L22" s="38"/>
       <c r="M22" s="38" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="N22" s="38"/>
       <c r="O22" s="38"/>
       <c r="P22" s="38"/>
       <c r="Q22" s="40"/>
       <c r="R22" s="43" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
@@ -2103,14 +2101,14 @@
       <c r="K23" s="38"/>
       <c r="L23" s="38"/>
       <c r="M23" s="38" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="N23" s="38"/>
       <c r="O23" s="38"/>
       <c r="P23" s="38"/>
       <c r="Q23" s="40"/>
       <c r="R23" s="43" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
     </row>
     <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2127,14 +2125,14 @@
       <c r="K24" s="38"/>
       <c r="L24" s="38"/>
       <c r="M24" s="38" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="N24" s="38"/>
       <c r="O24" s="38"/>
       <c r="P24" s="38"/>
       <c r="Q24" s="40"/>
       <c r="R24" s="44" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="25" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2150,11 +2148,11 @@
       <c r="J25" s="34"/>
       <c r="K25" s="38"/>
       <c r="L25" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="10" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="Q25" s="40"/>
       <c r="R25" s="45"/>
@@ -2181,8 +2179,8 @@
     </row>
     <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A27" s="52"/>
-      <c r="B27" s="124"/>
-      <c r="C27" s="124"/>
+      <c r="B27" s="116"/>
+      <c r="C27" s="116"/>
       <c r="D27" s="99"/>
       <c r="E27" s="99"/>
       <c r="F27" s="99"/>
@@ -2191,32 +2189,32 @@
       <c r="I27" s="49"/>
       <c r="J27" s="34"/>
       <c r="K27" s="46"/>
-      <c r="L27" s="125" t="s">
+      <c r="L27" s="117" t="s">
+        <v>18</v>
+      </c>
+      <c r="M27" s="118"/>
+      <c r="N27" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="M27" s="126"/>
-      <c r="N27" s="47" t="s">
+      <c r="O27" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="P27" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="P27" s="47" t="s">
+      <c r="Q27" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="Q27" s="47" t="s">
+      <c r="R27" s="48" t="s">
         <v>23</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="S27" t="s">
         <v>24</v>
-      </c>
-      <c r="S27" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A28" s="51" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28" s="51"/>
       <c r="C28" s="52"/>
@@ -2238,8 +2236,8 @@
     </row>
     <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A29" s="100"/>
-      <c r="B29" s="127"/>
-      <c r="C29" s="127"/>
+      <c r="B29" s="119"/>
+      <c r="C29" s="119"/>
       <c r="D29" s="101"/>
       <c r="E29" s="101"/>
       <c r="F29" s="52"/>
@@ -2248,26 +2246,26 @@
       <c r="I29" s="59"/>
       <c r="J29" s="34"/>
       <c r="K29" s="55" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" s="120" t="s">
         <v>27</v>
       </c>
-      <c r="L29" s="128" t="s">
+      <c r="M29" s="121"/>
+      <c r="N29" s="56" t="s">
         <v>28</v>
       </c>
-      <c r="M29" s="129"/>
-      <c r="N29" s="56" t="s">
+      <c r="O29" s="56" t="s">
         <v>29</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="P29" s="57" t="s">
         <v>30</v>
       </c>
-      <c r="P29" s="57" t="s">
+      <c r="Q29" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="Q29" s="57" t="s">
+      <c r="R29" s="58" t="s">
         <v>32</v>
-      </c>
-      <c r="R29" s="58" t="s">
-        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
@@ -2294,9 +2292,9 @@
     </row>
     <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="51"/>
-      <c r="B31" s="123"/>
-      <c r="C31" s="123"/>
-      <c r="D31" s="123"/>
+      <c r="B31" s="115"/>
+      <c r="C31" s="115"/>
+      <c r="D31" s="115"/>
       <c r="E31" s="103"/>
       <c r="F31" s="59"/>
       <c r="G31" s="104"/>
@@ -2304,20 +2302,20 @@
       <c r="I31" s="59"/>
       <c r="J31" s="34"/>
       <c r="K31" s="60"/>
-      <c r="L31" s="120" t="s">
+      <c r="L31" s="112" t="s">
+        <v>33</v>
+      </c>
+      <c r="M31" s="113"/>
+      <c r="N31" s="114"/>
+      <c r="O31" s="68" t="s">
         <v>34</v>
-      </c>
-      <c r="M31" s="121"/>
-      <c r="N31" s="122"/>
-      <c r="O31" s="68" t="s">
-        <v>35</v>
       </c>
       <c r="P31" s="61"/>
       <c r="Q31" s="69" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="R31" s="69" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2342,22 +2340,22 @@
     </row>
     <row r="33" spans="1:18" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A33" s="95"/>
-      <c r="B33" s="130"/>
-      <c r="C33" s="130"/>
-      <c r="D33" s="130"/>
-      <c r="E33" s="130"/>
+      <c r="B33" s="122"/>
+      <c r="C33" s="122"/>
+      <c r="D33" s="122"/>
+      <c r="E33" s="122"/>
       <c r="F33" s="95"/>
       <c r="G33" s="95"/>
       <c r="H33" s="95"/>
       <c r="I33" s="1"/>
       <c r="J33" s="25"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="131" t="s">
-        <v>51</v>
-      </c>
-      <c r="M33" s="132"/>
-      <c r="N33" s="132"/>
-      <c r="O33" s="133"/>
+      <c r="L33" s="123" t="s">
+        <v>50</v>
+      </c>
+      <c r="M33" s="124"/>
+      <c r="N33" s="124"/>
+      <c r="O33" s="125"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
@@ -2376,18 +2374,18 @@
       <c r="K34" s="64"/>
       <c r="L34" s="73"/>
       <c r="M34" s="71" t="s">
+        <v>52</v>
+      </c>
+      <c r="N34" s="71" t="s">
         <v>53</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="O34" s="72" t="s">
         <v>54</v>
-      </c>
-      <c r="O34" s="72" t="s">
-        <v>55</v>
       </c>
     </row>
     <row r="35" spans="1:18" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A35" s="51" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B35" s="63"/>
       <c r="C35" s="63"/>
@@ -2420,16 +2418,16 @@
       <c r="J36" s="66"/>
       <c r="K36" s="64"/>
       <c r="L36" s="73" t="s">
+        <v>36</v>
+      </c>
+      <c r="M36" s="71" t="s">
         <v>37</v>
       </c>
-      <c r="M36" s="71" t="s">
+      <c r="N36" s="71" t="s">
         <v>38</v>
       </c>
-      <c r="N36" s="71" t="s">
+      <c r="O36" s="72" t="s">
         <v>39</v>
-      </c>
-      <c r="O36" s="72" t="s">
-        <v>40</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
@@ -2489,22 +2487,22 @@
       <c r="I39" s="16"/>
       <c r="J39" s="23"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="116" t="s">
-        <v>46</v>
-      </c>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="117"/>
-      <c r="P39" s="117"/>
-      <c r="Q39" s="117"/>
-      <c r="R39" s="117"/>
+      <c r="L39" s="108" t="s">
+        <v>45</v>
+      </c>
+      <c r="M39" s="109"/>
+      <c r="N39" s="109"/>
+      <c r="O39" s="109"/>
+      <c r="P39" s="109"/>
+      <c r="Q39" s="109"/>
+      <c r="R39" s="109"/>
     </row>
     <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="81" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
@@ -2513,13 +2511,13 @@
       <c r="I40" s="16"/>
       <c r="J40" s="23"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="117"/>
-      <c r="M40" s="117"/>
-      <c r="N40" s="117"/>
-      <c r="O40" s="117"/>
-      <c r="P40" s="117"/>
-      <c r="Q40" s="117"/>
-      <c r="R40" s="117"/>
+      <c r="L40" s="109"/>
+      <c r="M40" s="109"/>
+      <c r="N40" s="109"/>
+      <c r="O40" s="109"/>
+      <c r="P40" s="109"/>
+      <c r="Q40" s="109"/>
+      <c r="R40" s="109"/>
     </row>
     <row r="41" spans="1:18" x14ac:dyDescent="0.25">
       <c r="A41" s="86" t="s">
@@ -2544,7 +2542,16 @@
       <c r="R41" s="80"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <mergeCells count="20">
+    <mergeCell ref="M3:R3"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="M16:R16"/>
+    <mergeCell ref="G17:H17"/>
+    <mergeCell ref="Q17:R17"/>
+    <mergeCell ref="K13:R13"/>
+    <mergeCell ref="K3:L3"/>
+    <mergeCell ref="Q4:R4"/>
+    <mergeCell ref="Q5:R5"/>
     <mergeCell ref="L39:R40"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="M20:R20"/>
@@ -2556,14 +2563,6 @@
     <mergeCell ref="L29:M29"/>
     <mergeCell ref="B33:E33"/>
     <mergeCell ref="L33:O33"/>
-    <mergeCell ref="M3:R3"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="M16:R16"/>
-    <mergeCell ref="G17:H17"/>
-    <mergeCell ref="Q17:R17"/>
-    <mergeCell ref="K13:R13"/>
-    <mergeCell ref="Q4:R5"/>
-    <mergeCell ref="K3:L3"/>
   </mergeCells>
   <phoneticPr fontId="9" type="noConversion"/>
   <pageMargins left="0.23622047244094491" right="0" top="0.15748031496062992" bottom="0.15748031496062992" header="0" footer="0"/>

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="60">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="112" uniqueCount="61">
   <si>
     <t>&lt;jx:forEach items="${Flats.ar}" var ="lc"&gt;</t>
   </si>
@@ -273,6 +273,9 @@
   <si>
     <t>.</t>
   </si>
+  <si>
+    <t>|</t>
+  </si>
 </sst>
 </file>
 
@@ -281,7 +284,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -421,16 +424,29 @@
       <name val="Arial Cyr"/>
       <charset val="204"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="29">
+  <borders count="28">
     <border>
       <left/>
       <right/>
@@ -698,32 +714,12 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="dashDotDot">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="slantDashDot">
         <color auto="1"/>
       </left>
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="slantDashDot">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top/>
-      <bottom style="dashDotDot">
-        <color auto="1"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -800,6 +796,15 @@
         <color indexed="64"/>
       </top>
       <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="dashDot">
         <color indexed="64"/>
       </bottom>
       <diagonal/>
@@ -861,7 +866,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="135">
+  <cellXfs count="138">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
@@ -907,14 +912,7 @@
     </xf>
     <xf numFmtId="2" fontId="5" fillId="0" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="20" xfId="5" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="2" fontId="5" fillId="0" borderId="20" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="22" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -933,7 +931,7 @@
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -999,7 +997,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
@@ -1016,10 +1014,10 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
@@ -1045,13 +1043,13 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="5" applyFont="1" applyProtection="1"/>
@@ -1105,6 +1103,14 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="27" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="27" xfId="5" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="2" fontId="5" fillId="0" borderId="27" xfId="5" applyNumberFormat="1" applyFont="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1151,7 +1157,7 @@
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="28" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
       <protection locked="0"/>
     </xf>
@@ -1189,6 +1195,10 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1585,19 +1595,19 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:S41"/>
+  <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
+      <selection activeCell="T10" sqref="T10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="95" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="95" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="95" customWidth="1"/>
-    <col min="9" max="9" width="2" style="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="25" customWidth="1"/>
+    <col min="1" max="1" width="4.7109375" style="90" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.7109375" style="90" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="11.5703125" style="90" hidden="1" customWidth="1"/>
+    <col min="9" max="9" width="2" style="1" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="2.140625" style="20" customWidth="1"/>
     <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
     <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
     <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
@@ -1606,230 +1616,259 @@
     <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
     <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
     <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
-    <col min="20" max="16384" width="10.85546875" style="1"/>
+    <col min="20" max="20" width="113.42578125" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.85546875" style="137"/>
+    <col min="22" max="16384" width="10.85546875" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:18" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="95" t="s">
+    <row r="1" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="90" t="s">
         <v>58</v>
       </c>
-      <c r="B1" s="95" t="s">
+      <c r="B1" s="90" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="2" spans="1:18" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="86"/>
-      <c r="C2" s="86"/>
-      <c r="D2" s="86"/>
-      <c r="E2" s="86"/>
-      <c r="F2" s="86"/>
-      <c r="G2" s="86"/>
-      <c r="H2" s="86"/>
-      <c r="J2" s="23"/>
-    </row>
-    <row r="3" spans="1:18" ht="87" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="86"/>
+      <c r="B2" s="81"/>
+      <c r="C2" s="81"/>
+      <c r="D2" s="81"/>
+      <c r="E2" s="81"/>
+      <c r="F2" s="81"/>
+      <c r="G2" s="81"/>
+      <c r="H2" s="81"/>
+      <c r="J2" s="19"/>
+      <c r="U2" s="136" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="81"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
-      <c r="F3" s="86"/>
-      <c r="G3" s="86"/>
-      <c r="H3" s="86"/>
+      <c r="F3" s="81"/>
+      <c r="G3" s="81"/>
+      <c r="H3" s="81"/>
       <c r="I3"/>
-      <c r="J3" s="23"/>
-      <c r="K3" s="132" t="s">
+      <c r="J3" s="19"/>
+      <c r="K3" s="133" t="s">
         <v>57</v>
       </c>
-      <c r="L3" s="132"/>
-      <c r="M3" s="126" t="s">
+      <c r="L3" s="133"/>
+      <c r="M3" s="127" t="s">
         <v>48</v>
       </c>
-      <c r="N3" s="127"/>
-      <c r="O3" s="127"/>
-      <c r="P3" s="127"/>
-      <c r="Q3" s="127"/>
-      <c r="R3" s="127"/>
-    </row>
-    <row r="4" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="86"/>
+      <c r="N3" s="128"/>
+      <c r="O3" s="128"/>
+      <c r="P3" s="128"/>
+      <c r="Q3" s="128"/>
+      <c r="R3" s="128"/>
+      <c r="U3" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="81"/>
       <c r="B4" s="2"/>
-      <c r="C4" s="86"/>
-      <c r="D4" s="86"/>
+      <c r="C4" s="81"/>
+      <c r="D4" s="81"/>
       <c r="E4" s="2"/>
-      <c r="F4" s="86"/>
-      <c r="G4" s="86"/>
-      <c r="H4" s="86"/>
+      <c r="F4" s="81"/>
+      <c r="G4" s="81"/>
+      <c r="H4" s="81"/>
       <c r="I4"/>
-      <c r="J4" s="23"/>
+      <c r="J4" s="19"/>
       <c r="K4" s="4"/>
       <c r="L4" s="4"/>
-      <c r="M4" s="78" t="s">
+      <c r="M4" s="73" t="s">
         <v>2</v>
       </c>
-      <c r="N4" s="76"/>
-      <c r="P4" s="79" t="s">
+      <c r="N4" s="71"/>
+      <c r="P4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="133" t="s">
+      <c r="Q4" s="134" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="133"/>
-    </row>
-    <row r="5" spans="1:18" ht="18" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="86"/>
+      <c r="R4" s="134"/>
+      <c r="U4" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="81"/>
       <c r="B5" s="2"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
       <c r="E5" s="2"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
       <c r="I5"/>
-      <c r="J5" s="23"/>
+      <c r="J5" s="19"/>
       <c r="K5" s="4"/>
       <c r="L5" s="4"/>
-      <c r="M5" s="75" t="s">
+      <c r="M5" s="70" t="s">
         <v>4</v>
       </c>
-      <c r="N5" s="76"/>
-      <c r="O5" s="77"/>
-      <c r="P5" s="75"/>
-      <c r="Q5" s="134" t="s">
+      <c r="N5" s="71"/>
+      <c r="O5" s="72"/>
+      <c r="P5" s="70"/>
+      <c r="Q5" s="135" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="134"/>
-    </row>
-    <row r="6" spans="1:18" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="135"/>
+      <c r="U5" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
-      <c r="C6" s="86"/>
-      <c r="D6" s="86"/>
+      <c r="C6" s="81"/>
+      <c r="D6" s="81"/>
       <c r="E6" s="2"/>
       <c r="F6" s="2"/>
-      <c r="G6" s="86"/>
-      <c r="H6" s="86"/>
+      <c r="G6" s="81"/>
+      <c r="H6" s="81"/>
       <c r="I6"/>
-      <c r="J6" s="23"/>
+      <c r="J6" s="19"/>
       <c r="K6" s="4"/>
       <c r="L6" s="4"/>
-      <c r="M6" s="26"/>
+      <c r="M6" s="21"/>
       <c r="N6" s="4"/>
       <c r="O6" s="5"/>
       <c r="P6" s="6"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
-    </row>
-    <row r="7" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
-      <c r="C7" s="86"/>
-      <c r="D7" s="86"/>
+      <c r="C7" s="81"/>
+      <c r="D7" s="81"/>
       <c r="E7" s="2"/>
       <c r="F7" s="2"/>
-      <c r="G7" s="86"/>
-      <c r="H7" s="86"/>
+      <c r="G7" s="81"/>
+      <c r="H7" s="81"/>
       <c r="I7"/>
-      <c r="J7" s="23"/>
+      <c r="J7" s="19"/>
       <c r="K7" s="3"/>
       <c r="L7" s="3"/>
-      <c r="M7" s="27" t="s">
+      <c r="M7" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="N7" s="27"/>
-      <c r="O7" s="27"/>
-      <c r="P7" s="27"/>
-      <c r="Q7" s="27"/>
-      <c r="R7" s="28" t="s">
+      <c r="N7" s="22"/>
+      <c r="O7" s="22"/>
+      <c r="P7" s="22"/>
+      <c r="Q7" s="22"/>
+      <c r="R7" s="23" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="8" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U7" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
-      <c r="B8" s="86"/>
-      <c r="C8" s="86"/>
-      <c r="D8" s="86"/>
+      <c r="B8" s="81"/>
+      <c r="C8" s="81"/>
+      <c r="D8" s="81"/>
       <c r="E8" s="2"/>
       <c r="F8" s="2"/>
-      <c r="G8" s="86"/>
-      <c r="H8" s="86"/>
+      <c r="G8" s="81"/>
+      <c r="H8" s="81"/>
       <c r="I8"/>
-      <c r="J8" s="23"/>
+      <c r="J8" s="19"/>
       <c r="K8" s="3"/>
       <c r="L8" s="3"/>
-      <c r="M8" s="27" t="s">
+      <c r="M8" s="22" t="s">
         <v>9</v>
       </c>
-      <c r="N8" s="27"/>
-      <c r="O8" s="27"/>
-      <c r="P8" s="27"/>
-      <c r="Q8" s="27"/>
-      <c r="R8" s="29" t="s">
+      <c r="N8" s="22"/>
+      <c r="O8" s="22"/>
+      <c r="P8" s="22"/>
+      <c r="Q8" s="22"/>
+      <c r="R8" s="24" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="9" spans="1:18" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U8" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="2"/>
-      <c r="B9" s="86"/>
-      <c r="C9" s="87"/>
-      <c r="D9" s="86"/>
+      <c r="B9" s="81"/>
+      <c r="C9" s="82"/>
+      <c r="D9" s="81"/>
       <c r="E9" s="2"/>
-      <c r="F9" s="86"/>
-      <c r="G9" s="86"/>
-      <c r="H9" s="86"/>
+      <c r="F9" s="81"/>
+      <c r="G9" s="81"/>
+      <c r="H9" s="81"/>
       <c r="I9"/>
-      <c r="J9" s="23"/>
+      <c r="J9" s="19"/>
       <c r="K9" s="3"/>
       <c r="L9" s="3"/>
-      <c r="M9" s="27" t="s">
+      <c r="M9" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="N9" s="27"/>
-      <c r="O9" s="27"/>
-      <c r="P9" s="27"/>
-      <c r="Q9" s="27"/>
-      <c r="R9" s="29" t="s">
+      <c r="N9" s="22"/>
+      <c r="O9" s="22"/>
+      <c r="P9" s="22"/>
+      <c r="Q9" s="22"/>
+      <c r="R9" s="24" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:18" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
       <c r="D10" s="2"/>
       <c r="E10" s="2"/>
-      <c r="F10" s="86"/>
-      <c r="G10" s="87"/>
-      <c r="H10" s="86"/>
+      <c r="F10" s="81"/>
+      <c r="G10" s="82"/>
+      <c r="H10" s="81"/>
       <c r="I10"/>
-      <c r="J10" s="23"/>
+      <c r="J10" s="19"/>
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
-      <c r="M10" s="27" t="s">
+      <c r="M10" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="N10" s="27"/>
-      <c r="O10" s="27"/>
-      <c r="P10" s="27"/>
-      <c r="Q10" s="27"/>
-      <c r="R10" s="30" t="s">
+      <c r="N10" s="22"/>
+      <c r="O10" s="22"/>
+      <c r="P10" s="22"/>
+      <c r="Q10" s="22"/>
+      <c r="R10" s="25" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="11" spans="1:18" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U10" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
       <c r="D11" s="2"/>
       <c r="E11" s="2"/>
-      <c r="F11" s="86"/>
-      <c r="G11" s="87"/>
-      <c r="H11" s="86"/>
+      <c r="F11" s="81"/>
+      <c r="G11" s="82"/>
+      <c r="H11" s="81"/>
       <c r="I11"/>
-      <c r="J11" s="23"/>
+      <c r="J11" s="19"/>
       <c r="K11" s="3"/>
       <c r="L11" s="3"/>
       <c r="M11" s="3"/>
@@ -1838,21 +1877,24 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="18"/>
-    </row>
-    <row r="12" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U11" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
       <c r="D12" s="2"/>
       <c r="E12" s="2"/>
-      <c r="F12" s="86"/>
-      <c r="G12" s="87"/>
-      <c r="H12" s="86"/>
+      <c r="F12" s="81"/>
+      <c r="G12" s="82"/>
+      <c r="H12" s="81"/>
       <c r="I12"/>
-      <c r="J12" s="23"/>
+      <c r="J12" s="19"/>
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
-      <c r="M12" s="85" t="s">
+      <c r="M12" s="80" t="s">
         <v>55</v>
       </c>
       <c r="N12" s="3"/>
@@ -1860,40 +1902,46 @@
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="18"/>
-    </row>
-    <row r="13" spans="1:18" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
       <c r="D13" s="2"/>
       <c r="E13" s="2"/>
-      <c r="F13" s="86"/>
-      <c r="G13" s="87"/>
-      <c r="H13" s="86"/>
+      <c r="F13" s="81"/>
+      <c r="G13" s="82"/>
+      <c r="H13" s="81"/>
       <c r="I13"/>
-      <c r="J13" s="23"/>
-      <c r="K13" s="131" t="s">
+      <c r="J13" s="19"/>
+      <c r="K13" s="132" t="s">
         <v>51</v>
       </c>
-      <c r="L13" s="131"/>
-      <c r="M13" s="131"/>
-      <c r="N13" s="131"/>
-      <c r="O13" s="131"/>
-      <c r="P13" s="131"/>
-      <c r="Q13" s="131"/>
-      <c r="R13" s="131"/>
-    </row>
-    <row r="14" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="L13" s="132"/>
+      <c r="M13" s="132"/>
+      <c r="N13" s="132"/>
+      <c r="O13" s="132"/>
+      <c r="P13" s="132"/>
+      <c r="Q13" s="132"/>
+      <c r="R13" s="132"/>
+      <c r="U13" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="88"/>
-      <c r="E14" s="88"/>
-      <c r="F14" s="89"/>
-      <c r="G14" s="87"/>
-      <c r="H14" s="86"/>
+      <c r="C14" s="83"/>
+      <c r="D14" s="83"/>
+      <c r="E14" s="83"/>
+      <c r="F14" s="84"/>
+      <c r="G14" s="82"/>
+      <c r="H14" s="81"/>
       <c r="I14"/>
-      <c r="J14" s="23"/>
+      <c r="J14" s="19"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
         <v>41</v>
@@ -1904,249 +1952,283 @@
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="18"/>
-    </row>
-    <row r="15" spans="1:18" s="22" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="2"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="2"/>
-      <c r="D15" s="2"/>
-      <c r="E15" s="2"/>
-      <c r="F15" s="86"/>
-      <c r="G15" s="87"/>
-      <c r="H15" s="86"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="24"/>
-      <c r="K15" s="20"/>
-      <c r="L15" s="20"/>
-      <c r="M15" s="20"/>
-      <c r="N15" s="20"/>
-      <c r="O15" s="20"/>
-      <c r="P15" s="20"/>
-      <c r="Q15" s="20"/>
-      <c r="R15" s="21"/>
-    </row>
-    <row r="16" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A16" s="90"/>
-      <c r="B16" s="90"/>
-      <c r="C16" s="128"/>
-      <c r="D16" s="128"/>
-      <c r="E16" s="128"/>
-      <c r="F16" s="128"/>
-      <c r="G16" s="128"/>
-      <c r="H16" s="128"/>
+      <c r="U14" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="90" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="103"/>
+      <c r="B15" s="103"/>
+      <c r="C15" s="103"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="103"/>
+      <c r="F15" s="104"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="104"/>
+      <c r="I15" s="104"/>
+      <c r="J15" s="104"/>
+      <c r="K15" s="106"/>
+      <c r="L15" s="106"/>
+      <c r="M15" s="106"/>
+      <c r="N15" s="106"/>
+      <c r="O15" s="106"/>
+      <c r="P15" s="106"/>
+      <c r="Q15" s="106"/>
+      <c r="R15" s="107"/>
+      <c r="S15" s="108"/>
+      <c r="U15" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="85"/>
+      <c r="B16" s="85"/>
+      <c r="C16" s="129"/>
+      <c r="D16" s="129"/>
+      <c r="E16" s="129"/>
+      <c r="F16" s="129"/>
+      <c r="G16" s="129"/>
+      <c r="H16" s="129"/>
       <c r="I16" s="17"/>
-      <c r="J16" s="23"/>
+      <c r="J16" s="19"/>
       <c r="K16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="128" t="s">
+      <c r="M16" s="129" t="s">
         <v>49</v>
       </c>
-      <c r="N16" s="128"/>
-      <c r="O16" s="128"/>
-      <c r="P16" s="128"/>
-      <c r="Q16" s="128"/>
-      <c r="R16" s="128"/>
-    </row>
-    <row r="17" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="91"/>
-      <c r="B17" s="91"/>
-      <c r="C17" s="92"/>
-      <c r="D17" s="92"/>
-      <c r="E17" s="92"/>
-      <c r="F17" s="93"/>
-      <c r="G17" s="129"/>
-      <c r="H17" s="129"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="35"/>
-      <c r="L17" s="35"/>
-      <c r="M17" s="31" t="s">
+      <c r="N16" s="129"/>
+      <c r="O16" s="129"/>
+      <c r="P16" s="129"/>
+      <c r="Q16" s="129"/>
+      <c r="R16" s="129"/>
+      <c r="U16" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="86"/>
+      <c r="B17" s="86"/>
+      <c r="C17" s="87"/>
+      <c r="D17" s="87"/>
+      <c r="E17" s="87"/>
+      <c r="F17" s="88"/>
+      <c r="G17" s="130"/>
+      <c r="H17" s="130"/>
+      <c r="I17" s="28"/>
+      <c r="J17" s="29"/>
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="26" t="s">
         <v>13</v>
       </c>
-      <c r="N17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="32" t="s">
+      <c r="N17" s="26"/>
+      <c r="O17" s="26"/>
+      <c r="P17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="130" t="s">
+      <c r="Q17" s="131" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="130"/>
-    </row>
-    <row r="18" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A18" s="89"/>
-      <c r="B18" s="89"/>
-      <c r="C18" s="94"/>
-      <c r="D18" s="94"/>
-      <c r="E18" s="94"/>
-      <c r="F18" s="94"/>
-      <c r="G18" s="94"/>
-      <c r="I18" s="37"/>
-      <c r="J18" s="34"/>
-      <c r="K18" s="38"/>
-      <c r="L18" s="38"/>
-      <c r="M18" s="36" t="s">
+      <c r="R17" s="131"/>
+      <c r="U17" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="84"/>
+      <c r="B18" s="84"/>
+      <c r="C18" s="89"/>
+      <c r="D18" s="89"/>
+      <c r="E18" s="89"/>
+      <c r="F18" s="89"/>
+      <c r="G18" s="89"/>
+      <c r="I18" s="32"/>
+      <c r="J18" s="29"/>
+      <c r="K18" s="33"/>
+      <c r="L18" s="33"/>
+      <c r="M18" s="31" t="s">
         <v>15</v>
       </c>
-      <c r="N18" s="36"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="36"/>
-    </row>
-    <row r="19" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A19" s="89"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="94"/>
-      <c r="D19" s="94"/>
-      <c r="E19" s="94"/>
-      <c r="F19" s="94"/>
-      <c r="G19" s="94"/>
-      <c r="H19" s="96"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="34"/>
-      <c r="K19" s="38"/>
-      <c r="L19" s="38"/>
-      <c r="M19" s="36"/>
-      <c r="N19" s="36"/>
-      <c r="O19" s="36"/>
-      <c r="P19" s="36"/>
-      <c r="Q19" s="36"/>
-      <c r="R19" s="37" t="s">
+      <c r="N18" s="31"/>
+      <c r="O18" s="31"/>
+      <c r="P18" s="31"/>
+      <c r="Q18" s="31"/>
+      <c r="U18" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="84"/>
+      <c r="B19" s="84"/>
+      <c r="C19" s="89"/>
+      <c r="D19" s="89"/>
+      <c r="E19" s="89"/>
+      <c r="F19" s="89"/>
+      <c r="G19" s="89"/>
+      <c r="H19" s="91"/>
+      <c r="I19" s="32"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="33"/>
+      <c r="L19" s="33"/>
+      <c r="M19" s="31"/>
+      <c r="N19" s="31"/>
+      <c r="O19" s="31"/>
+      <c r="P19" s="31"/>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="32" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="1:19" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="89"/>
-      <c r="B20" s="89"/>
-      <c r="C20" s="110"/>
-      <c r="D20" s="110"/>
-      <c r="E20" s="110"/>
-      <c r="F20" s="110"/>
-      <c r="G20" s="110"/>
-      <c r="H20" s="110"/>
-      <c r="I20" s="39"/>
-      <c r="J20" s="34"/>
-      <c r="K20" s="38"/>
-      <c r="L20" s="38"/>
-      <c r="M20" s="111" t="s">
+      <c r="U19" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A20" s="84"/>
+      <c r="B20" s="84"/>
+      <c r="C20" s="111"/>
+      <c r="D20" s="111"/>
+      <c r="E20" s="111"/>
+      <c r="F20" s="111"/>
+      <c r="G20" s="111"/>
+      <c r="H20" s="111"/>
+      <c r="I20" s="34"/>
+      <c r="J20" s="29"/>
+      <c r="K20" s="33"/>
+      <c r="L20" s="33"/>
+      <c r="M20" s="112" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="111"/>
-      <c r="O20" s="111"/>
-      <c r="P20" s="111"/>
-      <c r="Q20" s="111"/>
-      <c r="R20" s="111"/>
-    </row>
-    <row r="21" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A21" s="89"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="52"/>
-      <c r="D21" s="52"/>
-      <c r="E21" s="52"/>
-      <c r="F21" s="52"/>
-      <c r="G21" s="97"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="34"/>
-      <c r="K21" s="38"/>
-      <c r="L21" s="38"/>
-      <c r="M21" s="38" t="s">
+      <c r="N20" s="112"/>
+      <c r="O20" s="112"/>
+      <c r="P20" s="112"/>
+      <c r="Q20" s="112"/>
+      <c r="R20" s="112"/>
+      <c r="U20" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="84"/>
+      <c r="B21" s="84"/>
+      <c r="C21" s="47"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="47"/>
+      <c r="G21" s="92"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="29"/>
+      <c r="K21" s="33"/>
+      <c r="L21" s="33"/>
+      <c r="M21" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
-      <c r="Q21" s="40"/>
-      <c r="R21" s="41" t="s">
+      <c r="N21" s="33"/>
+      <c r="O21" s="33"/>
+      <c r="P21" s="33"/>
+      <c r="Q21" s="35"/>
+      <c r="R21" s="36" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A22" s="89"/>
-      <c r="B22" s="89"/>
-      <c r="C22" s="52"/>
-      <c r="D22" s="52"/>
-      <c r="E22" s="52"/>
-      <c r="F22" s="52"/>
-      <c r="G22" s="97"/>
-      <c r="H22" s="42"/>
-      <c r="I22" s="42"/>
-      <c r="J22" s="34"/>
-      <c r="K22" s="38"/>
-      <c r="L22" s="38"/>
-      <c r="M22" s="38" t="s">
+      <c r="U21" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="84"/>
+      <c r="B22" s="84"/>
+      <c r="C22" s="47"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="47"/>
+      <c r="G22" s="92"/>
+      <c r="H22" s="37"/>
+      <c r="I22" s="37"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="33"/>
+      <c r="L22" s="33"/>
+      <c r="M22" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
-      <c r="Q22" s="40"/>
-      <c r="R22" s="43" t="s">
+      <c r="N22" s="33"/>
+      <c r="O22" s="33"/>
+      <c r="P22" s="33"/>
+      <c r="Q22" s="35"/>
+      <c r="R22" s="38" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="23" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A23" s="89"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="52"/>
-      <c r="D23" s="52"/>
-      <c r="E23" s="52"/>
-      <c r="F23" s="52"/>
-      <c r="G23" s="97"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="34"/>
-      <c r="K23" s="38"/>
-      <c r="L23" s="38"/>
-      <c r="M23" s="38" t="s">
+      <c r="U22" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="84"/>
+      <c r="B23" s="84"/>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="E23" s="47"/>
+      <c r="F23" s="47"/>
+      <c r="G23" s="92"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="29"/>
+      <c r="K23" s="33"/>
+      <c r="L23" s="33"/>
+      <c r="M23" s="33" t="s">
         <v>10</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
-      <c r="Q23" s="40"/>
-      <c r="R23" s="43" t="s">
+      <c r="N23" s="33"/>
+      <c r="O23" s="33"/>
+      <c r="P23" s="33"/>
+      <c r="Q23" s="35"/>
+      <c r="R23" s="38" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="24" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="89"/>
-      <c r="B24" s="89"/>
-      <c r="C24" s="52"/>
-      <c r="D24" s="52"/>
-      <c r="E24" s="52"/>
-      <c r="F24" s="52"/>
-      <c r="G24" s="97"/>
-      <c r="H24" s="45"/>
-      <c r="I24" s="45"/>
-      <c r="J24" s="34"/>
-      <c r="K24" s="38"/>
-      <c r="L24" s="38"/>
-      <c r="M24" s="38" t="s">
+      <c r="U23" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="84"/>
+      <c r="B24" s="84"/>
+      <c r="C24" s="47"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="47"/>
+      <c r="G24" s="92"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="40"/>
+      <c r="J24" s="29"/>
+      <c r="K24" s="33"/>
+      <c r="L24" s="33"/>
+      <c r="M24" s="33" t="s">
         <v>47</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
-      <c r="Q24" s="40"/>
-      <c r="R24" s="44" t="s">
+      <c r="N24" s="33"/>
+      <c r="O24" s="33"/>
+      <c r="P24" s="33"/>
+      <c r="Q24" s="35"/>
+      <c r="R24" s="39" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="25" spans="1:19" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="89"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="88"/>
-      <c r="E25" s="88"/>
-      <c r="F25" s="89"/>
-      <c r="G25" s="97"/>
-      <c r="H25" s="45"/>
-      <c r="I25" s="45"/>
-      <c r="J25" s="34"/>
-      <c r="K25" s="38"/>
+      <c r="U24" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="84"/>
+      <c r="B25" s="84"/>
+      <c r="C25" s="83"/>
+      <c r="D25" s="83"/>
+      <c r="E25" s="83"/>
+      <c r="F25" s="84"/>
+      <c r="G25" s="92"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="40"/>
+      <c r="J25" s="29"/>
+      <c r="K25" s="33"/>
       <c r="L25" s="3" t="s">
         <v>41</v>
       </c>
@@ -2154,20 +2236,23 @@
       <c r="O25" s="10" t="s">
         <v>42</v>
       </c>
-      <c r="Q25" s="40"/>
-      <c r="R25" s="45"/>
-    </row>
-    <row r="26" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="Q25" s="35"/>
+      <c r="R25" s="40"/>
+      <c r="U25" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="98"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="89"/>
-      <c r="G26" s="89"/>
-      <c r="H26" s="89"/>
+      <c r="C26" s="84"/>
+      <c r="D26" s="93"/>
+      <c r="E26" s="93"/>
+      <c r="F26" s="84"/>
+      <c r="G26" s="84"/>
+      <c r="H26" s="84"/>
       <c r="I26" s="10"/>
-      <c r="J26" s="23"/>
+      <c r="J26" s="19"/>
       <c r="K26" s="11"/>
       <c r="L26" s="11"/>
       <c r="M26" s="10"/>
@@ -2176,284 +2261,320 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-    </row>
-    <row r="27" spans="1:19" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="52"/>
-      <c r="B27" s="116"/>
-      <c r="C27" s="116"/>
-      <c r="D27" s="99"/>
-      <c r="E27" s="99"/>
-      <c r="F27" s="99"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="49"/>
-      <c r="I27" s="49"/>
-      <c r="J27" s="34"/>
-      <c r="K27" s="46"/>
-      <c r="L27" s="117" t="s">
+      <c r="U26" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A27" s="47"/>
+      <c r="B27" s="117"/>
+      <c r="C27" s="117"/>
+      <c r="D27" s="94"/>
+      <c r="E27" s="94"/>
+      <c r="F27" s="94"/>
+      <c r="G27" s="94"/>
+      <c r="H27" s="44"/>
+      <c r="I27" s="44"/>
+      <c r="J27" s="29"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="118" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="118"/>
-      <c r="N27" s="47" t="s">
+      <c r="M27" s="119"/>
+      <c r="N27" s="42" t="s">
         <v>19</v>
       </c>
-      <c r="O27" s="47" t="s">
+      <c r="O27" s="42" t="s">
         <v>20</v>
       </c>
-      <c r="P27" s="47" t="s">
+      <c r="P27" s="42" t="s">
         <v>21</v>
       </c>
-      <c r="Q27" s="47" t="s">
+      <c r="Q27" s="42" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="48" t="s">
+      <c r="R27" s="43" t="s">
         <v>23</v>
       </c>
       <c r="S27" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="28" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="51" t="s">
+      <c r="U27" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B28" s="51"/>
-      <c r="C28" s="52"/>
-      <c r="D28" s="53"/>
-      <c r="E28" s="53"/>
-      <c r="F28" s="52"/>
-      <c r="G28" s="52"/>
-      <c r="H28" s="52"/>
-      <c r="I28" s="52"/>
-      <c r="J28" s="34"/>
-      <c r="K28" s="50"/>
-      <c r="L28" s="51"/>
-      <c r="M28" s="52"/>
-      <c r="N28" s="53"/>
-      <c r="O28" s="53"/>
-      <c r="P28" s="52"/>
-      <c r="Q28" s="52"/>
-      <c r="R28" s="54"/>
-    </row>
-    <row r="29" spans="1:19" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A29" s="100"/>
-      <c r="B29" s="119"/>
-      <c r="C29" s="119"/>
-      <c r="D29" s="101"/>
-      <c r="E29" s="101"/>
-      <c r="F29" s="52"/>
-      <c r="G29" s="52"/>
-      <c r="H29" s="59"/>
-      <c r="I29" s="59"/>
-      <c r="J29" s="34"/>
-      <c r="K29" s="55" t="s">
+      <c r="B28" s="46"/>
+      <c r="C28" s="47"/>
+      <c r="D28" s="48"/>
+      <c r="E28" s="48"/>
+      <c r="F28" s="47"/>
+      <c r="G28" s="47"/>
+      <c r="H28" s="47"/>
+      <c r="I28" s="47"/>
+      <c r="J28" s="29"/>
+      <c r="K28" s="45"/>
+      <c r="L28" s="46"/>
+      <c r="M28" s="47"/>
+      <c r="N28" s="48"/>
+      <c r="O28" s="48"/>
+      <c r="P28" s="47"/>
+      <c r="Q28" s="47"/>
+      <c r="R28" s="49"/>
+      <c r="U28" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="95"/>
+      <c r="B29" s="120"/>
+      <c r="C29" s="120"/>
+      <c r="D29" s="96"/>
+      <c r="E29" s="96"/>
+      <c r="F29" s="47"/>
+      <c r="G29" s="47"/>
+      <c r="H29" s="54"/>
+      <c r="I29" s="54"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="50" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="120" t="s">
+      <c r="L29" s="121" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="121"/>
-      <c r="N29" s="56" t="s">
+      <c r="M29" s="122"/>
+      <c r="N29" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="56" t="s">
+      <c r="O29" s="51" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="57" t="s">
+      <c r="P29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="57" t="s">
+      <c r="Q29" s="52" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="58" t="s">
+      <c r="R29" s="53" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="102" t="s">
+      <c r="U29" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="97" t="s">
         <v>1</v>
       </c>
-      <c r="B30" s="51"/>
-      <c r="C30" s="52"/>
-      <c r="D30" s="53"/>
-      <c r="E30" s="53"/>
-      <c r="F30" s="52"/>
-      <c r="G30" s="52"/>
-      <c r="H30" s="52"/>
-      <c r="I30" s="52"/>
-      <c r="J30" s="34"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="51"/>
-      <c r="M30" s="52"/>
-      <c r="N30" s="53"/>
-      <c r="O30" s="53"/>
-      <c r="P30" s="52"/>
-      <c r="Q30" s="52"/>
-      <c r="R30" s="54"/>
-    </row>
-    <row r="31" spans="1:19" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="51"/>
-      <c r="B31" s="115"/>
-      <c r="C31" s="115"/>
-      <c r="D31" s="115"/>
-      <c r="E31" s="103"/>
-      <c r="F31" s="59"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="104"/>
-      <c r="I31" s="59"/>
-      <c r="J31" s="34"/>
-      <c r="K31" s="60"/>
-      <c r="L31" s="112" t="s">
+      <c r="B30" s="46"/>
+      <c r="C30" s="47"/>
+      <c r="D30" s="48"/>
+      <c r="E30" s="48"/>
+      <c r="F30" s="47"/>
+      <c r="G30" s="47"/>
+      <c r="H30" s="47"/>
+      <c r="I30" s="47"/>
+      <c r="J30" s="29"/>
+      <c r="K30" s="45"/>
+      <c r="L30" s="46"/>
+      <c r="M30" s="47"/>
+      <c r="N30" s="48"/>
+      <c r="O30" s="48"/>
+      <c r="P30" s="47"/>
+      <c r="Q30" s="47"/>
+      <c r="R30" s="49"/>
+      <c r="U30" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="46"/>
+      <c r="B31" s="116"/>
+      <c r="C31" s="116"/>
+      <c r="D31" s="116"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="54"/>
+      <c r="G31" s="99"/>
+      <c r="H31" s="99"/>
+      <c r="I31" s="54"/>
+      <c r="J31" s="29"/>
+      <c r="K31" s="55"/>
+      <c r="L31" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="M31" s="113"/>
-      <c r="N31" s="114"/>
-      <c r="O31" s="68" t="s">
+      <c r="M31" s="114"/>
+      <c r="N31" s="115"/>
+      <c r="O31" s="63" t="s">
         <v>34</v>
       </c>
-      <c r="P31" s="61"/>
-      <c r="Q31" s="69" t="s">
+      <c r="P31" s="56"/>
+      <c r="Q31" s="64" t="s">
         <v>44</v>
       </c>
-      <c r="R31" s="69" t="s">
+      <c r="R31" s="64" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="32" spans="1:19" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="51"/>
-      <c r="B32" s="62"/>
-      <c r="C32" s="62"/>
-      <c r="D32" s="62"/>
-      <c r="E32" s="53"/>
-      <c r="F32" s="59"/>
-      <c r="G32" s="59"/>
-      <c r="H32" s="59"/>
-      <c r="I32" s="59"/>
-      <c r="J32" s="34"/>
-      <c r="K32" s="51"/>
-      <c r="L32" s="62"/>
-      <c r="M32" s="62"/>
-      <c r="N32" s="62"/>
-      <c r="O32" s="53"/>
-      <c r="P32" s="59"/>
-      <c r="Q32" s="59"/>
-      <c r="R32" s="59"/>
-    </row>
-    <row r="33" spans="1:18" s="67" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="95"/>
-      <c r="B33" s="122"/>
-      <c r="C33" s="122"/>
-      <c r="D33" s="122"/>
-      <c r="E33" s="122"/>
-      <c r="F33" s="95"/>
-      <c r="G33" s="95"/>
-      <c r="H33" s="95"/>
+      <c r="U31" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A32" s="46"/>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
+      <c r="D32" s="57"/>
+      <c r="E32" s="48"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="29"/>
+      <c r="K32" s="46"/>
+      <c r="L32" s="57"/>
+      <c r="M32" s="57"/>
+      <c r="N32" s="57"/>
+      <c r="O32" s="48"/>
+      <c r="P32" s="54"/>
+      <c r="Q32" s="54"/>
+      <c r="R32" s="54"/>
+      <c r="U32" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A33" s="90"/>
+      <c r="B33" s="123"/>
+      <c r="C33" s="123"/>
+      <c r="D33" s="123"/>
+      <c r="E33" s="123"/>
+      <c r="F33" s="90"/>
+      <c r="G33" s="90"/>
+      <c r="H33" s="90"/>
       <c r="I33" s="1"/>
-      <c r="J33" s="25"/>
+      <c r="J33" s="20"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="123" t="s">
+      <c r="L33" s="124" t="s">
         <v>50</v>
       </c>
-      <c r="M33" s="124"/>
-      <c r="N33" s="124"/>
-      <c r="O33" s="125"/>
+      <c r="M33" s="125"/>
+      <c r="N33" s="125"/>
+      <c r="O33" s="126"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
-    </row>
-    <row r="34" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A34" s="64"/>
-      <c r="B34" s="91"/>
-      <c r="C34" s="105"/>
-      <c r="D34" s="105"/>
-      <c r="E34" s="106"/>
+      <c r="U33" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A34" s="59"/>
+      <c r="B34" s="86"/>
+      <c r="C34" s="100"/>
+      <c r="D34" s="100"/>
+      <c r="E34" s="101"/>
       <c r="F34" s="16"/>
       <c r="G34" s="16"/>
       <c r="H34" s="16"/>
       <c r="I34" s="16"/>
-      <c r="J34" s="66"/>
-      <c r="K34" s="64"/>
-      <c r="L34" s="73"/>
-      <c r="M34" s="71" t="s">
+      <c r="J34" s="61"/>
+      <c r="K34" s="59"/>
+      <c r="L34" s="68"/>
+      <c r="M34" s="66" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="71" t="s">
+      <c r="N34" s="66" t="s">
         <v>53</v>
       </c>
-      <c r="O34" s="72" t="s">
+      <c r="O34" s="67" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="35" spans="1:18" s="67" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A35" s="51" t="s">
+      <c r="U34" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="46" t="s">
         <v>35</v>
       </c>
-      <c r="B35" s="63"/>
-      <c r="C35" s="63"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="101"/>
-      <c r="F35" s="59"/>
-      <c r="G35" s="59"/>
-      <c r="H35" s="59"/>
-      <c r="I35" s="59"/>
-      <c r="J35" s="34"/>
-      <c r="K35" s="51"/>
-      <c r="L35" s="82"/>
-      <c r="M35" s="83"/>
-      <c r="N35" s="83"/>
-      <c r="O35" s="84"/>
-      <c r="P35" s="59"/>
-      <c r="Q35" s="59"/>
-      <c r="R35" s="59"/>
-    </row>
-    <row r="36" spans="1:18" s="67" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A36" s="64"/>
-      <c r="B36" s="91"/>
-      <c r="C36" s="105"/>
-      <c r="D36" s="105"/>
-      <c r="E36" s="106"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="58"/>
+      <c r="E35" s="96"/>
+      <c r="F35" s="54"/>
+      <c r="G35" s="54"/>
+      <c r="H35" s="54"/>
+      <c r="I35" s="54"/>
+      <c r="J35" s="29"/>
+      <c r="K35" s="46"/>
+      <c r="L35" s="77"/>
+      <c r="M35" s="78"/>
+      <c r="N35" s="78"/>
+      <c r="O35" s="79"/>
+      <c r="P35" s="54"/>
+      <c r="Q35" s="54"/>
+      <c r="R35" s="54"/>
+      <c r="U35" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A36" s="59"/>
+      <c r="B36" s="86"/>
+      <c r="C36" s="100"/>
+      <c r="D36" s="100"/>
+      <c r="E36" s="101"/>
       <c r="F36" s="16"/>
       <c r="G36" s="16"/>
       <c r="H36" s="16"/>
       <c r="I36" s="16"/>
-      <c r="J36" s="66"/>
-      <c r="K36" s="64"/>
-      <c r="L36" s="73" t="s">
+      <c r="J36" s="61"/>
+      <c r="K36" s="59"/>
+      <c r="L36" s="68" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="71" t="s">
+      <c r="M36" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="N36" s="71" t="s">
+      <c r="N36" s="66" t="s">
         <v>38</v>
       </c>
-      <c r="O36" s="72" t="s">
+      <c r="O36" s="67" t="s">
         <v>39</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
-    </row>
-    <row r="37" spans="1:18" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="64"/>
-      <c r="B37" s="91"/>
-      <c r="C37" s="107"/>
-      <c r="D37" s="107"/>
-      <c r="E37" s="91"/>
+      <c r="U36" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A37" s="59"/>
+      <c r="B37" s="86"/>
+      <c r="C37" s="102"/>
+      <c r="D37" s="102"/>
+      <c r="E37" s="86"/>
       <c r="F37" s="16"/>
       <c r="G37" s="16"/>
       <c r="H37" s="16"/>
       <c r="I37" s="16"/>
-      <c r="J37" s="66"/>
-      <c r="K37" s="64"/>
-      <c r="L37" s="74"/>
-      <c r="M37" s="65"/>
-      <c r="N37" s="65"/>
-      <c r="O37" s="70"/>
+      <c r="J37" s="61"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="69"/>
+      <c r="M37" s="60"/>
+      <c r="N37" s="60"/>
+      <c r="O37" s="65"/>
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
-    </row>
-    <row r="38" spans="1:18" x14ac:dyDescent="0.25">
+      <c r="U37" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A38" s="13" t="s">
         <v>1</v>
       </c>
@@ -2465,7 +2586,7 @@
       <c r="G38" s="16"/>
       <c r="H38" s="16"/>
       <c r="I38" s="16"/>
-      <c r="J38" s="23"/>
+      <c r="J38" s="19"/>
       <c r="K38" s="13"/>
       <c r="L38" s="14"/>
       <c r="M38" s="14"/>
@@ -2474,8 +2595,11 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
-    </row>
-    <row r="39" spans="1:18" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2485,23 +2609,26 @@
       <c r="G39" s="16"/>
       <c r="H39" s="16"/>
       <c r="I39" s="16"/>
-      <c r="J39" s="23"/>
+      <c r="J39" s="19"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="108" t="s">
+      <c r="L39" s="109" t="s">
         <v>45</v>
       </c>
-      <c r="M39" s="109"/>
-      <c r="N39" s="109"/>
-      <c r="O39" s="109"/>
-      <c r="P39" s="109"/>
-      <c r="Q39" s="109"/>
-      <c r="R39" s="109"/>
-    </row>
-    <row r="40" spans="1:18" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="110"/>
+      <c r="N39" s="110"/>
+      <c r="O39" s="110"/>
+      <c r="P39" s="110"/>
+      <c r="Q39" s="110"/>
+      <c r="R39" s="110"/>
+      <c r="U39" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
-      <c r="D40" s="81" t="s">
+      <c r="D40" s="76" t="s">
         <v>46</v>
       </c>
       <c r="E40" s="15"/>
@@ -2509,18 +2636,21 @@
       <c r="G40" s="16"/>
       <c r="H40" s="16"/>
       <c r="I40" s="16"/>
-      <c r="J40" s="23"/>
+      <c r="J40" s="19"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="109"/>
-      <c r="M40" s="109"/>
-      <c r="N40" s="109"/>
-      <c r="O40" s="109"/>
-      <c r="P40" s="109"/>
-      <c r="Q40" s="109"/>
-      <c r="R40" s="109"/>
-    </row>
-    <row r="41" spans="1:18" x14ac:dyDescent="0.25">
-      <c r="A41" s="86" t="s">
+      <c r="L40" s="110"/>
+      <c r="M40" s="110"/>
+      <c r="N40" s="110"/>
+      <c r="O40" s="110"/>
+      <c r="P40" s="110"/>
+      <c r="Q40" s="110"/>
+      <c r="R40" s="110"/>
+      <c r="U40" s="137" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A41" s="81" t="s">
         <v>1</v>
       </c>
       <c r="B41" s="14"/>
@@ -2531,15 +2661,15 @@
       <c r="G41" s="16"/>
       <c r="H41" s="16"/>
       <c r="I41" s="16"/>
-      <c r="J41" s="23"/>
+      <c r="J41" s="19"/>
       <c r="K41" s="13"/>
-      <c r="L41" s="80"/>
-      <c r="M41" s="80"/>
-      <c r="N41" s="80"/>
-      <c r="O41" s="80"/>
-      <c r="P41" s="80"/>
-      <c r="Q41" s="80"/>
-      <c r="R41" s="80"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="75"/>
+      <c r="P41" s="75"/>
+      <c r="Q41" s="75"/>
+      <c r="R41" s="75"/>
     </row>
   </sheetData>
   <mergeCells count="20">

--- a/app/Отчеты/Квитанции доверие.xlsx
+++ b/app/Отчеты/Квитанции доверие.xlsx
@@ -5,11 +5,11 @@
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Алексей\.platypus\reports\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\music\.platypusreports\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="555" yWindow="555" windowWidth="20730" windowHeight="11760"/>
+    <workbookView xWindow="558" yWindow="558" windowWidth="20730" windowHeight="11760"/>
   </bookViews>
   <sheets>
     <sheet name="Лист3" sheetId="3" r:id="rId1"/>
@@ -90,9 +90,6 @@
   </si>
   <si>
     <t>Льгота</t>
-  </si>
-  <si>
-    <t>Перерасчет</t>
   </si>
   <si>
     <t>Начислено</t>
@@ -190,10 +187,6 @@
       </rPr>
       <t>}</t>
     </r>
-  </si>
-  <si>
-    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
-Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.:  8-908-564-80-32 (Набокин В.И.)                                                     </t>
   </si>
   <si>
     <t>${Group.percent}</t>
@@ -276,15 +269,22 @@
   <si>
     <t>|</t>
   </si>
+  <si>
+    <t>Перерасчет за 2018г.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">г.Иваново ул.Куконковых д.142 п.4 оф. Оплату произвести до ${lc.payDay}.                                                                            
+Тел.(Факс) офиса: 56-32-64. В случае аварии звонить по тел.: 8-905-109-40-73                                         </t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$-419]mmmm\ yyyy;@"/>
   </numFmts>
-  <fonts count="22" x14ac:knownFonts="1">
+  <fonts count="22">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1111,6 +1111,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
@@ -1195,10 +1199,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="5" applyFont="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="54">
@@ -1597,39 +1597,39 @@
   </sheetPr>
   <dimension ref="A1:U41"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="L1" workbookViewId="0">
-      <selection activeCell="T10" sqref="T10"/>
+    <sheetView tabSelected="1" topLeftCell="L16" workbookViewId="0">
+      <selection activeCell="L39" sqref="L39:R40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="10.83984375" defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.7109375" style="90" hidden="1" customWidth="1"/>
-    <col min="2" max="2" width="27.7109375" style="90" hidden="1" customWidth="1"/>
-    <col min="3" max="8" width="11.5703125" style="90" hidden="1" customWidth="1"/>
+    <col min="1" max="1" width="4.68359375" style="90" hidden="1" customWidth="1"/>
+    <col min="2" max="2" width="27.68359375" style="90" hidden="1" customWidth="1"/>
+    <col min="3" max="8" width="11.578125" style="90" hidden="1" customWidth="1"/>
     <col min="9" max="9" width="2" style="1" hidden="1" customWidth="1"/>
-    <col min="10" max="10" width="2.140625" style="20" customWidth="1"/>
-    <col min="11" max="11" width="5.7109375" style="1" customWidth="1"/>
-    <col min="12" max="12" width="30.140625" style="1" customWidth="1"/>
-    <col min="13" max="13" width="11.140625" style="1" customWidth="1"/>
-    <col min="14" max="14" width="12.5703125" style="1" customWidth="1"/>
-    <col min="15" max="16" width="11.140625" style="1" customWidth="1"/>
-    <col min="17" max="17" width="11.85546875" style="1" customWidth="1"/>
-    <col min="18" max="18" width="13.28515625" style="1" customWidth="1"/>
-    <col min="19" max="19" width="4.28515625" style="1" customWidth="1"/>
-    <col min="20" max="20" width="113.42578125" style="1" customWidth="1"/>
-    <col min="21" max="21" width="10.85546875" style="137"/>
-    <col min="22" max="16384" width="10.85546875" style="1"/>
+    <col min="10" max="10" width="2.15625" style="20" customWidth="1"/>
+    <col min="11" max="11" width="5.68359375" style="1" customWidth="1"/>
+    <col min="12" max="12" width="30.15625" style="1" customWidth="1"/>
+    <col min="13" max="13" width="11.15625" style="1" customWidth="1"/>
+    <col min="14" max="14" width="12.578125" style="1" customWidth="1"/>
+    <col min="15" max="16" width="11.15625" style="1" customWidth="1"/>
+    <col min="17" max="17" width="11.83984375" style="1" customWidth="1"/>
+    <col min="18" max="18" width="13.26171875" style="1" customWidth="1"/>
+    <col min="19" max="19" width="4.26171875" style="1" customWidth="1"/>
+    <col min="20" max="20" width="113.41796875" style="1" customWidth="1"/>
+    <col min="21" max="21" width="10.83984375" style="110"/>
+    <col min="22" max="16384" width="10.83984375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" ht="0.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" ht="0.75" customHeight="1">
       <c r="A1" s="90" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B1" s="90" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="2" spans="1:21" customFormat="1" x14ac:dyDescent="0.25">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" customFormat="1">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -1641,11 +1641,11 @@
       <c r="G2" s="81"/>
       <c r="H2" s="81"/>
       <c r="J2" s="19"/>
-      <c r="U2" s="136" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="3" spans="1:21" ht="87" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U2" s="109" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="87" customHeight="1">
       <c r="A3" s="81"/>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -1656,23 +1656,23 @@
       <c r="H3" s="81"/>
       <c r="I3"/>
       <c r="J3" s="19"/>
-      <c r="K3" s="133" t="s">
-        <v>57</v>
-      </c>
-      <c r="L3" s="133"/>
-      <c r="M3" s="127" t="s">
-        <v>48</v>
-      </c>
-      <c r="N3" s="128"/>
-      <c r="O3" s="128"/>
-      <c r="P3" s="128"/>
-      <c r="Q3" s="128"/>
-      <c r="R3" s="128"/>
-      <c r="U3" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="4" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="K3" s="135" t="s">
+        <v>55</v>
+      </c>
+      <c r="L3" s="135"/>
+      <c r="M3" s="129" t="s">
+        <v>46</v>
+      </c>
+      <c r="N3" s="130"/>
+      <c r="O3" s="130"/>
+      <c r="P3" s="130"/>
+      <c r="Q3" s="130"/>
+      <c r="R3" s="130"/>
+      <c r="U3" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="18" customHeight="1">
       <c r="A4" s="81"/>
       <c r="B4" s="2"/>
       <c r="C4" s="81"/>
@@ -1692,15 +1692,15 @@
       <c r="P4" s="74" t="s">
         <v>3</v>
       </c>
-      <c r="Q4" s="134" t="s">
+      <c r="Q4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="R4" s="134"/>
-      <c r="U4" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="5" spans="1:21" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="R4" s="136"/>
+      <c r="U4" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" ht="18" customHeight="1">
       <c r="A5" s="81"/>
       <c r="B5" s="2"/>
       <c r="C5" s="81"/>
@@ -1719,15 +1719,15 @@
       <c r="N5" s="71"/>
       <c r="O5" s="72"/>
       <c r="P5" s="70"/>
-      <c r="Q5" s="135" t="s">
+      <c r="Q5" s="137" t="s">
         <v>6</v>
       </c>
-      <c r="R5" s="135"/>
-      <c r="U5" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="6" spans="1:21" ht="7.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="R5" s="137"/>
+      <c r="U5" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" ht="7.5" customHeight="1" thickBot="1">
       <c r="A6" s="2"/>
       <c r="B6" s="2"/>
       <c r="C6" s="81"/>
@@ -1746,11 +1746,11 @@
       <c r="P6" s="6"/>
       <c r="Q6" s="7"/>
       <c r="R6" s="8"/>
-      <c r="U6" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U6" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" ht="15.3">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="81"/>
@@ -1773,11 +1773,11 @@
       <c r="R7" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="U7" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="8" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U7" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" ht="15.3">
       <c r="A8" s="2"/>
       <c r="B8" s="81"/>
       <c r="C8" s="81"/>
@@ -1798,13 +1798,13 @@
       <c r="P8" s="22"/>
       <c r="Q8" s="22"/>
       <c r="R8" s="24" t="s">
-        <v>40</v>
-      </c>
-      <c r="U8" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="9" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="U8" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" ht="15.3">
       <c r="A9" s="2"/>
       <c r="B9" s="81"/>
       <c r="C9" s="82"/>
@@ -1827,11 +1827,11 @@
       <c r="R9" s="24" t="s">
         <v>11</v>
       </c>
-      <c r="U9" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="10" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U9" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" ht="15.6" thickBot="1">
       <c r="A10" s="2"/>
       <c r="B10" s="2"/>
       <c r="C10" s="2"/>
@@ -1845,20 +1845,20 @@
       <c r="K10" s="3"/>
       <c r="L10" s="3"/>
       <c r="M10" s="22" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N10" s="22"/>
       <c r="O10" s="22"/>
       <c r="P10" s="22"/>
       <c r="Q10" s="22"/>
       <c r="R10" s="25" t="s">
-        <v>56</v>
-      </c>
-      <c r="U10" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="U10" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" ht="4" customHeight="1">
       <c r="A11" s="2"/>
       <c r="B11" s="2"/>
       <c r="C11" s="2"/>
@@ -1877,11 +1877,11 @@
       <c r="P11" s="3"/>
       <c r="Q11" s="3"/>
       <c r="R11" s="18"/>
-      <c r="U11" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U11" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="2"/>
       <c r="B12" s="2"/>
       <c r="C12" s="2"/>
@@ -1895,18 +1895,18 @@
       <c r="K12" s="3"/>
       <c r="L12" s="3"/>
       <c r="M12" s="80" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="N12" s="3"/>
       <c r="O12" s="3"/>
       <c r="P12" s="3"/>
       <c r="Q12" s="3"/>
       <c r="R12" s="18"/>
-      <c r="U12" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="13" spans="1:21" ht="33.950000000000003" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U12" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="13" spans="1:21" ht="34" customHeight="1">
       <c r="A13" s="2"/>
       <c r="B13" s="2"/>
       <c r="C13" s="2"/>
@@ -1917,21 +1917,21 @@
       <c r="H13" s="81"/>
       <c r="I13"/>
       <c r="J13" s="19"/>
-      <c r="K13" s="132" t="s">
-        <v>51</v>
-      </c>
-      <c r="L13" s="132"/>
-      <c r="M13" s="132"/>
-      <c r="N13" s="132"/>
-      <c r="O13" s="132"/>
-      <c r="P13" s="132"/>
-      <c r="Q13" s="132"/>
-      <c r="R13" s="132"/>
-      <c r="U13" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="K13" s="134" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="134"/>
+      <c r="M13" s="134"/>
+      <c r="N13" s="134"/>
+      <c r="O13" s="134"/>
+      <c r="P13" s="134"/>
+      <c r="Q13" s="134"/>
+      <c r="R13" s="134"/>
+      <c r="U13" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="2"/>
       <c r="B14" s="2"/>
       <c r="C14" s="83"/>
@@ -1944,19 +1944,19 @@
       <c r="J14" s="19"/>
       <c r="K14" s="3"/>
       <c r="L14" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N14" s="3"/>
       <c r="O14" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q14" s="3"/>
       <c r="R14" s="18"/>
-      <c r="U14" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="15" spans="1:21" s="90" customFormat="1" ht="3.95" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U14" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" s="90" customFormat="1" ht="4" customHeight="1">
       <c r="A15" s="103"/>
       <c r="B15" s="103"/>
       <c r="C15" s="103"/>
@@ -1976,46 +1976,46 @@
       <c r="Q15" s="106"/>
       <c r="R15" s="107"/>
       <c r="S15" s="108"/>
-      <c r="U15" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U15" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="85"/>
       <c r="B16" s="85"/>
-      <c r="C16" s="129"/>
-      <c r="D16" s="129"/>
-      <c r="E16" s="129"/>
-      <c r="F16" s="129"/>
-      <c r="G16" s="129"/>
-      <c r="H16" s="129"/>
+      <c r="C16" s="131"/>
+      <c r="D16" s="131"/>
+      <c r="E16" s="131"/>
+      <c r="F16" s="131"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="131"/>
       <c r="I16" s="17"/>
       <c r="J16" s="19"/>
       <c r="K16" s="9" t="s">
         <v>12</v>
       </c>
       <c r="L16" s="9"/>
-      <c r="M16" s="129" t="s">
-        <v>49</v>
-      </c>
-      <c r="N16" s="129"/>
-      <c r="O16" s="129"/>
-      <c r="P16" s="129"/>
-      <c r="Q16" s="129"/>
-      <c r="R16" s="129"/>
-      <c r="U16" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="17" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="M16" s="131" t="s">
+        <v>47</v>
+      </c>
+      <c r="N16" s="131"/>
+      <c r="O16" s="131"/>
+      <c r="P16" s="131"/>
+      <c r="Q16" s="131"/>
+      <c r="R16" s="131"/>
+      <c r="U16" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="17" spans="1:21" ht="15.6">
       <c r="A17" s="86"/>
       <c r="B17" s="86"/>
       <c r="C17" s="87"/>
       <c r="D17" s="87"/>
       <c r="E17" s="87"/>
       <c r="F17" s="88"/>
-      <c r="G17" s="130"/>
-      <c r="H17" s="130"/>
+      <c r="G17" s="132"/>
+      <c r="H17" s="132"/>
       <c r="I17" s="28"/>
       <c r="J17" s="29"/>
       <c r="K17" s="30"/>
@@ -2028,15 +2028,15 @@
       <c r="P17" s="27" t="s">
         <v>14</v>
       </c>
-      <c r="Q17" s="131" t="s">
+      <c r="Q17" s="133" t="s">
         <v>5</v>
       </c>
-      <c r="R17" s="131"/>
-      <c r="U17" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="18" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="R17" s="133"/>
+      <c r="U17" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="18" spans="1:21" ht="15.6">
       <c r="A18" s="84"/>
       <c r="B18" s="84"/>
       <c r="C18" s="89"/>
@@ -2055,11 +2055,11 @@
       <c r="O18" s="31"/>
       <c r="P18" s="31"/>
       <c r="Q18" s="31"/>
-      <c r="U18" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="19" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U18" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="15.6">
       <c r="A19" s="84"/>
       <c r="B19" s="84"/>
       <c r="C19" s="89"/>
@@ -2080,36 +2080,36 @@
       <c r="R19" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="20" spans="1:21" ht="29.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U19" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="29.1" customHeight="1" thickBot="1">
       <c r="A20" s="84"/>
       <c r="B20" s="84"/>
-      <c r="C20" s="111"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="111"/>
-      <c r="G20" s="111"/>
-      <c r="H20" s="111"/>
+      <c r="C20" s="113"/>
+      <c r="D20" s="113"/>
+      <c r="E20" s="113"/>
+      <c r="F20" s="113"/>
+      <c r="G20" s="113"/>
+      <c r="H20" s="113"/>
       <c r="I20" s="34"/>
       <c r="J20" s="29"/>
       <c r="K20" s="33"/>
       <c r="L20" s="33"/>
-      <c r="M20" s="112" t="s">
+      <c r="M20" s="114" t="s">
         <v>17</v>
       </c>
-      <c r="N20" s="112"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="112"/>
-      <c r="U20" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="N20" s="114"/>
+      <c r="O20" s="114"/>
+      <c r="P20" s="114"/>
+      <c r="Q20" s="114"/>
+      <c r="R20" s="114"/>
+      <c r="U20" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" ht="15.6">
       <c r="A21" s="84"/>
       <c r="B21" s="84"/>
       <c r="C21" s="47"/>
@@ -2132,11 +2132,11 @@
       <c r="R21" s="36" t="s">
         <v>8</v>
       </c>
-      <c r="U21" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U21" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" ht="15.6">
       <c r="A22" s="84"/>
       <c r="B22" s="84"/>
       <c r="C22" s="47"/>
@@ -2157,13 +2157,13 @@
       <c r="P22" s="33"/>
       <c r="Q22" s="35"/>
       <c r="R22" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="U22" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="23" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+      <c r="U22" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" ht="15.6">
       <c r="A23" s="84"/>
       <c r="B23" s="84"/>
       <c r="C23" s="47"/>
@@ -2186,11 +2186,11 @@
       <c r="R23" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="U23" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U23" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="24" spans="1:21" ht="15.9" thickBot="1">
       <c r="A24" s="84"/>
       <c r="B24" s="84"/>
       <c r="C24" s="47"/>
@@ -2204,20 +2204,20 @@
       <c r="K24" s="33"/>
       <c r="L24" s="33"/>
       <c r="M24" s="33" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="N24" s="33"/>
       <c r="O24" s="33"/>
       <c r="P24" s="33"/>
       <c r="Q24" s="35"/>
       <c r="R24" s="39" t="s">
-        <v>56</v>
-      </c>
-      <c r="U24" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:21" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+      <c r="U24" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" ht="27.75" customHeight="1">
       <c r="A25" s="84"/>
       <c r="B25" s="84"/>
       <c r="C25" s="83"/>
@@ -2230,19 +2230,19 @@
       <c r="J25" s="29"/>
       <c r="K25" s="33"/>
       <c r="L25" s="3" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="N25" s="3"/>
       <c r="O25" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="Q25" s="35"/>
       <c r="R25" s="40"/>
-      <c r="U25" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="26" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U25" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A26" s="13"/>
       <c r="B26" s="13"/>
       <c r="C26" s="84"/>
@@ -2261,14 +2261,14 @@
       <c r="P26" s="10"/>
       <c r="Q26" s="10"/>
       <c r="R26" s="10"/>
-      <c r="U26" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="27" spans="1:21" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U26" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" ht="30.3" thickBot="1">
       <c r="A27" s="47"/>
-      <c r="B27" s="117"/>
-      <c r="C27" s="117"/>
+      <c r="B27" s="119"/>
+      <c r="C27" s="119"/>
       <c r="D27" s="94"/>
       <c r="E27" s="94"/>
       <c r="F27" s="94"/>
@@ -2277,10 +2277,10 @@
       <c r="I27" s="44"/>
       <c r="J27" s="29"/>
       <c r="K27" s="41"/>
-      <c r="L27" s="118" t="s">
+      <c r="L27" s="120" t="s">
         <v>18</v>
       </c>
-      <c r="M27" s="119"/>
+      <c r="M27" s="121"/>
       <c r="N27" s="42" t="s">
         <v>19</v>
       </c>
@@ -2291,21 +2291,21 @@
         <v>21</v>
       </c>
       <c r="Q27" s="42" t="s">
+        <v>59</v>
+      </c>
+      <c r="R27" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="R27" s="43" t="s">
+      <c r="S27" t="s">
         <v>23</v>
       </c>
-      <c r="S27" t="s">
+      <c r="U27" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" ht="15.6">
+      <c r="A28" s="46" t="s">
         <v>24</v>
-      </c>
-      <c r="U27" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="28" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A28" s="46" t="s">
-        <v>25</v>
       </c>
       <c r="B28" s="46"/>
       <c r="C28" s="47"/>
@@ -2324,14 +2324,14 @@
       <c r="P28" s="47"/>
       <c r="Q28" s="47"/>
       <c r="R28" s="49"/>
-      <c r="U28" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="29" spans="1:21" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U28" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" ht="15.6">
       <c r="A29" s="95"/>
-      <c r="B29" s="120"/>
-      <c r="C29" s="120"/>
+      <c r="B29" s="122"/>
+      <c r="C29" s="122"/>
       <c r="D29" s="96"/>
       <c r="E29" s="96"/>
       <c r="F29" s="47"/>
@@ -2340,32 +2340,32 @@
       <c r="I29" s="54"/>
       <c r="J29" s="29"/>
       <c r="K29" s="50" t="s">
+        <v>25</v>
+      </c>
+      <c r="L29" s="123" t="s">
         <v>26</v>
       </c>
-      <c r="L29" s="121" t="s">
+      <c r="M29" s="124"/>
+      <c r="N29" s="51" t="s">
         <v>27</v>
       </c>
-      <c r="M29" s="122"/>
-      <c r="N29" s="51" t="s">
+      <c r="O29" s="51" t="s">
         <v>28</v>
       </c>
-      <c r="O29" s="51" t="s">
+      <c r="P29" s="52" t="s">
         <v>29</v>
       </c>
-      <c r="P29" s="52" t="s">
+      <c r="Q29" s="52" t="s">
         <v>30</v>
       </c>
-      <c r="Q29" s="52" t="s">
+      <c r="R29" s="53" t="s">
         <v>31</v>
       </c>
-      <c r="R29" s="53" t="s">
-        <v>32</v>
-      </c>
-      <c r="U29" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="30" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U29" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" ht="15.9" thickBot="1">
       <c r="A30" s="97" t="s">
         <v>1</v>
       </c>
@@ -2386,15 +2386,15 @@
       <c r="P30" s="47"/>
       <c r="Q30" s="47"/>
       <c r="R30" s="49"/>
-      <c r="U30" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:21" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U30" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="31" spans="1:21" ht="15.9" thickBot="1">
       <c r="A31" s="46"/>
-      <c r="B31" s="116"/>
-      <c r="C31" s="116"/>
-      <c r="D31" s="116"/>
+      <c r="B31" s="118"/>
+      <c r="C31" s="118"/>
+      <c r="D31" s="118"/>
       <c r="E31" s="98"/>
       <c r="F31" s="54"/>
       <c r="G31" s="99"/>
@@ -2402,26 +2402,26 @@
       <c r="I31" s="54"/>
       <c r="J31" s="29"/>
       <c r="K31" s="55"/>
-      <c r="L31" s="113" t="s">
+      <c r="L31" s="115" t="s">
+        <v>32</v>
+      </c>
+      <c r="M31" s="116"/>
+      <c r="N31" s="117"/>
+      <c r="O31" s="63" t="s">
         <v>33</v>
-      </c>
-      <c r="M31" s="114"/>
-      <c r="N31" s="115"/>
-      <c r="O31" s="63" t="s">
-        <v>34</v>
       </c>
       <c r="P31" s="56"/>
       <c r="Q31" s="64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="R31" s="64" t="s">
-        <v>43</v>
-      </c>
-      <c r="U31" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="32" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+      <c r="U31" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" ht="5.0999999999999996" customHeight="1" thickBot="1">
       <c r="A32" s="46"/>
       <c r="B32" s="57"/>
       <c r="C32" s="57"/>
@@ -2440,36 +2440,36 @@
       <c r="P32" s="54"/>
       <c r="Q32" s="54"/>
       <c r="R32" s="54"/>
-      <c r="U32" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="33" spans="1:21" s="62" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U32" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="33" spans="1:21" s="62" customFormat="1" ht="14.7" thickBot="1">
       <c r="A33" s="90"/>
-      <c r="B33" s="123"/>
-      <c r="C33" s="123"/>
-      <c r="D33" s="123"/>
-      <c r="E33" s="123"/>
+      <c r="B33" s="125"/>
+      <c r="C33" s="125"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="125"/>
       <c r="F33" s="90"/>
       <c r="G33" s="90"/>
       <c r="H33" s="90"/>
       <c r="I33" s="1"/>
       <c r="J33" s="20"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="124" t="s">
-        <v>50</v>
-      </c>
-      <c r="M33" s="125"/>
-      <c r="N33" s="125"/>
-      <c r="O33" s="126"/>
+      <c r="L33" s="126" t="s">
+        <v>48</v>
+      </c>
+      <c r="M33" s="127"/>
+      <c r="N33" s="127"/>
+      <c r="O33" s="128"/>
       <c r="P33" s="1"/>
       <c r="Q33" s="16"/>
       <c r="R33" s="16"/>
-      <c r="U33" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U33" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="34" spans="1:21">
       <c r="A34" s="59"/>
       <c r="B34" s="86"/>
       <c r="C34" s="100"/>
@@ -2483,21 +2483,21 @@
       <c r="K34" s="59"/>
       <c r="L34" s="68"/>
       <c r="M34" s="66" t="s">
+        <v>50</v>
+      </c>
+      <c r="N34" s="66" t="s">
+        <v>51</v>
+      </c>
+      <c r="O34" s="67" t="s">
         <v>52</v>
       </c>
-      <c r="N34" s="66" t="s">
-        <v>53</v>
-      </c>
-      <c r="O34" s="67" t="s">
-        <v>54</v>
-      </c>
-      <c r="U34" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="35" spans="1:21" s="62" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="U34" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:21" s="62" customFormat="1" ht="15.6">
       <c r="A35" s="46" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B35" s="58"/>
       <c r="C35" s="58"/>
@@ -2516,11 +2516,11 @@
       <c r="P35" s="54"/>
       <c r="Q35" s="54"/>
       <c r="R35" s="54"/>
-      <c r="U35" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="36" spans="1:21" s="62" customFormat="1" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U35" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="36" spans="1:21" s="62" customFormat="1" ht="15.75" customHeight="1">
       <c r="A36" s="59"/>
       <c r="B36" s="86"/>
       <c r="C36" s="100"/>
@@ -2533,25 +2533,25 @@
       <c r="J36" s="61"/>
       <c r="K36" s="59"/>
       <c r="L36" s="68" t="s">
+        <v>35</v>
+      </c>
+      <c r="M36" s="66" t="s">
         <v>36</v>
       </c>
-      <c r="M36" s="66" t="s">
+      <c r="N36" s="66" t="s">
         <v>37</v>
       </c>
-      <c r="N36" s="66" t="s">
+      <c r="O36" s="67" t="s">
         <v>38</v>
-      </c>
-      <c r="O36" s="67" t="s">
-        <v>39</v>
       </c>
       <c r="P36" s="16"/>
       <c r="Q36" s="16"/>
       <c r="R36" s="16"/>
-      <c r="U36" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="37" spans="1:21" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="U36" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="37" spans="1:21" ht="14.7" thickBot="1">
       <c r="A37" s="59"/>
       <c r="B37" s="86"/>
       <c r="C37" s="102"/>
@@ -2570,11 +2570,11 @@
       <c r="P37" s="16"/>
       <c r="Q37" s="16"/>
       <c r="R37" s="16"/>
-      <c r="U37" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="U37" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:21">
       <c r="A38" s="13" t="s">
         <v>1</v>
       </c>
@@ -2595,11 +2595,11 @@
       <c r="P38" s="16"/>
       <c r="Q38" s="16"/>
       <c r="R38" s="16"/>
-      <c r="U38" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="39" spans="1:21" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="U38" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="39" spans="1:21" ht="12.75" customHeight="1">
       <c r="A39" s="13"/>
       <c r="B39" s="14"/>
       <c r="C39" s="14"/>
@@ -2611,25 +2611,25 @@
       <c r="I39" s="16"/>
       <c r="J39" s="19"/>
       <c r="K39" s="13"/>
-      <c r="L39" s="109" t="s">
-        <v>45</v>
-      </c>
-      <c r="M39" s="110"/>
-      <c r="N39" s="110"/>
-      <c r="O39" s="110"/>
-      <c r="P39" s="110"/>
-      <c r="Q39" s="110"/>
-      <c r="R39" s="110"/>
-      <c r="U39" s="137" t="s">
+      <c r="L39" s="111" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="40" spans="1:21" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="M39" s="112"/>
+      <c r="N39" s="112"/>
+      <c r="O39" s="112"/>
+      <c r="P39" s="112"/>
+      <c r="Q39" s="112"/>
+      <c r="R39" s="112"/>
+      <c r="U39" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="40" spans="1:21" ht="15" customHeight="1">
       <c r="A40" s="13"/>
       <c r="B40" s="14"/>
       <c r="C40" s="14"/>
       <c r="D40" s="76" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E40" s="15"/>
       <c r="F40" s="16"/>
@@ -2638,18 +2638,18 @@
       <c r="I40" s="16"/>
       <c r="J40" s="19"/>
       <c r="K40" s="13"/>
-      <c r="L40" s="110"/>
-      <c r="M40" s="110"/>
-      <c r="N40" s="110"/>
-      <c r="O40" s="110"/>
-      <c r="P40" s="110"/>
-      <c r="Q40" s="110"/>
-      <c r="R40" s="110"/>
-      <c r="U40" s="137" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="L40" s="112"/>
+      <c r="M40" s="112"/>
+      <c r="N40" s="112"/>
+      <c r="O40" s="112"/>
+      <c r="P40" s="112"/>
+      <c r="Q40" s="112"/>
+      <c r="R40" s="112"/>
+      <c r="U40" s="110" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="41" spans="1:21">
       <c r="A41" s="81" t="s">
         <v>1</v>
       </c>
